--- a/GtA stat.xlsx
+++ b/GtA stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draft\Desktop\_Project Arstotzka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LipatovKA\Desktop\_Project Arstotzka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F100C5-45FD-4F22-8AF1-A1F6E11C4363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E16DB8F-55E1-4089-9DAE-F7752C539D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="страны">Список!$A$1:$A$9</definedName>
+    <definedName name="электричество">Список!$C$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,14 +42,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
   <si>
     <t>Арстотцка</t>
   </si>
@@ -367,6 +371,15 @@
   <si>
     <t>Дебаф от электроэнергии</t>
   </si>
+  <si>
+    <t>Старое</t>
+  </si>
+  <si>
+    <t>Новое</t>
+  </si>
+  <si>
+    <t>Железо</t>
+  </si>
 </sst>
 </file>
 
@@ -1069,7 +1082,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,24 +1439,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,6 +1474,15 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1638,13 +1648,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>265058</xdr:rowOff>
@@ -1688,13 +1698,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>265058</xdr:rowOff>
@@ -1738,13 +1748,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>170793</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>408918</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>254219</xdr:rowOff>
@@ -1788,13 +1798,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>210207</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>448332</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>254219</xdr:rowOff>
@@ -1838,13 +1848,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>177362</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>415487</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>267357</xdr:rowOff>
@@ -1888,13 +1898,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>183930</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>422055</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -1938,13 +1948,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>170794</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>408919</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -1988,13 +1998,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>197070</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>435195</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>260788</xdr:rowOff>
@@ -2038,13 +2048,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>197068</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>203638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>435193</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>241081</xdr:rowOff>
@@ -2088,13 +2098,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>441763</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>267357</xdr:rowOff>
@@ -2138,13 +2148,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>426326</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>22336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>664451</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>657</xdr:rowOff>
@@ -2188,13 +2198,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>420413</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>658538</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -2238,13 +2248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>426983</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>52552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>665108</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>300202</xdr:rowOff>
@@ -2288,13 +2298,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>441435</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>679560</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>248965</xdr:rowOff>
@@ -2338,13 +2348,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>428296</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>375745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>666421</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>242395</xdr:rowOff>
@@ -2388,13 +2398,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>422182</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>4295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>660307</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>251945</xdr:rowOff>
@@ -2438,13 +2448,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>417635</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>655760</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>263618</xdr:rowOff>
@@ -2488,13 +2498,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>424203</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>10359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>662328</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>258009</xdr:rowOff>
@@ -2802,13 +2812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,85 +2834,87 @@
     <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" customWidth="1"/>
-    <col min="32" max="32" width="8.28515625" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="141" t="s">
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="144" t="s">
+      <c r="I1" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="157" t="s">
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="150" t="s">
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="153" t="s">
+      <c r="V1" s="149"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="155" t="s">
+      <c r="AC1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="146" t="s">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
-      <c r="AM1" s="147"/>
-      <c r="AN1" s="147"/>
-      <c r="AO1" s="147"/>
-    </row>
-    <row r="2" spans="1:41" s="1" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="146"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="146"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="146"/>
+      <c r="AL1" s="146"/>
+      <c r="AM1" s="146"/>
+      <c r="AN1" s="146"/>
+      <c r="AO1" s="146"/>
+      <c r="AP1" s="146"/>
+    </row>
+    <row r="2" spans="1:42" s="1" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="18" t="s">
         <v>33</v>
       </c>
@@ -2915,8 +2927,8 @@
       <c r="F2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="145"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="144"/>
       <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
@@ -2954,34 +2966,36 @@
         <v>83</v>
       </c>
       <c r="U2" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Y2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AA2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="54" t="s">
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="54" t="s">
+      <c r="AD2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AE2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="18"/>
       <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
       <c r="AH2" s="18"/>
@@ -2990,12 +3004,13 @@
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="30" t="s">
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
@@ -3064,61 +3079,62 @@
         <f>10+14+4+3</f>
         <v>31</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="22"/>
+      <c r="W3" s="15">
         <f>11</f>
         <v>11</v>
       </c>
-      <c r="W3" s="15">
+      <c r="X3" s="15">
         <f>23</f>
         <v>23</v>
       </c>
-      <c r="X3" s="15">
+      <c r="Y3" s="15">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16">
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="16">
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="AA3" s="79">
+      <c r="AB3" s="79">
         <v>18846379</v>
       </c>
-      <c r="AB3" s="120">
-        <f>AA3*127/1000</f>
+      <c r="AC3" s="120">
+        <f>AB3*127/1000</f>
         <v>2393490.1329999999</v>
       </c>
-      <c r="AC3" s="121">
+      <c r="AD3" s="121">
         <f>M3*Провиант!$B$12+База!N3*Провиант!$C$12</f>
         <v>946259.7</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="31"/>
+      <c r="AE3" s="22"/>
       <c r="AF3" s="31"/>
-      <c r="AG3" s="31">
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31">
         <v>0.05</v>
       </c>
-      <c r="AH3" s="31"/>
       <c r="AI3" s="31"/>
       <c r="AJ3" s="31"/>
-      <c r="AK3" s="31">
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31">
         <v>0.05</v>
       </c>
-      <c r="AL3" s="31">
+      <c r="AM3" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AM3" s="31">
+      <c r="AN3" s="31">
         <v>0.1</v>
       </c>
-      <c r="AN3" s="36">
+      <c r="AO3" s="36">
         <v>0.73</v>
       </c>
-      <c r="AO3" s="32">
-        <f>1-SUM(AE3:AN3)</f>
+      <c r="AP3" s="32">
+        <f>1-SUM(AF3:AO3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>0</v>
       </c>
@@ -3189,59 +3205,60 @@
         <f>172+30+27</f>
         <v>229</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="23"/>
+      <c r="W4" s="2">
         <f>12+16</f>
         <v>28</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <f>16</f>
         <v>16</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <f>92</f>
         <v>92</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="11">
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="11">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="AA4" s="78">
+      <c r="AB4" s="78">
         <v>75685389</v>
       </c>
-      <c r="AB4" s="86">
-        <f t="shared" ref="AB4:AB11" si="2">AA4*127/1000</f>
+      <c r="AC4" s="86">
+        <f t="shared" ref="AC4:AC11" si="2">AB4*127/1000</f>
         <v>9612044.4030000009</v>
       </c>
-      <c r="AC4" s="91">
+      <c r="AD4" s="91">
         <f>M4*Провиант!$B$12+База!N4*Провиант!$C$12</f>
         <v>4654199</v>
       </c>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="33">
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="33">
         <v>0.4</v>
-      </c>
-      <c r="AF4" s="33">
-        <v>0.25</v>
       </c>
       <c r="AG4" s="33">
         <v>0.25</v>
       </c>
       <c r="AH4" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="AI4" s="33">
         <v>0.1</v>
       </c>
-      <c r="AI4" s="33"/>
       <c r="AJ4" s="33"/>
       <c r="AK4" s="33"/>
       <c r="AL4" s="33"/>
       <c r="AM4" s="33"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="32">
-        <f t="shared" ref="AO4:AO11" si="3">1-SUM(AE4:AN4)</f>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="32">
+        <f t="shared" ref="AP4:AP11" si="3">1-SUM(AF4:AO4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
@@ -3312,66 +3329,67 @@
         <f>20+203+108-5</f>
         <v>326</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="24"/>
+      <c r="W5" s="4">
         <f>40</f>
         <v>40</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <f>189</f>
         <v>189</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <f>15+28+39</f>
         <v>82</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <f>342+150</f>
         <v>492</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="AA5" s="9">
         <f>12+320</f>
         <v>332</v>
       </c>
-      <c r="AA5" s="79">
+      <c r="AB5" s="79">
         <v>65982200</v>
       </c>
-      <c r="AB5" s="88">
+      <c r="AC5" s="88">
         <f t="shared" si="2"/>
         <v>8379739.4000000004</v>
       </c>
-      <c r="AC5" s="87">
+      <c r="AD5" s="87">
         <f>M5*Провиант!$B$12+База!N5*Провиант!$C$12</f>
         <v>3123359.2</v>
       </c>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="34"/>
+      <c r="AE5" s="24"/>
       <c r="AF5" s="34"/>
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
-      <c r="AI5" s="34">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34">
         <v>0.1</v>
       </c>
-      <c r="AJ5" s="34">
+      <c r="AK5" s="34">
         <v>0.19</v>
       </c>
-      <c r="AK5" s="34">
+      <c r="AL5" s="34">
         <v>0.12</v>
       </c>
-      <c r="AL5" s="34">
+      <c r="AM5" s="34">
         <v>0.08</v>
       </c>
-      <c r="AM5" s="34">
+      <c r="AN5" s="34">
         <v>0.47</v>
       </c>
-      <c r="AN5" s="38">
+      <c r="AO5" s="38">
         <v>0.04</v>
       </c>
-      <c r="AO5" s="32">
+      <c r="AP5" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>1</v>
       </c>
@@ -3440,60 +3458,61 @@
         <f>70+19+10</f>
         <v>99</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="23"/>
+      <c r="W6" s="2">
         <f>10+25</f>
         <v>35</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="11">
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="11">
         <f>80</f>
         <v>80</v>
       </c>
-      <c r="AA6" s="78">
+      <c r="AB6" s="78">
         <f>119352255+3161910</f>
         <v>122514165</v>
       </c>
-      <c r="AB6" s="86">
+      <c r="AC6" s="86">
         <f t="shared" si="2"/>
         <v>15559298.955</v>
       </c>
-      <c r="AC6" s="91">
+      <c r="AD6" s="91">
         <f>M6*Провиант!$B$12+База!N6*Провиант!$C$12</f>
         <v>6908398</v>
       </c>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="33"/>
+      <c r="AE6" s="23"/>
       <c r="AF6" s="33"/>
-      <c r="AG6" s="33">
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33">
         <v>0.13</v>
       </c>
-      <c r="AH6" s="33"/>
       <c r="AI6" s="33"/>
       <c r="AJ6" s="33"/>
       <c r="AK6" s="33"/>
-      <c r="AL6" s="33">
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33">
         <v>0.2</v>
       </c>
-      <c r="AM6" s="33">
+      <c r="AN6" s="33">
         <v>0.52</v>
       </c>
-      <c r="AN6" s="37">
+      <c r="AO6" s="37">
         <v>0.15</v>
       </c>
-      <c r="AO6" s="32">
+      <c r="AP6" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
@@ -3564,54 +3583,55 @@
         <f>21+50+209</f>
         <v>280</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4">
+      <c r="V7" s="24"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4">
         <f>128</f>
         <v>128</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <f>204+19</f>
         <v>223</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="9">
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="9">
         <f>7+5+12</f>
         <v>24</v>
       </c>
-      <c r="AA7" s="79">
+      <c r="AB7" s="79">
         <v>69419206</v>
       </c>
-      <c r="AB7" s="88">
+      <c r="AC7" s="88">
         <f t="shared" si="2"/>
         <v>8816239.1620000005</v>
       </c>
-      <c r="AC7" s="87">
+      <c r="AD7" s="87">
         <f>M7*Провиант!$B$12+База!N7*Провиант!$C$12</f>
         <v>5631298.5</v>
       </c>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="34"/>
+      <c r="AE7" s="24"/>
       <c r="AF7" s="34"/>
       <c r="AG7" s="34"/>
       <c r="AH7" s="34"/>
-      <c r="AI7" s="34">
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34">
         <v>0.1</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AK7" s="34">
         <v>0.15</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AL7" s="34">
         <v>0.75</v>
       </c>
-      <c r="AL7" s="34"/>
       <c r="AM7" s="34"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="32">
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>2</v>
       </c>
@@ -3682,62 +3702,63 @@
         <f>50+125</f>
         <v>175</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="23"/>
+      <c r="W8" s="2">
         <f>12+35</f>
         <v>47</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <f>19+44+77</f>
         <v>140</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <f>44</f>
         <v>44</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="11">
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="11">
         <v>5</v>
       </c>
-      <c r="AA8" s="78">
+      <c r="AB8" s="78">
         <v>63388546</v>
       </c>
-      <c r="AB8" s="86">
+      <c r="AC8" s="86">
         <f t="shared" si="2"/>
         <v>8050345.3420000002</v>
       </c>
-      <c r="AC8" s="91">
+      <c r="AD8" s="91">
         <f>M8*Провиант!$B$12+База!N8*Провиант!$C$12</f>
         <v>2754657.7</v>
       </c>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="33"/>
+      <c r="AE8" s="23"/>
       <c r="AF8" s="33"/>
-      <c r="AG8" s="33">
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33">
         <v>0.11</v>
       </c>
-      <c r="AH8" s="33">
+      <c r="AI8" s="33">
         <v>0.4</v>
       </c>
-      <c r="AI8" s="33">
+      <c r="AJ8" s="33">
         <v>0.17</v>
       </c>
-      <c r="AJ8" s="33">
+      <c r="AK8" s="33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK8" s="33">
+      <c r="AL8" s="33">
         <v>0.15</v>
       </c>
-      <c r="AL8" s="33">
+      <c r="AM8" s="33">
         <v>0.1</v>
       </c>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="32">
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>6</v>
       </c>
@@ -3806,59 +3827,60 @@
         <f>30</f>
         <v>30</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4">
+      <c r="V9" s="24"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4">
         <f>77</f>
         <v>77</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <f>10+3</f>
         <v>13</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="9">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="9">
         <v>8</v>
       </c>
-      <c r="AA9" s="79">
+      <c r="AB9" s="79">
         <v>22382937</v>
       </c>
-      <c r="AB9" s="88">
+      <c r="AC9" s="88">
         <f t="shared" si="2"/>
         <v>2842632.9989999998</v>
       </c>
-      <c r="AC9" s="87">
+      <c r="AD9" s="87">
         <f>M9*Провиант!$B$12+База!N9*Провиант!$C$12</f>
         <v>1261679.6000000001</v>
       </c>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="34"/>
+      <c r="AE9" s="24"/>
       <c r="AF9" s="34"/>
       <c r="AG9" s="34"/>
-      <c r="AH9" s="34">
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34">
         <v>0.08</v>
       </c>
-      <c r="AI9" s="34">
+      <c r="AJ9" s="34">
         <v>0.13</v>
       </c>
-      <c r="AJ9" s="34">
+      <c r="AK9" s="34">
         <v>0.05</v>
       </c>
-      <c r="AK9" s="34">
+      <c r="AL9" s="34">
         <v>0.22</v>
       </c>
-      <c r="AL9" s="34">
+      <c r="AM9" s="34">
         <v>0.42</v>
       </c>
-      <c r="AM9" s="34">
+      <c r="AN9" s="34">
         <v>0.1</v>
       </c>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="32">
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
@@ -3920,22 +3942,22 @@
         <v>26</v>
       </c>
       <c r="U10" s="23"/>
-      <c r="V10" s="2"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="86">
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="91">
+      <c r="AD10" s="91">
         <f>M10*Провиант!$B$12+База!N10*Провиант!$C$12</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="33"/>
+      <c r="AE10" s="23"/>
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
       <c r="AH10" s="33"/>
@@ -3944,13 +3966,14 @@
       <c r="AK10" s="33"/>
       <c r="AL10" s="33"/>
       <c r="AM10" s="33"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="32">
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" s="5" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" s="5" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>3</v>
       </c>
@@ -4017,61 +4040,62 @@
         <f>105</f>
         <v>105</v>
       </c>
-      <c r="V11" s="13"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="13">
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13">
         <f>18</f>
         <v>18</v>
       </c>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="80">
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="80">
         <v>17932651</v>
       </c>
-      <c r="AB11" s="89">
+      <c r="AC11" s="89">
         <f t="shared" si="2"/>
         <v>2277446.6770000001</v>
       </c>
-      <c r="AC11" s="90">
+      <c r="AD11" s="90">
         <f>M11*Провиант!$B$12+База!N11*Провиант!$C$12</f>
         <v>4808398</v>
       </c>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="35"/>
+      <c r="AE11" s="25"/>
       <c r="AF11" s="35"/>
       <c r="AG11" s="35"/>
       <c r="AH11" s="35"/>
       <c r="AI11" s="35"/>
       <c r="AJ11" s="35"/>
-      <c r="AK11" s="35">
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35">
         <v>0.7</v>
       </c>
-      <c r="AL11" s="35">
+      <c r="AM11" s="35">
         <v>0.05</v>
       </c>
-      <c r="AM11" s="35">
+      <c r="AN11" s="35">
         <v>0.1</v>
       </c>
-      <c r="AN11" s="39">
+      <c r="AO11" s="39">
         <v>0.15</v>
       </c>
-      <c r="AO11" s="32">
+      <c r="AP11" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45">
-        <f>SUM(AB3:AB11)</f>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45">
+        <f>SUM(AC3:AC11)</f>
         <v>57931237.071000002</v>
       </c>
-      <c r="AC12" s="45"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AA13" s="45"/>
-    </row>
-    <row r="21" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="AD12" s="45"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AB13" s="45"/>
+    </row>
+    <row r="21" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L21">
         <f>5000000/350</f>
         <v>14285.714285714286</v>
@@ -4091,6 +4115,7 @@
         <f>M21*12</f>
         <v>321428.57142857142</v>
       </c>
+      <c r="V21" s="45"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
@@ -4100,12 +4125,12 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="AD1:AO1"/>
+    <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="U1:AA1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="P1:T1"/>
   </mergeCells>
@@ -4119,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423BE65-EAF7-411E-AD3B-DE11540F6651}">
   <dimension ref="A1:AA159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,34 +4175,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="156"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="154"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="64" t="s">
         <v>62</v>
       </c>
@@ -4276,10 +4301,10 @@
         <f>SUMIF($A$3:$A$11,$L$3,I$3:I$11)</f>
         <v>46259.7</v>
       </c>
-      <c r="R3" s="133">
+      <c r="R3" s="129">
         <v>0.7</v>
       </c>
-      <c r="S3" s="133">
+      <c r="S3" s="129">
         <f>IF(SUMIF($A$3:$A$11,$L$3,Энергия!X3:X11)&lt;1,(1-SUMIF($A$3:$A$11,$L$3,Энергия!X3:X11))*-0.5,0)</f>
         <v>-0.20074812967581046</v>
       </c>
@@ -4363,11 +4388,11 @@
         <f t="shared" ref="K5:K11" si="4">G5*12</f>
         <v>8379739.4000000004</v>
       </c>
-      <c r="Q5" s="140">
+      <c r="Q5" s="136">
         <f>Q3+Q3*S3</f>
         <v>36973.151745635907</v>
       </c>
-      <c r="S5" s="139"/>
+      <c r="S5" s="135"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
@@ -5149,11 +5174,11 @@
       </c>
       <c r="K23" s="59">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M23" s="63">
         <f t="shared" si="12"/>
@@ -5692,11 +5717,11 @@
       </c>
       <c r="K31" s="59">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="M31" s="63">
         <f t="shared" si="12"/>
@@ -6220,27 +6245,27 @@
       <c r="F39" s="60"/>
       <c r="G39" s="61" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">IF(G38&gt;0,G38*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G38)+(($Q$3+$Q$3*S25)+IF(M39=0,$P$3*_xlfn.IFS(J39="НЕУРОЖАЙ",0.25,J39="ОБЫЧНЫЙ",1,J39="РЕКОРД",1.25,J39="",1),0))-$O$3</f>
-        <v>-1055359.526513902</v>
+        <v>-380359.52651390206</v>
       </c>
       <c r="H39" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.2911495825944241</v>
+        <v>-1.906970183514362</v>
       </c>
       <c r="I39" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.7038047078160967</v>
+        <v>-1.3348791284600534</v>
       </c>
       <c r="J39" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>НЕУРОЖАЙ</v>
+        <v>ОБЫЧНЫЙ</v>
       </c>
       <c r="K39" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>30</v>
-      </c>
-      <c r="L39" t="str">
+        <v>67</v>
+      </c>
+      <c r="L39">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>47</v>
       </c>
       <c r="M39" s="63">
         <f t="shared" si="12"/>
@@ -6288,15 +6313,15 @@
       <c r="F40" s="60"/>
       <c r="G40" s="61" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">IF(G39&gt;0,G39*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G39)+(($Q$3+$Q$3*S26)+IF(M40=0,$P$3*_xlfn.IFS(J40="НЕУРОЖАЙ",0.25,J40="ОБЫЧНЫЙ",1,J40="РЕКОРД",1.25,J40="",1),0))-$O$3</f>
-        <v>-1208557.3375972353</v>
+        <v>-533557.33759723534</v>
       </c>
       <c r="H40" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.0592219918572034</v>
+        <v>-2.6750425927771406</v>
       </c>
       <c r="I40" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.2414553943000417</v>
+        <v>-1.8725298149439984</v>
       </c>
       <c r="J40" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6356,15 +6381,15 @@
       <c r="F41" s="60"/>
       <c r="G41" s="61" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">IF(G40&gt;0,G40*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G40)+(($Q$3+$Q$3*S27)+IF(M41=0,$P$3*_xlfn.IFS(J41="НЕУРОЖАЙ",0.25,J41="ОБЫЧНЫЙ",1,J41="РЕКОРД",1.25,J41="",1),0))-$O$3</f>
-        <v>-1361755.1486805687</v>
+        <v>-686755.14868056867</v>
       </c>
       <c r="H41" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.8272944011199828</v>
+        <v>-3.4431150020399199</v>
       </c>
       <c r="I41" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.779106080783988</v>
+        <v>-2.4101805014279436</v>
       </c>
       <c r="J41" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6424,15 +6449,15 @@
       <c r="F42" s="60"/>
       <c r="G42" s="61" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">IF(G41&gt;0,G41*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G41)+(($Q$3+$Q$3*S28)+IF(M42=0,$P$3*_xlfn.IFS(J42="НЕУРОЖАЙ",0.25,J42="ОБЫЧНЫЙ",1,J42="РЕКОРД",1.25,J42="",1),0))-$O$3</f>
-        <v>-1514952.959763902</v>
+        <v>-839952.95976390201</v>
       </c>
       <c r="H42" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.5953668103827621</v>
+        <v>-4.2111874113026992</v>
       </c>
       <c r="I42" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3167567672679334</v>
+        <v>-2.9478311879118895</v>
       </c>
       <c r="J42" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6492,15 +6517,15 @@
       <c r="F43" s="60"/>
       <c r="G43" s="61" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">IF(G42&gt;0,G42*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G42)+(($Q$3+$Q$3*S29)+IF(M43=0,$P$3*_xlfn.IFS(J43="НЕУРОЖАЙ",0.25,J43="ОБЫЧНЫЙ",1,J43="РЕКОРД",1.25,J43="",1),0))-$O$3</f>
-        <v>-1668150.7708472353</v>
+        <v>-993150.77084723534</v>
       </c>
       <c r="H43" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.3634392196455405</v>
+        <v>-4.9792598205654786</v>
       </c>
       <c r="I43" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.854407453751878</v>
+        <v>-3.4854818743958349</v>
       </c>
       <c r="J43" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6560,15 +6585,15 @@
       <c r="F44" s="60"/>
       <c r="G44" s="61" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">IF(G43&gt;0,G43*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G43)+(($Q$3+$Q$3*S30)+IF(M44=0,$P$3*_xlfn.IFS(J44="НЕУРОЖАЙ",0.25,J44="ОБЫЧНЫЙ",1,J44="РЕКОРД",1.25,J44="",1),0))-$O$3</f>
-        <v>-1821348.5819305687</v>
+        <v>-1146348.5819305687</v>
       </c>
       <c r="H44" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.1315116289083207</v>
+        <v>-5.7473322298282579</v>
       </c>
       <c r="I44" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3920581402358243</v>
+        <v>-4.0231325608797803</v>
       </c>
       <c r="J44" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6628,15 +6653,15 @@
       <c r="F45" s="60"/>
       <c r="G45" s="61" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">IF(G44&gt;0,G44*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G44)+(($Q$3+$Q$3*S31)+IF(M45=0,$P$3*_xlfn.IFS(J45="НЕУРОЖАЙ",0.25,J45="ОБЫЧНЫЙ",1,J45="РЕКОРД",1.25,J45="",1),0))-$O$3</f>
-        <v>-1974546.393013902</v>
+        <v>-1299546.393013902</v>
       </c>
       <c r="H45" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.8995840381710991</v>
+        <v>-6.5154046390910372</v>
       </c>
       <c r="I45" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.9297088267197688</v>
+        <v>-4.5607832473637258</v>
       </c>
       <c r="J45" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6696,15 +6721,15 @@
       <c r="F46" s="60"/>
       <c r="G46" s="61" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">IF(G45&gt;0,G45*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G45)+(($Q$3+$Q$3*S32)+IF(M46=0,$P$3*_xlfn.IFS(J46="НЕУРОЖАЙ",0.25,J46="ОБЫЧНЫЙ",1,J46="РЕКОРД",1.25,J46="",1),0))-$O$3</f>
-        <v>-2127744.2040972356</v>
+        <v>-1452744.2040972353</v>
       </c>
       <c r="H46" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-10.667656447433879</v>
+        <v>-7.2834770483538165</v>
       </c>
       <c r="I46" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.4673595132037152</v>
+        <v>-5.0984339338476712</v>
       </c>
       <c r="J46" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6764,15 +6789,15 @@
       <c r="F47" s="60"/>
       <c r="G47" s="61" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">IF(G46&gt;0,G46*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G46)+(($Q$3+$Q$3*S33)+IF(M47=0,$P$3*_xlfn.IFS(J47="НЕУРОЖАЙ",0.25,J47="ОБЫЧНЫЙ",1,J47="РЕКОРД",1.25,J47="",1),0))-$O$3</f>
-        <v>-1380942.0151805689</v>
+        <v>-705942.01518056868</v>
       </c>
       <c r="H47" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.9234896579232421</v>
+        <v>-3.5393102588431784</v>
       </c>
       <c r="I47" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8464427605462692</v>
+        <v>-2.4775171811902248</v>
       </c>
       <c r="J47" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6780,11 +6805,11 @@
       </c>
       <c r="K47" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="20"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M47" s="63">
         <f t="shared" si="12"/>
@@ -6792,7 +6817,7 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="R47" s="59">
         <v>32</v>
@@ -6823,7 +6848,7 @@
       </c>
       <c r="Z47" s="59">
         <f ca="1">K23</f>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="AA47" s="59">
         <f>N23</f>
@@ -6844,15 +6869,15 @@
       <c r="F48" s="60"/>
       <c r="G48" s="61" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">IF(G47&gt;0,G47*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G47)+(($Q$3+$Q$3*S34)+IF(M48=0,$P$3*_xlfn.IFS(J48="НЕУРОЖАЙ",0.25,J48="ОБЫЧНЫЙ",1,J48="РЕКОРД",1.25,J48="",1),0))-$O$3</f>
-        <v>-1534139.8262639022</v>
+        <v>-859139.82626390201</v>
       </c>
       <c r="H48" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.6915620671860214</v>
+        <v>-4.3073826681059577</v>
       </c>
       <c r="I48" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3840934470302146</v>
+        <v>-3.0151678676741702</v>
       </c>
       <c r="J48" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6912,15 +6937,15 @@
       <c r="F49" s="60"/>
       <c r="G49" s="61" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">IF(G48&gt;0,G48*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G48)+(($Q$3+$Q$3*S35)+IF(M49=0,$P$3*_xlfn.IFS(J49="НЕУРОЖАЙ",0.25,J49="ОБЫЧНЫЙ",1,J49="РЕКОРД",1.25,J49="",1),0))-$O$3</f>
-        <v>-1687337.6373472356</v>
+        <v>-1012337.6373472353</v>
       </c>
       <c r="H49" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.4596344764488016</v>
+        <v>-5.075455077368737</v>
       </c>
       <c r="I49" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.921744133514161</v>
+        <v>-3.5528185541581156</v>
       </c>
       <c r="J49" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6980,15 +7005,15 @@
       <c r="F50" s="60"/>
       <c r="G50" s="61" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">IF(G49&gt;0,G49*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G49)+(($Q$3+$Q$3*S36)+IF(M50=0,$P$3*_xlfn.IFS(J50="НЕУРОЖАЙ",0.25,J50="ОБЫЧНЫЙ",1,J50="РЕКОРД",1.25,J50="",1),0))-$O$3</f>
-        <v>-1840535.4484305689</v>
+        <v>-1165535.4484305687</v>
       </c>
       <c r="H50" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.22770688571158</v>
+        <v>-5.8435274866315163</v>
       </c>
       <c r="I50" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4593948199981055</v>
+        <v>-4.0904692406420615</v>
       </c>
       <c r="J50" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7048,15 +7073,15 @@
       <c r="F51" s="60"/>
       <c r="G51" s="61" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">IF(G50&gt;0,G50*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G50)+(($Q$3+$Q$3*S37)+IF(M51=0,$P$3*_xlfn.IFS(J51="НЕУРОЖАЙ",0.25,J51="ОБЫЧНЫЙ",1,J51="РЕКОРД",1.25,J51="",1),0))-$O$3</f>
-        <v>-1993733.2595139022</v>
+        <v>-1318733.259513902</v>
       </c>
       <c r="H51" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.9957792949743585</v>
+        <v>-6.6115998958942956</v>
       </c>
       <c r="I51" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.9970455064820509</v>
+        <v>-4.6281199271260069</v>
       </c>
       <c r="J51" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7116,15 +7141,15 @@
       <c r="F52" s="60"/>
       <c r="G52" s="61" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">IF(G51&gt;0,G51*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G51)+(($Q$3+$Q$3*S38)+IF(M52=0,$P$3*_xlfn.IFS(J52="НЕУРОЖАЙ",0.25,J52="ОБЫЧНЫЙ",1,J52="РЕКОРД",1.25,J52="",1),0))-$O$3</f>
-        <v>-2146931.0705972356</v>
+        <v>-1471931.0705972353</v>
       </c>
       <c r="H52" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-10.763851704237139</v>
+        <v>-7.379672305157075</v>
       </c>
       <c r="I52" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.5346961929659964</v>
+        <v>-5.1657706136099524</v>
       </c>
       <c r="J52" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7184,15 +7209,15 @@
       <c r="F53" s="60"/>
       <c r="G53" s="61" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">IF(G52&gt;0,G52*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G52)+(($Q$3+$Q$3*S39)+IF(M53=0,$P$3*_xlfn.IFS(J53="НЕУРОЖАЙ",0.25,J53="ОБЫЧНЫЙ",1,J53="РЕКОРД",1.25,J53="",1),0))-$O$3</f>
-        <v>-2300128.8816805687</v>
+        <v>-1625128.8816805687</v>
       </c>
       <c r="H53" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-11.531924113499917</v>
+        <v>-8.1477447144198543</v>
       </c>
       <c r="I53" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.0723468794499418</v>
+        <v>-5.7034213000938978</v>
       </c>
       <c r="J53" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7252,15 +7277,15 @@
       <c r="F54" s="60"/>
       <c r="G54" s="61" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">IF(G53&gt;0,G53*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G53)+(($Q$3+$Q$3*S40)+IF(M54=0,$P$3*_xlfn.IFS(J54="НЕУРОЖАЙ",0.25,J54="ОБЫЧНЫЙ",1,J54="РЕКОРД",1.25,J54="",1),0))-$O$3</f>
-        <v>-2453326.6927639018</v>
+        <v>-1778326.692763902</v>
       </c>
       <c r="H54" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-12.299996522762696</v>
+        <v>-8.9158171236826327</v>
       </c>
       <c r="I54" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.6099975659338863</v>
+        <v>-6.2410719865778423</v>
       </c>
       <c r="J54" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7320,27 +7345,27 @@
       <c r="F55" s="60"/>
       <c r="G55" s="61" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">IF(G54&gt;0,G54*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G54)+(($Q$3+$Q$3*S41)+IF(M55=0,$P$3*_xlfn.IFS(J55="НЕУРОЖАЙ",0.25,J55="ОБЫЧНЫЙ",1,J55="РЕКОРД",1.25,J55="",1),0))-$O$3</f>
-        <v>-1481524.5038472351</v>
+        <v>-1031524.5038472353</v>
       </c>
       <c r="H55" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.4277699335587029</v>
+        <v>-5.1716503341719955</v>
       </c>
       <c r="I55" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1994389534910921</v>
+        <v>-3.6201552339203964</v>
       </c>
       <c r="J55" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>РЕКОРД</v>
+        <v>ОБЫЧНЫЙ</v>
       </c>
       <c r="K55" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="M55" s="63">
         <f t="shared" si="12"/>
@@ -7348,7 +7373,7 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="18"/>
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="R55" s="59">
         <v>40</v>
@@ -7388,15 +7413,15 @@
       <c r="F56" s="60"/>
       <c r="G56" s="61" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">IF(G55&gt;0,G55*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G55)+(($Q$3+$Q$3*S42)+IF(M56=0,$P$3*_xlfn.IFS(J56="НЕУРОЖАЙ",0.25,J56="ОБЫЧНЫЙ",1,J56="РЕКОРД",1.25,J56="",1),0))-$O$3</f>
-        <v>-1634722.3149305684</v>
+        <v>-1184722.3149305687</v>
       </c>
       <c r="H56" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.1958423428214822</v>
+        <v>-5.9397227434347748</v>
       </c>
       <c r="I56" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.7370896399750375</v>
+        <v>-4.1578059204043418</v>
       </c>
       <c r="J56" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7456,15 +7481,15 @@
       <c r="F57" s="60"/>
       <c r="G57" s="61" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">IF(G56&gt;0,G56*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G56)+(($Q$3+$Q$3*S43)+IF(M57=0,$P$3*_xlfn.IFS(J57="НЕУРОЖАЙ",0.25,J57="ОБЫЧНЫЙ",1,J57="РЕКОРД",1.25,J57="",1),0))-$O$3</f>
-        <v>-1787920.1260139018</v>
+        <v>-1337920.126013902</v>
       </c>
       <c r="H57" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.9639147520842606</v>
+        <v>-6.7077951526975541</v>
       </c>
       <c r="I57" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2747403264589821</v>
+        <v>-4.6954566068882873</v>
       </c>
       <c r="J57" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7524,15 +7549,15 @@
       <c r="F58" s="60"/>
       <c r="G58" s="61" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">IF(G57&gt;0,G57*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G57)+(($Q$3+$Q$3*S44)+IF(M58=0,$P$3*_xlfn.IFS(J58="НЕУРОЖАЙ",0.25,J58="ОБЫЧНЫЙ",1,J58="РЕКОРД",1.25,J58="",1),0))-$O$3</f>
-        <v>-1941117.9370972351</v>
+        <v>-1491117.9370972353</v>
       </c>
       <c r="H58" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.7319871613470408</v>
+        <v>-7.4758675619603325</v>
       </c>
       <c r="I58" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8123910129429284</v>
+        <v>-5.2331072933722327</v>
       </c>
       <c r="J58" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7592,15 +7617,15 @@
       <c r="F59" s="60"/>
       <c r="G59" s="61" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">IF(G58&gt;0,G58*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G58)+(($Q$3+$Q$3*S45)+IF(M59=0,$P$3*_xlfn.IFS(J59="НЕУРОЖАЙ",0.25,J59="ОБЫЧНЫЙ",1,J59="РЕКОРД",1.25,J59="",1),0))-$O$3</f>
-        <v>-2094315.7481805685</v>
+        <v>-1644315.7481805687</v>
       </c>
       <c r="H59" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-10.500059570609819</v>
+        <v>-8.2439399712231118</v>
       </c>
       <c r="I59" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3500416994268729</v>
+        <v>-5.7707579798561781</v>
       </c>
       <c r="J59" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7660,15 +7685,15 @@
       <c r="F60" s="60"/>
       <c r="G60" s="61" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">IF(G59&gt;0,G59*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G59)+(($Q$3+$Q$3*S46)+IF(M60=0,$P$3*_xlfn.IFS(J60="НЕУРОЖАЙ",0.25,J60="ОБЫЧНЫЙ",1,J60="РЕКОРД",1.25,J60="",1),0))-$O$3</f>
-        <v>-2247513.5592639018</v>
+        <v>-1797513.559263902</v>
       </c>
       <c r="H60" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-11.268131979872599</v>
+        <v>-9.012012380485892</v>
       </c>
       <c r="I60" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8876923859108192</v>
+        <v>-6.3084086663401244</v>
       </c>
       <c r="J60" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7728,15 +7753,15 @@
       <c r="F61" s="60"/>
       <c r="G61" s="61" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">IF(G60&gt;0,G60*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G60)+(($Q$3+$Q$3*S47)+IF(M61=0,$P$3*_xlfn.IFS(J61="НЕУРОЖАЙ",0.25,J61="ОБЫЧНЫЙ",1,J61="РЕКОРД",1.25,J61="",1),0))-$O$3</f>
-        <v>-2400711.3703472349</v>
+        <v>-1950711.3703472354</v>
       </c>
       <c r="H61" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-12.036204389135376</v>
+        <v>-9.7800847897486705</v>
       </c>
       <c r="I61" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.425343072394762</v>
+        <v>-6.846059352824069</v>
       </c>
       <c r="J61" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7796,15 +7821,15 @@
       <c r="F62" s="60"/>
       <c r="G62" s="61" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">IF(G61&gt;0,G61*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G61)+(($Q$3+$Q$3*S48)+IF(M62=0,$P$3*_xlfn.IFS(J62="НЕУРОЖАЙ",0.25,J62="ОБЫЧНЫЙ",1,J62="РЕКОРД",1.25,J62="",1),0))-$O$3</f>
-        <v>-2553909.181430568</v>
+        <v>-2103909.1814305689</v>
       </c>
       <c r="H62" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-12.804276798398154</v>
+        <v>-10.548157199011451</v>
       </c>
       <c r="I62" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.9629937588787083</v>
+        <v>-7.3837100393080153</v>
       </c>
       <c r="J62" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7864,15 +7889,15 @@
       <c r="F63" s="60"/>
       <c r="G63" s="61" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">IF(G62&gt;0,G62*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G62)+(($Q$3+$Q$3*S49)+IF(M63=0,$P$3*_xlfn.IFS(J63="НЕУРОЖАЙ",0.25,J63="ОБЫЧНЫЙ",1,J63="РЕКОРД",1.25,J63="",1),0))-$O$3</f>
-        <v>-1807106.9925139013</v>
+        <v>-1357106.9925139023</v>
       </c>
       <c r="H63" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.0601100088875164</v>
+        <v>-6.8039904095008135</v>
       </c>
       <c r="I63" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3420770062212615</v>
+        <v>-4.7627932866505693</v>
       </c>
       <c r="J63" s="59" t="str">
         <f ca="1">_xlfn.IFS(AND(K63&gt;0,K63&lt;34),"НЕУРОЖАЙ",AND(L63&gt;0,L63&lt;11),"РЕКОРД",NOT(M63=0),"",AND(K63&gt;33,L63&gt;10),"ОБЫЧНЫЙ")</f>
@@ -7880,11 +7905,11 @@
       </c>
       <c r="K63" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="20"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M63" s="63">
         <f t="shared" si="12"/>
@@ -7892,7 +7917,7 @@
       </c>
       <c r="N63">
         <f ca="1">IF(M63=0,IF(J55="НЕУРОЖАЙ",1,N55+33),"")</f>
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="R63" s="59">
         <v>48</v>
@@ -8338,7 +8363,7 @@
       </c>
       <c r="Z79" s="59">
         <f ca="1">K31</f>
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AA79" s="59">
         <f ca="1">N31</f>
@@ -9126,11 +9151,11 @@
       </c>
       <c r="T111" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1176767.6720328892</v>
+        <v>-501767.6720328891</v>
       </c>
       <c r="U111" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.8998413528846037</v>
+        <v>-2.5156619538045404</v>
       </c>
       <c r="V111">
         <f t="shared" si="25"/>
@@ -9146,11 +9171,11 @@
       </c>
       <c r="Y111" s="59" t="str">
         <f ca="1">J39</f>
-        <v>НЕУРОЖАЙ</v>
+        <v>ОБЫЧНЫЙ</v>
       </c>
       <c r="Z111" s="59">
         <f ca="1">K39</f>
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="AA111" s="59">
         <f ca="1">N39</f>
@@ -9163,11 +9188,11 @@
       </c>
       <c r="T112" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1217388.7618673136</v>
+        <v>-542388.76186731341</v>
       </c>
       <c r="U112" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.1034992127154775</v>
+        <v>-2.7193198136354133</v>
       </c>
       <c r="V112" t="str">
         <f t="shared" si="25"/>
@@ -9188,11 +9213,11 @@
       </c>
       <c r="T113" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1258009.8517017381</v>
+        <v>-583009.85170173773</v>
       </c>
       <c r="U113" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.3071570725463513</v>
+        <v>-2.9229776734662862</v>
       </c>
       <c r="V113" t="str">
         <f t="shared" si="25"/>
@@ -9213,11 +9238,11 @@
       </c>
       <c r="T114" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1298630.9415361625</v>
+        <v>-623630.94153616205</v>
       </c>
       <c r="U114" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.5108149323772242</v>
+        <v>-3.1266355332971596</v>
       </c>
       <c r="V114" t="str">
         <f t="shared" si="25"/>
@@ -9238,11 +9263,11 @@
       </c>
       <c r="T115" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1339252.0313705869</v>
+        <v>-664252.03137058637</v>
       </c>
       <c r="U115" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.714472792208098</v>
+        <v>-3.3302933931280325</v>
       </c>
       <c r="V115">
         <f t="shared" si="25"/>
@@ -9263,11 +9288,11 @@
       </c>
       <c r="T116" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1379873.1212050114</v>
+        <v>-704873.12120501068</v>
       </c>
       <c r="U116" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.9181306520389718</v>
+        <v>-3.5339512529589054</v>
       </c>
       <c r="V116" t="str">
         <f t="shared" si="25"/>
@@ -9288,11 +9313,11 @@
       </c>
       <c r="T117" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1420494.2110394358</v>
+        <v>-745494.211039435</v>
       </c>
       <c r="U117" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.1217885118698456</v>
+        <v>-3.7376091127897788</v>
       </c>
       <c r="V117" t="str">
         <f t="shared" si="25"/>
@@ -9313,11 +9338,11 @@
       </c>
       <c r="T118" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1461115.3008738603</v>
+        <v>-786115.30087385932</v>
       </c>
       <c r="U118" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.3254463717007194</v>
+        <v>-3.9412669726206517</v>
       </c>
       <c r="V118" t="str">
         <f t="shared" si="25"/>
@@ -9338,11 +9363,11 @@
       </c>
       <c r="T119" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1501736.3907082847</v>
+        <v>-826736.39070828364</v>
       </c>
       <c r="U119" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.5291042315315932</v>
+        <v>-4.1449248324515251</v>
       </c>
       <c r="V119">
         <f t="shared" si="25"/>
@@ -9363,11 +9388,11 @@
       </c>
       <c r="T120" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1542357.4805427091</v>
+        <v>-867357.48054270796</v>
       </c>
       <c r="U120" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.7327620913624662</v>
+        <v>-4.348582692282398</v>
       </c>
       <c r="V120" t="str">
         <f t="shared" si="25"/>
@@ -9388,11 +9413,11 @@
       </c>
       <c r="T121" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1582978.5703771336</v>
+        <v>-907978.57037713227</v>
       </c>
       <c r="U121" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.93641995119334</v>
+        <v>-4.5522405521132709</v>
       </c>
       <c r="V121" t="str">
         <f t="shared" si="25"/>
@@ -9413,11 +9438,11 @@
       </c>
       <c r="T122" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1623599.660211558</v>
+        <v>-948599.66021155659</v>
       </c>
       <c r="U122" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.1400778110242147</v>
+        <v>-4.7558984119441439</v>
       </c>
       <c r="V122" t="str">
         <f t="shared" si="25"/>
@@ -9438,11 +9463,11 @@
       </c>
       <c r="T123" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1664220.7500459824</v>
+        <v>-989220.75004598091</v>
       </c>
       <c r="U123" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.3437356708550876</v>
+        <v>-4.9595562717750177</v>
       </c>
       <c r="V123">
         <f t="shared" si="25"/>
@@ -9463,11 +9488,11 @@
       </c>
       <c r="T124" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1704841.8398804069</v>
+        <v>-1029841.8398804052</v>
       </c>
       <c r="U124" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.5473935306859605</v>
+        <v>-5.1632141316058906</v>
       </c>
       <c r="V124" t="str">
         <f t="shared" si="25"/>
@@ -9488,11 +9513,11 @@
       </c>
       <c r="T125" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1745462.9297148313</v>
+        <v>-1070462.9297148297</v>
       </c>
       <c r="U125" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.7510513905168352</v>
+        <v>-5.3668719914367644</v>
       </c>
       <c r="V125" t="str">
         <f t="shared" si="25"/>
@@ -9513,11 +9538,11 @@
       </c>
       <c r="T126" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1786084.0195492557</v>
+        <v>-1111084.0195492541</v>
       </c>
       <c r="U126" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.9547092503477081</v>
+        <v>-5.5705298512676373</v>
       </c>
       <c r="V126" t="str">
         <f t="shared" si="25"/>
@@ -9538,11 +9563,11 @@
       </c>
       <c r="T127" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1826705.1093836802</v>
+        <v>-1151705.1093836785</v>
       </c>
       <c r="U127" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-9.1583671101785828</v>
+        <v>-5.7741877110985111</v>
       </c>
       <c r="V127">
         <f t="shared" si="25"/>
@@ -9563,11 +9588,11 @@
       </c>
       <c r="T128" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1867326.1992181046</v>
+        <v>-1192326.199218103</v>
       </c>
       <c r="U128" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-9.3620249700094558</v>
+        <v>-5.977845570929385</v>
       </c>
       <c r="V128" t="str">
         <f t="shared" si="25"/>
@@ -9588,11 +9613,11 @@
       </c>
       <c r="T129" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1907947.289052529</v>
+        <v>-1232947.2890525274</v>
       </c>
       <c r="U129" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-9.5656828298403305</v>
+        <v>-6.1815034307602588</v>
       </c>
       <c r="V129" t="str">
         <f t="shared" si="25"/>
@@ -9613,11 +9638,11 @@
       </c>
       <c r="T130" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1948568.3788869535</v>
+        <v>-1273568.3788869518</v>
       </c>
       <c r="U130" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-9.7693406896712034</v>
+        <v>-6.3851612905911326</v>
       </c>
       <c r="V130" t="str">
         <f t="shared" si="25"/>
@@ -9638,11 +9663,11 @@
       </c>
       <c r="T131" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1989189.4687213779</v>
+        <v>-1314189.4687213763</v>
       </c>
       <c r="U131" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-9.9729985495020763</v>
+        <v>-6.5888191504220064</v>
       </c>
       <c r="V131">
         <f t="shared" si="25"/>
@@ -9663,11 +9688,11 @@
       </c>
       <c r="T132" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2029810.5585558023</v>
+        <v>-1354810.5585558007</v>
       </c>
       <c r="U132" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-10.176656409332951</v>
+        <v>-6.7924770102528793</v>
       </c>
       <c r="V132" t="str">
         <f t="shared" si="25"/>
@@ -9688,11 +9713,11 @@
       </c>
       <c r="T133" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2070431.6483902268</v>
+        <v>-1395431.6483902251</v>
       </c>
       <c r="U133" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-10.380314269163824</v>
+        <v>-6.9961348700837531</v>
       </c>
       <c r="V133" t="str">
         <f t="shared" si="25"/>
@@ -9713,11 +9738,11 @@
       </c>
       <c r="T134" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2111052.7382246512</v>
+        <v>-1436052.7382246496</v>
       </c>
       <c r="U134" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-10.583972128994699</v>
+        <v>-7.1997927299146269</v>
       </c>
       <c r="V134" t="str">
         <f t="shared" si="25"/>
@@ -9738,11 +9763,11 @@
       </c>
       <c r="T135" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2151673.8280590754</v>
+        <v>-1476673.828059074</v>
       </c>
       <c r="U135" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-10.78762998882557</v>
+        <v>-7.4034505897455007</v>
       </c>
       <c r="V135">
         <f t="shared" si="25"/>
@@ -9763,11 +9788,11 @@
       </c>
       <c r="T136" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2192294.9178934996</v>
+        <v>-1517294.9178934984</v>
       </c>
       <c r="U136" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-10.991287848656443</v>
+        <v>-7.6071084495763746</v>
       </c>
       <c r="V136" t="str">
         <f t="shared" si="25"/>
@@ -9788,11 +9813,11 @@
       </c>
       <c r="T137" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2232916.0077279238</v>
+        <v>-1557916.0077279229</v>
       </c>
       <c r="U137" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-11.194945708487316</v>
+        <v>-7.8107663094072484</v>
       </c>
       <c r="V137" t="str">
         <f t="shared" si="25"/>
@@ -9813,11 +9838,11 @@
       </c>
       <c r="T138" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2273537.097562348</v>
+        <v>-1598537.0975623473</v>
       </c>
       <c r="U138" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-11.398603568318189</v>
+        <v>-8.0144241692381222</v>
       </c>
       <c r="V138" t="str">
         <f t="shared" si="25"/>
@@ -9838,11 +9863,11 @@
       </c>
       <c r="T139" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2314158.1873967722</v>
+        <v>-1639158.1873967717</v>
       </c>
       <c r="U139" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-11.60226142814906</v>
+        <v>-8.2180820290689951</v>
       </c>
       <c r="V139">
         <f t="shared" si="25"/>
@@ -9863,11 +9888,11 @@
       </c>
       <c r="T140" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2354779.2772311964</v>
+        <v>-1679779.2772311962</v>
       </c>
       <c r="U140" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-11.805919287979933</v>
+        <v>-8.4217398888998698</v>
       </c>
       <c r="V140" t="str">
         <f t="shared" si="25"/>
@@ -9888,11 +9913,11 @@
       </c>
       <c r="T141" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2395400.3670656206</v>
+        <v>-1720400.3670656206</v>
       </c>
       <c r="U141" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-12.009577147810806</v>
+        <v>-8.6253977487307427</v>
       </c>
       <c r="V141" t="str">
         <f t="shared" si="25"/>
@@ -9913,11 +9938,11 @@
       </c>
       <c r="T142" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-2436021.4569000448</v>
+        <v>-1761021.456900045</v>
       </c>
       <c r="U142" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-12.213235007641678</v>
+        <v>-8.8290556085616156</v>
       </c>
       <c r="V142" t="str">
         <f t="shared" si="25"/>
@@ -9938,11 +9963,11 @@
       </c>
       <c r="T143" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1576642.5467344692</v>
+        <v>-901642.54673446936</v>
       </c>
       <c r="U143" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.9046536686991349</v>
+        <v>-4.5204742696190721</v>
       </c>
       <c r="V143">
         <f t="shared" si="25"/>
@@ -9963,11 +9988,11 @@
       </c>
       <c r="T144" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1617263.6365688937</v>
+        <v>-942263.63656889368</v>
       </c>
       <c r="U144" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.1083115285300078</v>
+        <v>-4.7241321294499459</v>
       </c>
       <c r="V144" t="str">
         <f t="shared" si="25"/>
@@ -9988,11 +10013,11 @@
       </c>
       <c r="T145" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1657884.7264033181</v>
+        <v>-982884.726403318</v>
       </c>
       <c r="U145" s="62">
         <f t="shared" ref="U145:U159" ca="1" si="27">T145/$O$3</f>
-        <v>-8.3119693883608825</v>
+        <v>-4.9277899892808188</v>
       </c>
       <c r="V145" t="str">
         <f t="shared" si="25"/>
@@ -10013,11 +10038,11 @@
       </c>
       <c r="T146" s="61">
         <f t="shared" ref="T146:T159" ca="1" si="29">IF(AND(T145&gt;0,W146=0),T145*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),T145)+((($Q$3+$Q$3*$S$3)/4)+(IF(X146=0,$P$3*_xlfn.IFS(Y146="НЕУРОЖАЙ",0.25,Y146="ОБЫЧНЫЙ",1,Y146="РЕКОРД",1.25,Y146="",1),0)))-($O$3/4)</f>
-        <v>-1698505.8162377425</v>
+        <v>-1023505.8162377423</v>
       </c>
       <c r="U146" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-8.5156272481917554</v>
+        <v>-5.1314478491116917</v>
       </c>
       <c r="V146" t="str">
         <f t="shared" si="25"/>
@@ -10038,11 +10063,11 @@
       </c>
       <c r="T147" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1739126.906072167</v>
+        <v>-1064126.9060721667</v>
       </c>
       <c r="U147" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-8.7192851080226301</v>
+        <v>-5.3351057089425655</v>
       </c>
       <c r="V147">
         <f t="shared" si="25"/>
@@ -10063,11 +10088,11 @@
       </c>
       <c r="T148" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1779747.9959065914</v>
+        <v>-1104747.9959065912</v>
       </c>
       <c r="U148" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-8.922942967853503</v>
+        <v>-5.5387635687734393</v>
       </c>
       <c r="V148" t="str">
         <f t="shared" ref="V148:V159" si="30">IF(W148=0,V144+1,"")</f>
@@ -10088,11 +10113,11 @@
       </c>
       <c r="T149" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1820369.0857410158</v>
+        <v>-1145369.0857410156</v>
       </c>
       <c r="U149" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-9.126600827684376</v>
+        <v>-5.7424214286043131</v>
       </c>
       <c r="V149" t="str">
         <f t="shared" si="30"/>
@@ -10113,11 +10138,11 @@
       </c>
       <c r="T150" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1860990.1755754403</v>
+        <v>-1185990.1755754401</v>
       </c>
       <c r="U150" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-9.3302586875152507</v>
+        <v>-5.9460792884351861</v>
       </c>
       <c r="V150" t="str">
         <f t="shared" si="30"/>
@@ -10138,11 +10163,11 @@
       </c>
       <c r="T151" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1901611.2654098647</v>
+        <v>-1226611.2654098645</v>
       </c>
       <c r="U151" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-9.5339165473461236</v>
+        <v>-6.1497371482660599</v>
       </c>
       <c r="V151">
         <f t="shared" si="30"/>
@@ -10163,11 +10188,11 @@
       </c>
       <c r="T152" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1942232.3552442892</v>
+        <v>-1267232.3552442889</v>
       </c>
       <c r="U152" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-9.7375744071769983</v>
+        <v>-6.3533950080969337</v>
       </c>
       <c r="V152" t="str">
         <f t="shared" si="30"/>
@@ -10188,11 +10213,11 @@
       </c>
       <c r="T153" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1982853.4450787136</v>
+        <v>-1307853.4450787134</v>
       </c>
       <c r="U153" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-9.9412322670078712</v>
+        <v>-6.5570528679278075</v>
       </c>
       <c r="V153" t="str">
         <f t="shared" si="30"/>
@@ -10213,11 +10238,11 @@
       </c>
       <c r="T154" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-2023474.534913138</v>
+        <v>-1348474.5349131378</v>
       </c>
       <c r="U154" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-10.144890126838746</v>
+        <v>-6.7607107277586813</v>
       </c>
       <c r="V154" t="str">
         <f t="shared" si="30"/>
@@ -10238,11 +10263,11 @@
       </c>
       <c r="T155" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-2064095.6247475625</v>
+        <v>-1389095.6247475622</v>
       </c>
       <c r="U155" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-10.348547986669619</v>
+        <v>-6.9643685875895551</v>
       </c>
       <c r="V155">
         <f t="shared" si="30"/>
@@ -10263,11 +10288,11 @@
       </c>
       <c r="T156" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-2104716.7145819869</v>
+        <v>-1429716.7145819867</v>
       </c>
       <c r="U156" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-10.552205846500492</v>
+        <v>-7.168026447420428</v>
       </c>
       <c r="V156" t="str">
         <f t="shared" si="30"/>
@@ -10288,11 +10313,11 @@
       </c>
       <c r="T157" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-2145337.8044164111</v>
+        <v>-1470337.8044164111</v>
       </c>
       <c r="U157" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-10.755863706331365</v>
+        <v>-7.3716843072513019</v>
       </c>
       <c r="V157" t="str">
         <f t="shared" si="30"/>
@@ -10313,11 +10338,11 @@
       </c>
       <c r="T158" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-2185958.8942508353</v>
+        <v>-1510958.8942508355</v>
       </c>
       <c r="U158" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-10.959521566162238</v>
+        <v>-7.5753421670821757</v>
       </c>
       <c r="V158" t="str">
         <f t="shared" si="30"/>
@@ -10338,11 +10363,11 @@
       </c>
       <c r="T159" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-2226579.9840852595</v>
+        <v>-1551579.98408526</v>
       </c>
       <c r="U159" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-11.163179425993111</v>
+        <v>-7.7790000269130495</v>
       </c>
       <c r="V159">
         <f t="shared" si="30"/>
@@ -10386,7 +10411,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F453FA9D-DC0F-497B-B64F-0195ADDED87D}">
           <x14:formula1>
             <xm:f>Список!$A$1:$A$10</xm:f>
@@ -10401,11 +10426,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D564EA19-B490-438E-9BCC-A522DD820C42}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X14" sqref="X14"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10434,48 +10459,49 @@
     <col min="23" max="23" width="14.5703125" customWidth="1"/>
     <col min="24" max="24" width="11.85546875" customWidth="1"/>
     <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="155" t="s">
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="156"/>
-    </row>
-    <row r="2" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="155"/>
+    </row>
+    <row r="2" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="163"/>
       <c r="B2" s="75" t="s">
         <v>70</v>
       </c>
@@ -10497,13 +10523,13 @@
       <c r="H2" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="125" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="125" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="54" t="s">
@@ -10524,7 +10550,7 @@
       <c r="Q2" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="128" t="s">
+      <c r="R2" s="125" t="s">
         <v>82</v>
       </c>
       <c r="S2" s="54" t="s">
@@ -10533,10 +10559,10 @@
       <c r="T2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="105" t="s">
+      <c r="U2" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="105" t="s">
+      <c r="V2" s="54" t="s">
         <v>84</v>
       </c>
       <c r="W2" s="105" t="s">
@@ -10545,8 +10571,11 @@
       <c r="X2" s="105" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>5</v>
       </c>
@@ -10559,29 +10588,29 @@
         <f>База!I3</f>
         <v>7</v>
       </c>
-      <c r="F3" s="130">
+      <c r="F3" s="126">
         <f>База!J3</f>
         <v>7</v>
       </c>
-      <c r="G3" s="130">
+      <c r="G3" s="126">
         <f>База!K3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="130">
+      <c r="H3" s="126">
         <v>15</v>
       </c>
-      <c r="I3" s="130">
+      <c r="I3" s="126">
         <v>3</v>
       </c>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
       <c r="S3" s="121">
         <f>Провиант!B3</f>
         <v>3</v>
@@ -10590,24 +10619,24 @@
         <f>Провиант!C3</f>
         <v>3</v>
       </c>
-      <c r="U3" s="129">
-        <f>SUMPRODUCT(E3:T3,$E$12:$T$12)</f>
+      <c r="U3" s="124">
+        <f>IF($Z$2=$Z$12,SUMPRODUCT(E3:T3,$E$12:$T$12),SUMPRODUCT(E3:T3,$E$13:$T$13))</f>
         <v>100.25</v>
       </c>
-      <c r="V3" s="130">
-        <f>SUMPRODUCT(B3:D3,$B$12:$D$12)</f>
+      <c r="V3" s="124">
+        <f>IF($Z$2=$Z$12,SUMPRODUCT(B3:D3,$B$12:$D$12),SUMPRODUCT(B3:D3,$B$13:$D$13))</f>
         <v>60</v>
       </c>
-      <c r="W3" s="130">
+      <c r="W3" s="126">
         <f>V3-U3</f>
         <v>-40.25</v>
       </c>
-      <c r="X3" s="135">
+      <c r="X3" s="131">
         <f>V3/U3</f>
         <v>0.59850374064837908</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
@@ -10647,32 +10676,32 @@
       <c r="P4" s="85"/>
       <c r="Q4" s="85"/>
       <c r="R4" s="85"/>
-      <c r="S4" s="131">
+      <c r="S4" s="127">
         <f>Провиант!B4</f>
         <v>15</v>
       </c>
-      <c r="T4" s="131">
+      <c r="T4" s="127">
         <f>Провиант!C4</f>
         <v>10</v>
       </c>
-      <c r="U4" s="124">
-        <f t="shared" ref="U4:U11" si="0">SUMPRODUCT(E4:T4,$E$12:$T$12)</f>
+      <c r="U4" s="127">
+        <f t="shared" ref="U4:U11" si="0">IF($Z$2=$Z$12,SUMPRODUCT(E4:T4,$E$12:$T$12),SUMPRODUCT(E4:T4,$E$13:$T$13))</f>
         <v>214.75</v>
       </c>
-      <c r="V4" s="85">
-        <f t="shared" ref="V4:V11" si="1">SUMPRODUCT(B4:D4,$B$12:$D$12)</f>
+      <c r="V4" s="127">
+        <f t="shared" ref="V4:V11" si="1">IF($Z$2=$Z$12,SUMPRODUCT(B4:D4,$B$12:$D$12),SUMPRODUCT(B4:D4,$B$13:$D$13))</f>
         <v>180</v>
       </c>
       <c r="W4" s="85">
         <f t="shared" ref="W4:W11" si="2">V4-U4</f>
         <v>-34.75</v>
       </c>
-      <c r="X4" s="136">
+      <c r="X4" s="132">
         <f t="shared" ref="X4:X11" si="3">V4/U4</f>
         <v>0.8381839348079162</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>4</v>
       </c>
@@ -10712,19 +10741,19 @@
       <c r="P5" s="84"/>
       <c r="Q5" s="84"/>
       <c r="R5" s="84"/>
-      <c r="S5" s="127">
+      <c r="S5" s="124">
         <f>Провиант!B5</f>
         <v>10</v>
       </c>
-      <c r="T5" s="127">
+      <c r="T5" s="124">
         <f>Провиант!C5</f>
         <v>8</v>
       </c>
-      <c r="U5" s="125">
+      <c r="U5" s="124">
         <f t="shared" si="0"/>
         <v>239.5</v>
       </c>
-      <c r="V5" s="84">
+      <c r="V5" s="124">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
@@ -10732,12 +10761,12 @@
         <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
-      <c r="X5" s="137">
+      <c r="X5" s="133">
         <f t="shared" si="3"/>
         <v>1.1273486430062631</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>1</v>
       </c>
@@ -10775,19 +10804,19 @@
       <c r="P6" s="85"/>
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
-      <c r="S6" s="131">
+      <c r="S6" s="127">
         <f>Провиант!B6</f>
         <v>22</v>
       </c>
-      <c r="T6" s="131">
+      <c r="T6" s="127">
         <f>Провиант!C6</f>
         <v>20</v>
       </c>
-      <c r="U6" s="124">
+      <c r="U6" s="127">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="V6" s="85">
+      <c r="V6" s="127">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
@@ -10795,12 +10824,12 @@
         <f t="shared" si="2"/>
         <v>-13</v>
       </c>
-      <c r="X6" s="136">
+      <c r="X6" s="132">
         <f t="shared" si="3"/>
         <v>0.93264248704663211</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>7</v>
       </c>
@@ -10840,19 +10869,19 @@
       <c r="P7" s="84"/>
       <c r="Q7" s="84"/>
       <c r="R7" s="84"/>
-      <c r="S7" s="127">
+      <c r="S7" s="124">
         <f>Провиант!B7</f>
         <v>18</v>
       </c>
-      <c r="T7" s="127">
+      <c r="T7" s="124">
         <f>Провиант!C7</f>
         <v>15</v>
       </c>
-      <c r="U7" s="125">
+      <c r="U7" s="124">
         <f t="shared" si="0"/>
         <v>316.5</v>
       </c>
-      <c r="V7" s="84">
+      <c r="V7" s="124">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
@@ -10860,12 +10889,12 @@
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
-      <c r="X7" s="137">
+      <c r="X7" s="133">
         <f t="shared" si="3"/>
         <v>1.0426540284360191</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="94" t="s">
         <v>2</v>
       </c>
@@ -10905,19 +10934,19 @@
       <c r="P8" s="85"/>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
-      <c r="S8" s="131">
+      <c r="S8" s="127">
         <f>Провиант!B8</f>
         <v>8</v>
       </c>
-      <c r="T8" s="131">
+      <c r="T8" s="127">
         <f>Провиант!C8</f>
         <v>23</v>
       </c>
-      <c r="U8" s="124">
+      <c r="U8" s="127">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="V8" s="85">
+      <c r="V8" s="127">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
@@ -10925,12 +10954,12 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="X8" s="136">
+      <c r="X8" s="132">
         <f t="shared" si="3"/>
         <v>1.1612903225806452</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>6</v>
       </c>
@@ -10966,19 +10995,19 @@
       <c r="P9" s="84"/>
       <c r="Q9" s="84"/>
       <c r="R9" s="84"/>
-      <c r="S9" s="127">
+      <c r="S9" s="124">
         <f>Провиант!B9</f>
         <v>4</v>
       </c>
-      <c r="T9" s="127">
+      <c r="T9" s="124">
         <f>Провиант!C9</f>
         <v>4</v>
       </c>
-      <c r="U9" s="125">
+      <c r="U9" s="124">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="V9" s="84">
+      <c r="V9" s="124">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -10986,12 +11015,12 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="X9" s="137">
+      <c r="X9" s="133">
         <f t="shared" si="3"/>
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="94" t="s">
         <v>8</v>
       </c>
@@ -11023,19 +11052,19 @@
       <c r="P10" s="85"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
-      <c r="S10" s="131">
+      <c r="S10" s="127">
         <f>Провиант!B10</f>
         <v>0</v>
       </c>
-      <c r="T10" s="131">
+      <c r="T10" s="127">
         <f>Провиант!C10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="124">
+      <c r="U10" s="127">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="V10" s="85">
+      <c r="V10" s="127">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -11043,12 +11072,12 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="X10" s="136">
+      <c r="X10" s="132">
         <f t="shared" si="3"/>
         <v>1.7647058823529411</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="96" t="s">
         <v>3</v>
       </c>
@@ -11082,19 +11111,19 @@
       <c r="P11" s="92"/>
       <c r="Q11" s="92"/>
       <c r="R11" s="92"/>
-      <c r="S11" s="132">
+      <c r="S11" s="128">
         <f>Провиант!B11</f>
         <v>15</v>
       </c>
-      <c r="T11" s="132">
+      <c r="T11" s="128">
         <f>Провиант!C11</f>
         <v>20</v>
       </c>
-      <c r="U11" s="126">
+      <c r="U11" s="128">
         <f t="shared" si="0"/>
         <v>45.75</v>
       </c>
-      <c r="V11" s="92">
+      <c r="V11" s="128">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -11102,70 +11131,70 @@
         <f t="shared" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="X11" s="138">
+      <c r="X11" s="134">
         <f t="shared" si="3"/>
         <v>1.3114754098360655</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="139">
         <v>60</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="139">
         <v>150</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="139">
         <v>500</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="139">
         <v>5</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="139">
         <v>6</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="139">
         <v>7</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="139">
         <v>1</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="139">
         <v>2</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="139">
         <v>0.5</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="139">
         <v>0.5</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="139">
         <v>0.5</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="139">
         <v>4</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="139">
         <v>0.5</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="139">
         <v>1.5</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="139">
         <v>1.5</v>
       </c>
-      <c r="Q12" s="59">
+      <c r="Q12" s="139">
         <v>15</v>
       </c>
-      <c r="R12" s="59">
+      <c r="R12" s="139">
         <v>0.1</v>
       </c>
-      <c r="S12" s="59">
+      <c r="S12" s="139">
         <v>0.25</v>
       </c>
-      <c r="T12" s="59">
+      <c r="T12" s="139">
         <v>0.5</v>
       </c>
       <c r="U12" s="59"/>
@@ -11175,66 +11204,93 @@
         <v>82.25</v>
       </c>
       <c r="X12" s="103"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U14" t="s">
+      <c r="Z12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="Z13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U15" t="s">
         <v>96</v>
       </c>
-      <c r="X14" s="134">
+      <c r="X15" s="130">
         <f>IF($X$3&lt;1,(1-$X$3)*-1,"")</f>
         <v>-0.40149625935162092</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U15" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
         <v>86</v>
       </c>
-      <c r="X15" s="134">
-        <f t="shared" ref="X15:X19" si="4">IF($X$3&lt;1,(1-$X$3)*-1,"")</f>
+      <c r="X16" s="130">
+        <f t="shared" ref="X16:X20" si="4">IF($X$3&lt;1,(1-$X$3)*-1,"")</f>
         <v>-0.40149625935162092</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U16" t="s">
+    <row r="17" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
         <v>87</v>
       </c>
-      <c r="X16" s="134">
+      <c r="X17" s="130">
         <f t="shared" si="4"/>
         <v>-0.40149625935162092</v>
       </c>
     </row>
-    <row r="17" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U17" t="s">
+    <row r="18" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="134">
+      <c r="X18" s="130">
         <f t="shared" si="4"/>
         <v>-0.40149625935162092</v>
       </c>
     </row>
-    <row r="18" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U18" t="s">
+    <row r="19" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
         <v>89</v>
       </c>
-      <c r="X18" s="134">
+      <c r="X19" s="130">
         <f t="shared" si="4"/>
         <v>-0.40149625935162092</v>
       </c>
     </row>
-    <row r="19" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U19" t="s">
+    <row r="20" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
         <v>90</v>
       </c>
-      <c r="X19" s="134">
+      <c r="X20" s="130">
         <f t="shared" si="4"/>
         <v>-0.40149625935162092</v>
       </c>
     </row>
-    <row r="20" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U20" t="s">
+    <row r="21" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
         <v>97</v>
       </c>
-      <c r="X20" s="134">
+      <c r="X21" s="130">
         <f>IF($X$3&lt;1,(1-$X$3)*-0.5,"")</f>
         <v>-0.20074812967581046</v>
       </c>
@@ -11254,6 +11310,11 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{CF468174-D99B-46DA-AFEB-8821176AE034}">
+      <formula1>электричество</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11853,10 +11914,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D43A51-2CA5-4822-8601-FF14FDEC312B}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11864,52 +11925,58 @@
     <col min="1" max="1" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>

--- a/GtA stat.xlsx
+++ b/GtA stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LipatovKA\Desktop\_Project Arstotzka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E16DB8F-55E1-4089-9DAE-F7752C539D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE316F59-3CF2-4007-90BF-14476E888700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
   <si>
     <t>Арстотцка</t>
   </si>
@@ -380,6 +380,9 @@
   <si>
     <t>Железо</t>
   </si>
+  <si>
+    <t>Сталеплавильни</t>
+  </si>
 </sst>
 </file>
 
@@ -1082,7 +1085,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,6 +1486,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,6 +1569,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1648,13 +1660,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>265058</xdr:rowOff>
@@ -1698,13 +1710,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>265058</xdr:rowOff>
@@ -1748,13 +1760,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>170793</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>408918</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>254219</xdr:rowOff>
@@ -1798,13 +1810,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>210207</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>448332</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>254219</xdr:rowOff>
@@ -1848,13 +1860,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>177362</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>415487</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>267357</xdr:rowOff>
@@ -1898,13 +1910,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>183930</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>422055</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -1948,13 +1960,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>170794</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>408919</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -1998,13 +2010,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>197070</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>435195</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>260788</xdr:rowOff>
@@ -2048,13 +2060,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>197068</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>203638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>435193</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>241081</xdr:rowOff>
@@ -2098,13 +2110,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>441763</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>267357</xdr:rowOff>
@@ -2148,13 +2160,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>426326</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>22336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>664451</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>657</xdr:rowOff>
@@ -2198,13 +2210,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>420413</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>658538</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -2248,13 +2260,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>426983</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>52552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>665108</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>300202</xdr:rowOff>
@@ -2298,13 +2310,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>441435</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>679560</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>248965</xdr:rowOff>
@@ -2348,13 +2360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>428296</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>375745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>666421</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>242395</xdr:rowOff>
@@ -2398,13 +2410,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>422182</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>4295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>660307</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>251945</xdr:rowOff>
@@ -2448,13 +2460,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>417635</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>655760</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>263618</xdr:rowOff>
@@ -2498,13 +2510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>424203</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>10359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>662328</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>258009</xdr:rowOff>
@@ -2812,109 +2824,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP21"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="17" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" customWidth="1"/>
+    <col min="3" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="140" t="s">
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="143" t="s">
+      <c r="I1" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
       <c r="O1" s="148"/>
-      <c r="P1" s="156" t="s">
+      <c r="P1" s="149"/>
+      <c r="Q1" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
       <c r="T1" s="158"/>
-      <c r="U1" s="149" t="s">
+      <c r="U1" s="159"/>
+      <c r="V1" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="149"/>
       <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
       <c r="AA1" s="151"/>
-      <c r="AB1" s="152" t="s">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="154" t="s">
+      <c r="AD1" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="145" t="s">
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="146"/>
-      <c r="AL1" s="146"/>
-      <c r="AM1" s="146"/>
-      <c r="AN1" s="146"/>
-      <c r="AO1" s="146"/>
-      <c r="AP1" s="146"/>
-    </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="147"/>
+    </row>
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
       <c r="C2" s="18" t="s">
         <v>33</v>
       </c>
@@ -2927,8 +2940,8 @@
       <c r="F2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="142"/>
-      <c r="H2" s="144"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="145"/>
       <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
@@ -2942,61 +2955,63 @@
         <v>32</v>
       </c>
       <c r="M2" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="118" t="s">
+      <c r="O2" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="123" t="s">
+      <c r="P2" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="118" t="s">
+      <c r="Q2" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="118" t="s">
+      <c r="R2" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="118" t="s">
+      <c r="S2" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="118" t="s">
+      <c r="T2" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="118" t="s">
+      <c r="U2" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="119" t="s">
+      <c r="V2" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="V2" s="137" t="s">
+      <c r="W2" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Y2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AA2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AB2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="54" t="s">
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="54" t="s">
+      <c r="AE2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AF2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
       <c r="AH2" s="18"/>
       <c r="AI2" s="18"/>
@@ -3005,12 +3020,13 @@
       <c r="AL2" s="18"/>
       <c r="AM2" s="18"/>
       <c r="AN2" s="18"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="30" t="s">
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
@@ -3043,98 +3059,104 @@
         <f>SUM(I3:K3)</f>
         <v>14</v>
       </c>
-      <c r="M3" s="97">
+      <c r="M3" s="16">
+        <v>1</v>
+      </c>
+      <c r="N3" s="97">
         <f>Провиант!B3</f>
         <v>3</v>
       </c>
-      <c r="N3" s="98">
+      <c r="O3" s="98">
         <f>Провиант!C3</f>
         <v>3</v>
       </c>
-      <c r="O3" s="122">
+      <c r="P3" s="122">
         <f>Провиант!D3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="97">
+      <c r="Q3" s="97">
         <f>Энергия!B3</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="98">
+      <c r="R3" s="98">
         <f>Энергия!C3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="98">
-        <f>Энергия!U3</f>
-        <v>100.25</v>
-      </c>
       <c r="S3" s="98">
         <f>Энергия!V3</f>
+        <v>103.75</v>
+      </c>
+      <c r="T3" s="98">
+        <f>Энергия!W3</f>
         <v>60</v>
       </c>
-      <c r="T3" s="117">
-        <f>Энергия!W3</f>
-        <v>-40.25</v>
-      </c>
-      <c r="U3" s="22">
-        <f>10+14+4+3</f>
-        <v>31</v>
-      </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="15">
+      <c r="U3" s="117">
+        <f>Энергия!X3</f>
+        <v>-43.75</v>
+      </c>
+      <c r="V3" s="22">
+        <f>(10+14+4+3)-M3*8</f>
+        <v>23</v>
+      </c>
+      <c r="W3" s="22">
+        <f>M3*4</f>
+        <v>4</v>
+      </c>
+      <c r="X3" s="15">
         <f>11</f>
         <v>11</v>
       </c>
-      <c r="X3" s="15">
+      <c r="Y3" s="15">
         <f>23</f>
         <v>23</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Z3" s="15">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="16">
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="16">
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="AB3" s="79">
+      <c r="AC3" s="79">
         <v>18846379</v>
       </c>
-      <c r="AC3" s="120">
-        <f>AB3*127/1000</f>
+      <c r="AD3" s="120">
+        <f>AC3*127/1000</f>
         <v>2393490.1329999999</v>
       </c>
-      <c r="AD3" s="121">
-        <f>M3*Провиант!$B$12+База!N3*Провиант!$C$12</f>
+      <c r="AE3" s="121">
+        <f>N3*Провиант!$B$12+База!O3*Провиант!$C$12</f>
         <v>946259.7</v>
       </c>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="31"/>
+      <c r="AF3" s="22"/>
       <c r="AG3" s="31"/>
-      <c r="AH3" s="31">
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31">
         <v>0.05</v>
       </c>
-      <c r="AI3" s="31"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
-      <c r="AL3" s="31">
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31">
         <v>0.05</v>
       </c>
-      <c r="AM3" s="31">
+      <c r="AN3" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN3" s="31">
+      <c r="AO3" s="31">
         <v>0.1</v>
       </c>
-      <c r="AO3" s="36">
+      <c r="AP3" s="36">
         <v>0.73</v>
       </c>
-      <c r="AP3" s="32">
-        <f>1-SUM(AF3:AO3)</f>
+      <c r="AQ3" s="32">
+        <f>1-SUM(AG3:AP3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>0</v>
       </c>
@@ -3169,96 +3191,102 @@
         <f t="shared" ref="L4:L11" si="1">SUM(I4:K4)</f>
         <v>28</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="11">
+        <v>4</v>
+      </c>
+      <c r="N4" s="10">
         <f>Провиант!B4</f>
         <v>15</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <f>Провиант!C4</f>
         <v>10</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <f>Провиант!D4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <f>Энергия!B4</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <f>Энергия!C4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="2">
-        <f>Энергия!U4</f>
-        <v>214.75</v>
-      </c>
       <c r="S4" s="2">
         <f>Энергия!V4</f>
+        <v>228.75</v>
+      </c>
+      <c r="T4" s="2">
+        <f>Энергия!W4</f>
         <v>180</v>
       </c>
-      <c r="T4" s="11">
-        <f>Энергия!W4</f>
-        <v>-34.75</v>
-      </c>
-      <c r="U4" s="23">
-        <f>172+30+27</f>
-        <v>229</v>
-      </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="2">
+      <c r="U4" s="11">
+        <f>Энергия!X4</f>
+        <v>-48.75</v>
+      </c>
+      <c r="V4" s="23">
+        <f>(172+30+27)-M4*8</f>
+        <v>197</v>
+      </c>
+      <c r="W4" s="168">
+        <f t="shared" ref="W4:W11" si="2">M4*4</f>
+        <v>16</v>
+      </c>
+      <c r="X4" s="2">
         <f>12+16</f>
         <v>28</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <f>16</f>
         <v>16</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Z4" s="2">
         <f>92</f>
         <v>92</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="11">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="11">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="AB4" s="78">
+      <c r="AC4" s="78">
         <v>75685389</v>
       </c>
-      <c r="AC4" s="86">
-        <f t="shared" ref="AC4:AC11" si="2">AB4*127/1000</f>
+      <c r="AD4" s="86">
+        <f t="shared" ref="AD4:AD11" si="3">AC4*127/1000</f>
         <v>9612044.4030000009</v>
       </c>
-      <c r="AD4" s="91">
-        <f>M4*Провиант!$B$12+База!N4*Провиант!$C$12</f>
+      <c r="AE4" s="91">
+        <f>N4*Провиант!$B$12+База!O4*Провиант!$C$12</f>
         <v>4654199</v>
       </c>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="33">
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="33">
         <v>0.4</v>
-      </c>
-      <c r="AG4" s="33">
-        <v>0.25</v>
       </c>
       <c r="AH4" s="33">
         <v>0.25</v>
       </c>
       <c r="AI4" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="AJ4" s="33">
         <v>0.1</v>
       </c>
-      <c r="AJ4" s="33"/>
       <c r="AK4" s="33"/>
       <c r="AL4" s="33"/>
       <c r="AM4" s="33"/>
       <c r="AN4" s="33"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="32">
-        <f t="shared" ref="AP4:AP11" si="3">1-SUM(AF4:AO4)</f>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="32">
+        <f t="shared" ref="AQ4:AQ11" si="4">1-SUM(AG4:AP4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
@@ -3293,103 +3321,109 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="9">
+        <v>5</v>
+      </c>
+      <c r="N5" s="8">
         <f>Провиант!B5</f>
         <v>10</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <f>Провиант!C5</f>
         <v>8</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <f>Провиант!D5</f>
         <v>2</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <f>Энергия!B5</f>
         <v>2</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <f>Энергия!C5</f>
         <v>1</v>
       </c>
-      <c r="R5" s="4">
-        <f>Энергия!U5</f>
-        <v>239.5</v>
-      </c>
       <c r="S5" s="4">
         <f>Энергия!V5</f>
+        <v>257</v>
+      </c>
+      <c r="T5" s="4">
+        <f>Энергия!W5</f>
         <v>270</v>
       </c>
-      <c r="T5" s="9">
-        <f>Энергия!W5</f>
-        <v>30.5</v>
-      </c>
-      <c r="U5" s="24">
-        <f>20+203+108-5</f>
-        <v>326</v>
-      </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="4">
+      <c r="U5" s="9">
+        <f>Энергия!X5</f>
+        <v>13</v>
+      </c>
+      <c r="V5" s="24">
+        <f>20+203+108-5-M5*8</f>
+        <v>286</v>
+      </c>
+      <c r="W5" s="22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="X5" s="4">
         <f>40</f>
         <v>40</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <f>189</f>
         <v>189</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <f>15+28+39</f>
         <v>82</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5" s="4">
         <f>342+150</f>
         <v>492</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AB5" s="9">
         <f>12+320</f>
         <v>332</v>
       </c>
-      <c r="AB5" s="79">
+      <c r="AC5" s="79">
         <v>65982200</v>
       </c>
-      <c r="AC5" s="88">
-        <f t="shared" si="2"/>
+      <c r="AD5" s="88">
+        <f t="shared" si="3"/>
         <v>8379739.4000000004</v>
       </c>
-      <c r="AD5" s="87">
-        <f>M5*Провиант!$B$12+База!N5*Провиант!$C$12</f>
+      <c r="AE5" s="87">
+        <f>N5*Провиант!$B$12+База!O5*Провиант!$C$12</f>
         <v>3123359.2</v>
       </c>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="34"/>
+      <c r="AF5" s="24"/>
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
       <c r="AI5" s="34"/>
-      <c r="AJ5" s="34">
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34">
         <v>0.1</v>
       </c>
-      <c r="AK5" s="34">
+      <c r="AL5" s="34">
         <v>0.19</v>
       </c>
-      <c r="AL5" s="34">
+      <c r="AM5" s="34">
         <v>0.12</v>
       </c>
-      <c r="AM5" s="34">
+      <c r="AN5" s="34">
         <v>0.08</v>
       </c>
-      <c r="AN5" s="34">
+      <c r="AO5" s="34">
         <v>0.47</v>
       </c>
-      <c r="AO5" s="38">
+      <c r="AP5" s="38">
         <v>0.04</v>
       </c>
-      <c r="AP5" s="32">
-        <f t="shared" si="3"/>
+      <c r="AQ5" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>1</v>
       </c>
@@ -3422,97 +3456,103 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="11">
+        <v>2</v>
+      </c>
+      <c r="N6" s="10">
         <f>Провиант!B6</f>
         <v>22</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <f>Провиант!C6</f>
         <v>20</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <f>Провиант!D6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <f>Энергия!B6</f>
         <v>3</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <f>Энергия!C6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <f>Энергия!U6</f>
-        <v>193</v>
-      </c>
       <c r="S6" s="2">
         <f>Энергия!V6</f>
+        <v>200</v>
+      </c>
+      <c r="T6" s="2">
+        <f>Энергия!W6</f>
         <v>180</v>
       </c>
-      <c r="T6" s="11">
-        <f>Энергия!W6</f>
-        <v>-13</v>
-      </c>
-      <c r="U6" s="23">
-        <f>70+19+10</f>
-        <v>99</v>
-      </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="2">
+      <c r="U6" s="11">
+        <f>Энергия!X6</f>
+        <v>-20</v>
+      </c>
+      <c r="V6" s="23">
+        <f>70+19+10-M6*8</f>
+        <v>83</v>
+      </c>
+      <c r="W6" s="168">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X6" s="2">
         <f>10+25</f>
         <v>35</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="11">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="11">
         <f>80</f>
         <v>80</v>
       </c>
-      <c r="AB6" s="78">
+      <c r="AC6" s="78">
         <f>119352255+3161910</f>
         <v>122514165</v>
       </c>
-      <c r="AC6" s="86">
-        <f t="shared" si="2"/>
+      <c r="AD6" s="86">
+        <f t="shared" si="3"/>
         <v>15559298.955</v>
       </c>
-      <c r="AD6" s="91">
-        <f>M6*Провиант!$B$12+База!N6*Провиант!$C$12</f>
+      <c r="AE6" s="91">
+        <f>N6*Провиант!$B$12+База!O6*Провиант!$C$12</f>
         <v>6908398</v>
       </c>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="33"/>
+      <c r="AF6" s="23"/>
       <c r="AG6" s="33"/>
-      <c r="AH6" s="33">
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33">
         <v>0.13</v>
       </c>
-      <c r="AI6" s="33"/>
       <c r="AJ6" s="33"/>
       <c r="AK6" s="33"/>
       <c r="AL6" s="33"/>
-      <c r="AM6" s="33">
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="33">
         <v>0.2</v>
       </c>
-      <c r="AN6" s="33">
+      <c r="AO6" s="33">
         <v>0.52</v>
       </c>
-      <c r="AO6" s="37">
+      <c r="AP6" s="37">
         <v>0.15</v>
       </c>
-      <c r="AP6" s="32">
-        <f t="shared" si="3"/>
+      <c r="AQ6" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
@@ -3547,91 +3587,97 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
+        <v>5</v>
+      </c>
+      <c r="N7" s="8">
         <f>Провиант!B7</f>
         <v>18</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <f>Провиант!C7</f>
         <v>15</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <f>Провиант!D7</f>
         <v>5</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <f>Энергия!B7</f>
         <v>3</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <f>Энергия!C7</f>
         <v>1</v>
       </c>
-      <c r="R7" s="4">
-        <f>Энергия!U7</f>
-        <v>316.5</v>
-      </c>
       <c r="S7" s="4">
         <f>Энергия!V7</f>
+        <v>334</v>
+      </c>
+      <c r="T7" s="4">
+        <f>Энергия!W7</f>
         <v>330</v>
       </c>
-      <c r="T7" s="9">
-        <f>Энергия!W7</f>
-        <v>13.5</v>
-      </c>
-      <c r="U7" s="24">
-        <f>21+50+209</f>
-        <v>280</v>
-      </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4">
+      <c r="U7" s="9">
+        <f>Энергия!X7</f>
+        <v>-4</v>
+      </c>
+      <c r="V7" s="24">
+        <f>21+50+209-M7*8</f>
+        <v>240</v>
+      </c>
+      <c r="W7" s="22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4">
         <f>128</f>
         <v>128</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Z7" s="4">
         <f>204+19</f>
         <v>223</v>
       </c>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="9">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="9">
         <f>7+5+12</f>
         <v>24</v>
       </c>
-      <c r="AB7" s="79">
+      <c r="AC7" s="79">
         <v>69419206</v>
       </c>
-      <c r="AC7" s="88">
-        <f t="shared" si="2"/>
+      <c r="AD7" s="88">
+        <f t="shared" si="3"/>
         <v>8816239.1620000005</v>
       </c>
-      <c r="AD7" s="87">
-        <f>M7*Провиант!$B$12+База!N7*Провиант!$C$12</f>
+      <c r="AE7" s="87">
+        <f>N7*Провиант!$B$12+База!O7*Провиант!$C$12</f>
         <v>5631298.5</v>
       </c>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="34"/>
+      <c r="AF7" s="24"/>
       <c r="AG7" s="34"/>
       <c r="AH7" s="34"/>
       <c r="AI7" s="34"/>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34">
         <v>0.1</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AL7" s="34">
         <v>0.15</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AM7" s="34">
         <v>0.75</v>
       </c>
-      <c r="AM7" s="34"/>
       <c r="AN7" s="34"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="32">
-        <f t="shared" si="3"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>2</v>
       </c>
@@ -3666,99 +3712,105 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="11">
+        <v>6</v>
+      </c>
+      <c r="N8" s="10">
         <f>Провиант!B8</f>
         <v>8</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <f>Провиант!C8</f>
         <v>23</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <f>Провиант!D8</f>
         <v>3</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <f>Энергия!B8</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <f>Энергия!C8</f>
         <v>2</v>
       </c>
-      <c r="R8" s="2">
-        <f>Энергия!U8</f>
-        <v>310</v>
-      </c>
       <c r="S8" s="2">
         <f>Энергия!V8</f>
+        <v>331</v>
+      </c>
+      <c r="T8" s="2">
+        <f>Энергия!W8</f>
         <v>360</v>
       </c>
-      <c r="T8" s="11">
-        <f>Энергия!W8</f>
-        <v>50</v>
-      </c>
-      <c r="U8" s="23">
-        <f>50+125</f>
-        <v>175</v>
-      </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="2">
+      <c r="U8" s="11">
+        <f>Энергия!X8</f>
+        <v>29</v>
+      </c>
+      <c r="V8" s="23">
+        <f>50+125-M8*8</f>
+        <v>127</v>
+      </c>
+      <c r="W8" s="168">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="X8" s="2">
         <f>12+35</f>
         <v>47</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <f>19+44+77</f>
         <v>140</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <f>44</f>
         <v>44</v>
       </c>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="11">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="11">
         <v>5</v>
       </c>
-      <c r="AB8" s="78">
+      <c r="AC8" s="78">
         <v>63388546</v>
       </c>
-      <c r="AC8" s="86">
-        <f t="shared" si="2"/>
+      <c r="AD8" s="86">
+        <f t="shared" si="3"/>
         <v>8050345.3420000002</v>
       </c>
-      <c r="AD8" s="91">
-        <f>M8*Провиант!$B$12+База!N8*Провиант!$C$12</f>
+      <c r="AE8" s="91">
+        <f>N8*Провиант!$B$12+База!O8*Провиант!$C$12</f>
         <v>2754657.7</v>
       </c>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="33"/>
+      <c r="AF8" s="23"/>
       <c r="AG8" s="33"/>
-      <c r="AH8" s="33">
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33">
         <v>0.11</v>
       </c>
-      <c r="AI8" s="33">
+      <c r="AJ8" s="33">
         <v>0.4</v>
       </c>
-      <c r="AJ8" s="33">
+      <c r="AK8" s="33">
         <v>0.17</v>
       </c>
-      <c r="AK8" s="33">
+      <c r="AL8" s="33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AL8" s="33">
+      <c r="AM8" s="33">
         <v>0.15</v>
       </c>
-      <c r="AM8" s="33">
+      <c r="AN8" s="33">
         <v>0.1</v>
       </c>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="32">
-        <f t="shared" si="3"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>6</v>
       </c>
@@ -3791,96 +3843,102 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
         <f>Провиант!B9</f>
         <v>4</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <f>Провиант!C9</f>
         <v>4</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <f>Провиант!D9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <f>Энергия!B9</f>
         <v>2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f>Энергия!C9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="4">
-        <f>Энергия!U9</f>
-        <v>84</v>
-      </c>
       <c r="S9" s="4">
         <f>Энергия!V9</f>
+        <v>87.5</v>
+      </c>
+      <c r="T9" s="4">
+        <f>Энергия!W9</f>
         <v>120</v>
       </c>
-      <c r="T9" s="9">
-        <f>Энергия!W9</f>
-        <v>36</v>
-      </c>
-      <c r="U9" s="24">
-        <f>30</f>
-        <v>30</v>
-      </c>
-      <c r="V9" s="24"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4">
+      <c r="U9" s="9">
+        <f>Энергия!X9</f>
+        <v>32.5</v>
+      </c>
+      <c r="V9" s="24">
+        <f>30-M9*8</f>
+        <v>22</v>
+      </c>
+      <c r="W9" s="22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4">
         <f>77</f>
         <v>77</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Z9" s="4">
         <f>10+3</f>
         <v>13</v>
       </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="9">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="9">
         <v>8</v>
       </c>
-      <c r="AB9" s="79">
+      <c r="AC9" s="79">
         <v>22382937</v>
       </c>
-      <c r="AC9" s="88">
-        <f t="shared" si="2"/>
+      <c r="AD9" s="88">
+        <f t="shared" si="3"/>
         <v>2842632.9989999998</v>
       </c>
-      <c r="AD9" s="87">
-        <f>M9*Провиант!$B$12+База!N9*Провиант!$C$12</f>
+      <c r="AE9" s="87">
+        <f>N9*Провиант!$B$12+База!O9*Провиант!$C$12</f>
         <v>1261679.6000000001</v>
       </c>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="34"/>
+      <c r="AF9" s="24"/>
       <c r="AG9" s="34"/>
       <c r="AH9" s="34"/>
-      <c r="AI9" s="34">
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34">
         <v>0.08</v>
       </c>
-      <c r="AJ9" s="34">
+      <c r="AK9" s="34">
         <v>0.13</v>
       </c>
-      <c r="AK9" s="34">
+      <c r="AL9" s="34">
         <v>0.05</v>
       </c>
-      <c r="AL9" s="34">
+      <c r="AM9" s="34">
         <v>0.22</v>
       </c>
-      <c r="AM9" s="34">
+      <c r="AN9" s="34">
         <v>0.42</v>
       </c>
-      <c r="AN9" s="34">
+      <c r="AO9" s="34">
         <v>0.1</v>
       </c>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="32">
-        <f t="shared" si="3"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
@@ -3909,56 +3967,62 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="11"/>
+      <c r="N10" s="10">
         <f>Провиант!B10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <f>Провиант!C10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <f>Провиант!D10</f>
         <v>0</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <f>Энергия!B10</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <f>Энергия!C10</f>
         <v>0</v>
       </c>
-      <c r="R10" s="2">
-        <f>Энергия!U10</f>
-        <v>34</v>
-      </c>
       <c r="S10" s="2">
         <f>Энергия!V10</f>
+        <v>34</v>
+      </c>
+      <c r="T10" s="2">
+        <f>Энергия!W10</f>
         <v>60</v>
       </c>
-      <c r="T10" s="11">
-        <f>Энергия!W10</f>
+      <c r="U10" s="11">
+        <f>Энергия!X10</f>
         <v>26</v>
       </c>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="2"/>
+      <c r="V10" s="23">
+        <f>0-M10*8</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="86">
-        <f t="shared" si="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="86">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="91">
-        <f>M10*Провиант!$B$12+База!N10*Провиант!$C$12</f>
+      <c r="AE10" s="91">
+        <f>N10*Провиант!$B$12+База!O10*Провиант!$C$12</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="33"/>
+      <c r="AF10" s="23"/>
       <c r="AG10" s="33"/>
       <c r="AH10" s="33"/>
       <c r="AI10" s="33"/>
@@ -3967,13 +4031,14 @@
       <c r="AL10" s="33"/>
       <c r="AM10" s="33"/>
       <c r="AN10" s="33"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="32">
-        <f t="shared" si="3"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="32">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="5" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" s="5" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>3</v>
       </c>
@@ -3992,10 +4057,10 @@
       <c r="G11" s="25"/>
       <c r="H11" s="21"/>
       <c r="I11" s="12">
+        <v>3</v>
+      </c>
+      <c r="J11" s="13">
         <v>2</v>
-      </c>
-      <c r="J11" s="13">
-        <v>3</v>
       </c>
       <c r="K11" s="14">
         <v>0</v>
@@ -4004,118 +4069,122 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="14"/>
+      <c r="N11" s="12">
         <f>Провиант!B11</f>
         <v>15</v>
       </c>
-      <c r="N11" s="13">
+      <c r="O11" s="13">
         <f>Провиант!C11</f>
         <v>20</v>
       </c>
-      <c r="O11" s="21">
+      <c r="P11" s="21">
         <f>Провиант!D11</f>
         <v>5</v>
       </c>
-      <c r="P11" s="12">
+      <c r="Q11" s="12">
         <f>Энергия!B11</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="R11" s="13">
         <f>Энергия!C11</f>
         <v>0</v>
       </c>
-      <c r="R11" s="13">
-        <f>Энергия!U11</f>
-        <v>45.75</v>
-      </c>
       <c r="S11" s="13">
         <f>Энергия!V11</f>
+        <v>44.75</v>
+      </c>
+      <c r="T11" s="13">
+        <f>Энергия!W11</f>
         <v>60</v>
       </c>
-      <c r="T11" s="14">
-        <f>Энергия!W11</f>
-        <v>14.25</v>
-      </c>
-      <c r="U11" s="25">
-        <f>105</f>
+      <c r="U11" s="14">
+        <f>Энергия!X11</f>
+        <v>15.25</v>
+      </c>
+      <c r="V11" s="25">
+        <f>105-M11*8</f>
         <v>105</v>
       </c>
-      <c r="V11" s="25"/>
-      <c r="W11" s="13"/>
+      <c r="W11" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X11" s="13"/>
-      <c r="Y11" s="13">
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13">
         <f>18</f>
         <v>18</v>
       </c>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="80">
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="80">
         <v>17932651</v>
       </c>
-      <c r="AC11" s="89">
-        <f t="shared" si="2"/>
+      <c r="AD11" s="89">
+        <f t="shared" si="3"/>
         <v>2277446.6770000001</v>
       </c>
-      <c r="AD11" s="90">
-        <f>M11*Провиант!$B$12+База!N11*Провиант!$C$12</f>
+      <c r="AE11" s="90">
+        <f>N11*Провиант!$B$12+База!O11*Провиант!$C$12</f>
         <v>4808398</v>
       </c>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="35"/>
+      <c r="AF11" s="25"/>
       <c r="AG11" s="35"/>
       <c r="AH11" s="35"/>
       <c r="AI11" s="35"/>
       <c r="AJ11" s="35"/>
       <c r="AK11" s="35"/>
-      <c r="AL11" s="35">
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35">
         <v>0.7</v>
       </c>
-      <c r="AM11" s="35">
+      <c r="AN11" s="35">
         <v>0.05</v>
       </c>
-      <c r="AN11" s="35">
+      <c r="AO11" s="35">
         <v>0.1</v>
       </c>
-      <c r="AO11" s="39">
+      <c r="AP11" s="39">
         <v>0.15</v>
       </c>
-      <c r="AP11" s="32">
-        <f t="shared" si="3"/>
+      <c r="AQ11" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45">
-        <f>SUM(AC3:AC11)</f>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45">
+        <f>SUM(AD3:AD11)</f>
         <v>57931237.071000002</v>
       </c>
-      <c r="AD12" s="45"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AB13" s="45"/>
-    </row>
-    <row r="21" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="AE12" s="45"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC13" s="45"/>
+    </row>
+    <row r="21" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L21">
         <f>5000000/350</f>
         <v>14285.714285714286</v>
       </c>
-      <c r="M21" s="51">
+      <c r="N21" s="51">
         <f>L21*1500*2.5/2000</f>
         <v>26785.714285714286</v>
       </c>
-      <c r="N21" s="51"/>
       <c r="O21" s="51"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="51"/>
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
-      <c r="U21" s="45">
-        <f>M21*12</f>
+      <c r="U21" s="51"/>
+      <c r="V21" s="45">
+        <f>N21*12</f>
         <v>321428.57142857142</v>
       </c>
-      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
@@ -4125,14 +4194,14 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AF1:AQ1"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="V1:AB1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4175,34 +4244,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="154" t="s">
+      <c r="F1" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="155"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="163"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="64" t="s">
         <v>62</v>
       </c>
@@ -4305,8 +4374,8 @@
         <v>0.7</v>
       </c>
       <c r="S3" s="129">
-        <f>IF(SUMIF($A$3:$A$11,$L$3,Энергия!X3:X11)&lt;1,(1-SUMIF($A$3:$A$11,$L$3,Энергия!X3:X11))*-0.5,0)</f>
-        <v>-0.20074812967581046</v>
+        <f>IF(SUMIF($A$3:$A$11,$L$3,Энергия!Y3:Y11)&lt;1,(1-SUMIF($A$3:$A$11,$L$3,Энергия!Y3:Y11))*-0.5,0)</f>
+        <v>-0.21084337349397592</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -4390,7 +4459,7 @@
       </c>
       <c r="Q5" s="136">
         <f>Q3+Q3*S3</f>
-        <v>36973.151745635907</v>
+        <v>36506.148795180721</v>
       </c>
       <c r="S5" s="135"/>
     </row>
@@ -4782,15 +4851,15 @@
       <c r="F17" s="60"/>
       <c r="G17" s="61" cm="1">
         <f t="array" ref="G17">IF(G16&gt;0,G16*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G16)+(($Q$3+$Q$3*S3)+IF(M17=0,$P$3*_xlfn.IFS(J17="НЕУРОЖАЙ",0.25,J17="ОБЫЧНЫЙ",1,J17="РЕКОРД",1.25,J17="",1),0))-$O$3</f>
-        <v>1055040.7529039693</v>
+        <v>1054573.749953514</v>
       </c>
       <c r="H17" s="62">
         <f t="shared" si="6"/>
-        <v>5.2895513795074542</v>
+        <v>5.2872100139308023</v>
       </c>
       <c r="I17" s="76">
         <f t="shared" ref="I17:I63" si="8">G17/$O$3*IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)</f>
-        <v>3.7026859656552178</v>
+        <v>3.7010470097515613</v>
       </c>
       <c r="J17" s="59" t="str">
         <f t="shared" ref="J17:J62" ca="1" si="9">_xlfn.IFS(AND(K17&gt;0,K17&lt;34),"НЕУРОЖАЙ",AND(L17&gt;0,L17&lt;11),"РЕКОРД",NOT(M17=0),"",AND(K17&gt;33,L17&gt;10),"ОБЫЧНЫЙ")</f>
@@ -4813,11 +4882,11 @@
       </c>
       <c r="T17" s="61">
         <f>IF(AND(T16&gt;0,W17=0),T16*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),T16)+((($Q$3+$Q$3*$S$3)/4)+(IF(X17=0,$P$3*_xlfn.IFS(Y17="НЕУРОЖАЙ",0.25,Y17="ОБЫЧНЫЙ",1,Y17="РЕКОРД",1.25,Y17="",1),0)))-($O$3/4)</f>
-        <v>1813598.8573947421</v>
+        <v>1813482.1066571283</v>
       </c>
       <c r="U17" s="62">
         <f t="shared" ref="U17:U80" si="13">T17/$O$3</f>
-        <v>9.0926576168747069</v>
+        <v>9.0920722754805432</v>
       </c>
       <c r="W17">
         <f t="shared" ref="W17:W80" si="14">MOD(R17,4)</f>
@@ -4842,15 +4911,15 @@
       <c r="F18" s="60"/>
       <c r="G18" s="61" cm="1">
         <f t="array" ref="G18">IF(G17&gt;0,G17*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G17)+(($Q$3+$Q$3*S4)+IF(M18=0,$P$3*_xlfn.IFS(J18="НЕУРОЖАЙ",0.25,J18="ОБЫЧНЫЙ",1,J18="РЕКОРД",1.25,J18="",1),0))-$O$3</f>
-        <v>585330.71594944503</v>
+        <v>585003.81388412626</v>
       </c>
       <c r="H18" s="62">
         <f t="shared" si="6"/>
-        <v>2.934613556392438</v>
+        <v>2.9329746004887811</v>
       </c>
       <c r="I18" s="76">
         <f t="shared" si="8"/>
-        <v>2.0542294894747064</v>
+        <v>2.0530822203421466</v>
       </c>
       <c r="J18" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4873,11 +4942,11 @@
       </c>
       <c r="T18" s="61">
         <f t="shared" ref="T18:T81" si="16">IF(AND(T17&gt;0,W18=0),T17*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),T17)+((($Q$3+$Q$3*$S$3)/4)+(IF(X18=0,$P$3*_xlfn.IFS(Y18="НЕУРОЖАЙ",0.25,Y18="ОБЫЧНЫЙ",1,Y18="РЕКОРД",1.25,Y18="",1),0)))-($O$3/4)</f>
-        <v>1772977.7675603176</v>
+        <v>1772744.2660850901</v>
       </c>
       <c r="U18" s="62">
         <f t="shared" si="13"/>
-        <v>8.8889997570438322</v>
+        <v>8.8878290742555066</v>
       </c>
       <c r="W18">
         <f t="shared" si="14"/>
@@ -4902,15 +4971,15 @@
       <c r="F19" s="60"/>
       <c r="G19" s="61" cm="1">
         <f t="array" ref="G19">IF(G18&gt;0,G18*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G18)+(($Q$3+$Q$3*S5)+IF(M19=0,$P$3*_xlfn.IFS(J19="НЕУРОЖАЙ",0.25,J19="ОБЫЧНЫЙ",1,J19="РЕКОРД",1.25,J19="",1),0))-$O$3</f>
-        <v>256533.69008127815</v>
+        <v>256304.85863555502</v>
       </c>
       <c r="H19" s="62">
         <f t="shared" si="6"/>
-        <v>1.2861570802119273</v>
+        <v>1.2850098110793675</v>
       </c>
       <c r="I19" s="76">
         <f t="shared" si="8"/>
-        <v>0.90030995614834908</v>
+        <v>0.89950686775555722</v>
       </c>
       <c r="J19" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4933,11 +5002,11 @@
       </c>
       <c r="T19" s="61">
         <f t="shared" si="16"/>
-        <v>1200463.3474577977</v>
+        <v>1200183.1456875247</v>
       </c>
       <c r="U19" s="62">
         <f t="shared" si="13"/>
-        <v>6.0186419700998082</v>
+        <v>6.0172371507538172</v>
       </c>
       <c r="V19">
         <f>IF(W19=0,V15+1,"")</f>
@@ -4966,15 +5035,15 @@
       <c r="F20" s="60"/>
       <c r="G20" s="61" cm="1">
         <f t="array" ref="G20">IF(G19&gt;0,G19*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G19)+(($Q$3+$Q$3*S6)+IF(M20=0,$P$3*_xlfn.IFS(J20="НЕУРОЖАЙ",0.25,J20="ОБЫЧНЫЙ",1,J20="РЕКОРД",1.25,J20="",1),0))-$O$3</f>
-        <v>26375.771973561321</v>
+        <v>26215.589961555146</v>
       </c>
       <c r="H20" s="62">
         <f t="shared" si="6"/>
-        <v>0.13223754688556966</v>
+        <v>0.13143445849277779</v>
       </c>
       <c r="I20" s="76">
         <f t="shared" si="8"/>
-        <v>9.256628281989876E-2</v>
+        <v>9.2004120944944451E-2</v>
       </c>
       <c r="J20" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4997,11 +5066,11 @@
       </c>
       <c r="T20" s="61">
         <f t="shared" si="16"/>
-        <v>1159842.2576233733</v>
+        <v>1159445.3051154865</v>
       </c>
       <c r="U20" s="62">
         <f t="shared" si="13"/>
-        <v>5.8149841102689344</v>
+        <v>5.8129939495287806</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" ref="V20:V83" si="17">IF(W20=0,V16+1,"")</f>
@@ -5030,15 +5099,15 @@
       <c r="F21" s="60"/>
       <c r="G21" s="61" cm="1">
         <f t="array" ref="G21">IF(G20&gt;0,G20*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G20)+(($Q$3+$Q$3*S7)+IF(M21=0,$P$3*_xlfn.IFS(J21="НЕУРОЖАЙ",0.25,J21="ОБЫЧНЫЙ",1,J21="РЕКОРД",1.25,J21="",1),0))-$O$3</f>
-        <v>-134734.77070184043</v>
+        <v>-134846.89811024474</v>
       </c>
       <c r="H21" s="62">
         <f t="shared" si="6"/>
-        <v>-0.67550612644288055</v>
+        <v>-0.67606828831783483</v>
       </c>
       <c r="I21" s="76">
         <f t="shared" si="8"/>
-        <v>-0.47285428851001637</v>
+        <v>-0.47324780182248433</v>
       </c>
       <c r="J21" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5061,11 +5130,11 @@
       </c>
       <c r="T21" s="61">
         <f t="shared" si="16"/>
-        <v>1119221.1677889489</v>
+        <v>1118707.4645434483</v>
       </c>
       <c r="U21" s="62">
         <f t="shared" si="13"/>
-        <v>5.6113262504380605</v>
+        <v>5.608750748303744</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="17"/>
@@ -5094,15 +5163,15 @@
       <c r="F22" s="60"/>
       <c r="G22" s="61" cm="1">
         <f t="array" ref="G22">IF(G21&gt;0,G21*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G21)+(($Q$3+$Q$3*S8)+IF(M22=0,$P$3*_xlfn.IFS(J22="НЕУРОЖАЙ",0.25,J22="ОБЫЧНЫЙ",1,J22="РЕКОРД",1.25,J22="",1),0))-$O$3</f>
-        <v>-287932.5817851738</v>
+        <v>-288044.70919357811</v>
       </c>
       <c r="H22" s="62">
         <f t="shared" si="6"/>
-        <v>-1.4435785357056601</v>
+        <v>-1.4441406975806141</v>
       </c>
       <c r="I22" s="76">
         <f t="shared" si="8"/>
-        <v>-1.0105049749939621</v>
+        <v>-1.0108984883064298</v>
       </c>
       <c r="J22" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5125,11 +5194,11 @@
       </c>
       <c r="T22" s="61">
         <f t="shared" si="16"/>
-        <v>1078600.0779545244</v>
+        <v>1077969.6239714101</v>
       </c>
       <c r="U22" s="62">
         <f t="shared" si="13"/>
-        <v>5.4076683906071867</v>
+        <v>5.4045075470787083</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="17"/>
@@ -5158,15 +5227,15 @@
       <c r="F23" s="60"/>
       <c r="G23" s="61" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">IF(G22&gt;0,G22*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G22)+(($Q$3+$Q$3*S9)+IF(M23=0,$P$3*_xlfn.IFS(J23="НЕУРОЖАЙ",0.25,J23="ОБЫЧНЫЙ",1,J23="РЕКОРД",1.25,J23="",1),0))-$O$3</f>
-        <v>458869.60713149275</v>
+        <v>458757.4797230885</v>
       </c>
       <c r="H23" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3005882538049773</v>
+        <v>2.3000260919300235</v>
       </c>
       <c r="I23" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6104117776634841</v>
+        <v>1.6100182643510164</v>
       </c>
       <c r="J23" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5174,11 +5243,11 @@
       </c>
       <c r="K23" s="59">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="11"/>
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="M23" s="63">
         <f t="shared" si="12"/>
@@ -5192,11 +5261,11 @@
       </c>
       <c r="T23" s="61">
         <f t="shared" si="16"/>
-        <v>714398.96473374276</v>
+        <v>713840.8962079488</v>
       </c>
       <c r="U23" s="62">
         <f t="shared" si="13"/>
-        <v>3.581710013594158</v>
+        <v>3.5789120817300586</v>
       </c>
       <c r="V23">
         <f t="shared" si="17"/>
@@ -5225,15 +5294,15 @@
       <c r="F24" s="60"/>
       <c r="G24" s="61" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">IF(G23&gt;0,G23*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G23)+(($Q$3+$Q$3*S10)+IF(M24=0,$P$3*_xlfn.IFS(J24="НЕУРОЖАЙ",0.25,J24="ОБЫЧНЫЙ",1,J24="РЕКОРД",1.25,J24="",1),0))-$O$3</f>
-        <v>168010.91390871158</v>
+        <v>167932.42472282861</v>
       </c>
       <c r="H24" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84233936840070478</v>
+        <v>0.84194585508823705</v>
       </c>
       <c r="I24" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>0.58963755788049332</v>
+        <v>0.58936209856176591</v>
       </c>
       <c r="J24" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5260,11 +5329,11 @@
       </c>
       <c r="T24" s="61">
         <f t="shared" si="16"/>
-        <v>673777.87489931844</v>
+        <v>673103.0556359106</v>
       </c>
       <c r="U24" s="62">
         <f t="shared" si="13"/>
-        <v>3.3780521537632846</v>
+        <v>3.374668880505022</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="17"/>
@@ -5293,15 +5362,15 @@
       <c r="F25" s="60"/>
       <c r="G25" s="61" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">IF(G24&gt;0,G24*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G24)+(($Q$3+$Q$3*S11)+IF(M25=0,$P$3*_xlfn.IFS(J25="НЕУРОЖАЙ",0.25,J25="ОБЫЧНЫЙ",1,J25="РЕКОРД",1.25,J25="",1),0))-$O$3</f>
-        <v>-35590.171347235271</v>
+        <v>-35645.113777353312</v>
       </c>
       <c r="H25" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.17843485138228612</v>
+        <v>-0.17871031070101334</v>
       </c>
       <c r="I25" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.12490439596760028</v>
+        <v>-0.12509721749070934</v>
       </c>
       <c r="J25" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5328,11 +5397,11 @@
       </c>
       <c r="T25" s="61">
         <f t="shared" si="16"/>
-        <v>633156.78506489412</v>
+        <v>632365.2150638724</v>
       </c>
       <c r="U25" s="62">
         <f t="shared" si="13"/>
-        <v>3.1743942939324117</v>
+        <v>3.1704256792799859</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="17"/>
@@ -5361,15 +5430,15 @@
       <c r="F26" s="60"/>
       <c r="G26" s="61" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">IF(G25&gt;0,G25*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G25)+(($Q$3+$Q$3*S12)+IF(M26=0,$P$3*_xlfn.IFS(J26="НЕУРОЖАЙ",0.25,J26="ОБЫЧНЫЙ",1,J26="РЕКОРД",1.25,J26="",1),0))-$O$3</f>
-        <v>-188787.98243056861</v>
+        <v>-188842.92486068665</v>
       </c>
       <c r="H26" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.9465072606450653</v>
+        <v>-0.9467827199637926</v>
       </c>
       <c r="I26" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66255508245154571</v>
+        <v>-0.66274790397465477</v>
       </c>
       <c r="J26" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5396,11 +5465,11 @@
       </c>
       <c r="T26" s="61">
         <f t="shared" si="16"/>
-        <v>592535.69523046981</v>
+        <v>591627.3744918342</v>
       </c>
       <c r="U26" s="62">
         <f t="shared" si="13"/>
-        <v>2.9707364341015388</v>
+        <v>2.9661824780549493</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="17"/>
@@ -5429,15 +5498,15 @@
       <c r="F27" s="60"/>
       <c r="G27" s="61" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">IF(G26&gt;0,G26*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G26)+(($Q$3+$Q$3*S13)+IF(M27=0,$P$3*_xlfn.IFS(J27="НЕУРОЖАЙ",0.25,J27="ОБЫЧНЫЙ",1,J27="РЕКОРД",1.25,J27="",1),0))-$O$3</f>
-        <v>-341985.79351390194</v>
+        <v>-342040.73594401998</v>
       </c>
       <c r="H27" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.7145796699078446</v>
+        <v>-1.7148551292265717</v>
       </c>
       <c r="I27" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2002057689354912</v>
+        <v>-1.2003985904586001</v>
       </c>
       <c r="J27" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5464,11 +5533,11 @@
       </c>
       <c r="T27" s="61">
         <f t="shared" si="16"/>
-        <v>374153.8968269045</v>
+        <v>373401.3215722458</v>
       </c>
       <c r="U27" s="62">
         <f t="shared" si="13"/>
-        <v>1.8758576440402037</v>
+        <v>1.8720845334134282</v>
       </c>
       <c r="V27">
         <f t="shared" si="17"/>
@@ -5497,15 +5566,15 @@
       <c r="F28" s="60"/>
       <c r="G28" s="61" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">IF(G27&gt;0,G27*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G27)+(($Q$3+$Q$3*S14)+IF(M28=0,$P$3*_xlfn.IFS(J28="НЕУРОЖАЙ",0.25,J28="ОБЫЧНЫЙ",1,J28="РЕКОРД",1.25,J28="",1),0))-$O$3</f>
-        <v>-495183.60459723527</v>
+        <v>-495238.54702735331</v>
       </c>
       <c r="H28" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.4826520791706237</v>
+        <v>-2.482927538489351</v>
       </c>
       <c r="I28" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7378564554194365</v>
+        <v>-1.7380492769425455</v>
       </c>
       <c r="J28" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5532,11 +5601,11 @@
       </c>
       <c r="T28" s="61">
         <f t="shared" si="16"/>
-        <v>333532.80699248018</v>
+        <v>332663.48100020766</v>
       </c>
       <c r="U28" s="62">
         <f t="shared" si="13"/>
-        <v>1.6721997842093306</v>
+        <v>1.667841332188392</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="17"/>
@@ -5565,15 +5634,15 @@
       <c r="F29" s="60"/>
       <c r="G29" s="61" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">IF(G28&gt;0,G28*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G28)+(($Q$3+$Q$3*S15)+IF(M29=0,$P$3*_xlfn.IFS(J29="НЕУРОЖАЙ",0.25,J29="ОБЫЧНЫЙ",1,J29="РЕКОРД",1.25,J29="",1),0))-$O$3</f>
-        <v>-648381.41568056867</v>
+        <v>-648436.35811068665</v>
       </c>
       <c r="H29" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.2507244884334034</v>
+        <v>-3.2509999477521303</v>
       </c>
       <c r="I29" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.2755071419033821</v>
+        <v>-2.2756999634264909</v>
       </c>
       <c r="J29" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5600,11 +5669,11 @@
       </c>
       <c r="T29" s="61">
         <f t="shared" si="16"/>
-        <v>292911.71715805586</v>
+        <v>291925.64042816951</v>
       </c>
       <c r="U29" s="62">
         <f t="shared" si="13"/>
-        <v>1.4685419243784574</v>
+        <v>1.4635981309633559</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="17"/>
@@ -5633,15 +5702,15 @@
       <c r="F30" s="60"/>
       <c r="G30" s="61" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">IF(G29&gt;0,G29*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G29)+(($Q$3+$Q$3*S16)+IF(M30=0,$P$3*_xlfn.IFS(J30="НЕУРОЖАЙ",0.25,J30="ОБЫЧНЫЙ",1,J30="РЕКОРД",1.25,J30="",1),0))-$O$3</f>
-        <v>-801579.226763902</v>
+        <v>-801634.1691940201</v>
       </c>
       <c r="H30" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.0187968976961823</v>
+        <v>-4.0190723570149105</v>
       </c>
       <c r="I30" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8131578283873275</v>
+        <v>-2.8133506499104373</v>
       </c>
       <c r="J30" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5668,11 +5737,11 @@
       </c>
       <c r="T30" s="61">
         <f t="shared" si="16"/>
-        <v>252290.62732363155</v>
+        <v>251187.79985613137</v>
       </c>
       <c r="U30" s="62">
         <f t="shared" si="13"/>
-        <v>1.2648840645475845</v>
+        <v>1.2593549297383195</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="17"/>
@@ -5701,15 +5770,15 @@
       <c r="F31" s="60"/>
       <c r="G31" s="61" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">IF(G30&gt;0,G30*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G30)+(($Q$3+$Q$3*S17)+IF(M31=0,$P$3*_xlfn.IFS(J31="НЕУРОЖАЙ",0.25,J31="ОБЫЧНЫЙ",1,J31="РЕКОРД",1.25,J31="",1),0))-$O$3</f>
-        <v>-54777.037847235391</v>
+        <v>-54831.98027735349</v>
       </c>
       <c r="H31" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.27463010818554506</v>
+        <v>-0.27490556750427259</v>
       </c>
       <c r="I31" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.19224107572988153</v>
+        <v>-0.19243389725299079</v>
       </c>
       <c r="J31" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5717,11 +5786,11 @@
       </c>
       <c r="K31" s="59">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="M31" s="63">
         <f t="shared" si="12"/>
@@ -5736,11 +5805,11 @@
       </c>
       <c r="T31" s="61">
         <f t="shared" si="16"/>
-        <v>135982.34929211769</v>
+        <v>135093.61932725378</v>
       </c>
       <c r="U31" s="62">
         <f t="shared" si="13"/>
-        <v>0.68176098535243568</v>
+        <v>0.67730524959178728</v>
       </c>
       <c r="V31">
         <f t="shared" si="17"/>
@@ -5769,15 +5838,15 @@
       <c r="F32" s="60"/>
       <c r="G32" s="61" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">IF(G31&gt;0,G31*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G31)+(($Q$3+$Q$3*S18)+IF(M32=0,$P$3*_xlfn.IFS(J32="НЕУРОЖАЙ",0.25,J32="ОБЫЧНЫЙ",1,J32="РЕКОРД",1.25,J32="",1),0))-$O$3</f>
-        <v>-207974.84893056873</v>
+        <v>-208029.79136068682</v>
       </c>
       <c r="H32" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.0427025174483242</v>
+        <v>-1.0429779767670517</v>
       </c>
       <c r="I32" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.7298917622138269</v>
+        <v>-0.73008458373693619</v>
       </c>
       <c r="J32" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5804,11 +5873,11 @@
       </c>
       <c r="T32" s="61">
         <f t="shared" si="16"/>
-        <v>95361.259457693333</v>
+        <v>94355.778755215622</v>
       </c>
       <c r="U32" s="62">
         <f t="shared" si="13"/>
-        <v>0.47810312552156231</v>
+        <v>0.47306204836675103</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="17"/>
@@ -5837,15 +5906,15 @@
       <c r="F33" s="60"/>
       <c r="G33" s="61" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">IF(G32&gt;0,G32*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G32)+(($Q$3+$Q$3*S19)+IF(M33=0,$P$3*_xlfn.IFS(J33="НЕУРОЖАЙ",0.25,J33="ОБЫЧНЫЙ",1,J33="РЕКОРД",1.25,J33="",1),0))-$O$3</f>
-        <v>-361172.66001390206</v>
+        <v>-361227.60244402016</v>
       </c>
       <c r="H33" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.8107749267111035</v>
+        <v>-1.811050386029831</v>
       </c>
       <c r="I33" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2675424486977724</v>
+        <v>-1.2677352702208817</v>
       </c>
       <c r="J33" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5872,11 +5941,11 @@
       </c>
       <c r="T33" s="61">
         <f t="shared" si="16"/>
-        <v>54740.169623268972</v>
+        <v>53617.938183177466</v>
       </c>
       <c r="U33" s="62">
         <f t="shared" si="13"/>
-        <v>0.27444526569068906</v>
+        <v>0.26881884714171478</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="17"/>
@@ -5905,15 +5974,15 @@
       <c r="F34" s="60"/>
       <c r="G34" s="61" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">IF(G33&gt;0,G33*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G33)+(($Q$3+$Q$3*S20)+IF(M34=0,$P$3*_xlfn.IFS(J34="НЕУРОЖАЙ",0.25,J34="ОБЫЧНЫЙ",1,J34="РЕКОРД",1.25,J34="",1),0))-$O$3</f>
-        <v>-514370.47109723539</v>
+        <v>-514425.41352735349</v>
       </c>
       <c r="H34" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.5788473359738826</v>
+        <v>-2.5791227952926103</v>
       </c>
       <c r="I34" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8051931351817176</v>
+        <v>-1.8053859567048272</v>
       </c>
       <c r="J34" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5940,11 +6009,11 @@
       </c>
       <c r="T34" s="61">
         <f t="shared" si="16"/>
-        <v>14119.07978884461</v>
+        <v>12880.09761113931</v>
       </c>
       <c r="U34" s="62">
         <f t="shared" si="13"/>
-        <v>7.078740585981573E-2</v>
+        <v>6.4575645916678498E-2</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="17"/>
@@ -5973,15 +6042,15 @@
       <c r="F35" s="60"/>
       <c r="G35" s="61" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">IF(G34&gt;0,G34*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G34)+(($Q$3+$Q$3*S21)+IF(M35=0,$P$3*_xlfn.IFS(J35="НЕУРОЖАЙ",0.25,J35="ОБЫЧНЫЙ",1,J35="РЕКОРД",1.25,J35="",1),0))-$O$3</f>
-        <v>-667568.28218056867</v>
+        <v>-667623.22461068677</v>
       </c>
       <c r="H35" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.3469197452366619</v>
+        <v>-3.3471952045553892</v>
       </c>
       <c r="I35" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3428438216656633</v>
+        <v>-2.3430366431887721</v>
       </c>
       <c r="J35" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6008,11 +6077,11 @@
       </c>
       <c r="T35" s="61">
         <f t="shared" si="16"/>
-        <v>-30737.733982233134</v>
+        <v>-31721.772244240638</v>
       </c>
       <c r="U35" s="62">
         <f t="shared" si="13"/>
-        <v>-0.1541066757290023</v>
+        <v>-0.15904024908336131</v>
       </c>
       <c r="V35">
         <f t="shared" si="17"/>
@@ -6041,15 +6110,15 @@
       <c r="F36" s="60"/>
       <c r="G36" s="61" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">IF(G35&gt;0,G35*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G35)+(($Q$3+$Q$3*S22)+IF(M36=0,$P$3*_xlfn.IFS(J36="НЕУРОЖАЙ",0.25,J36="ОБЫЧНЫЙ",1,J36="РЕКОРД",1.25,J36="",1),0))-$O$3</f>
-        <v>-820766.093263902</v>
+        <v>-820821.0356940201</v>
       </c>
       <c r="H36" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.1149921544994408</v>
+        <v>-4.1152676138181681</v>
       </c>
       <c r="I36" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8804945081496083</v>
+        <v>-2.8806873296727176</v>
       </c>
       <c r="J36" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6076,11 +6145,11 @@
       </c>
       <c r="T36" s="61">
         <f t="shared" si="16"/>
-        <v>-71358.823816657503</v>
+        <v>-72459.612816278794</v>
       </c>
       <c r="U36" s="62">
         <f t="shared" si="13"/>
-        <v>-0.35776453555987564</v>
+        <v>-0.36328345030839759</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="17"/>
@@ -6109,15 +6178,15 @@
       <c r="F37" s="60"/>
       <c r="G37" s="61" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">IF(G36&gt;0,G36*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G36)+(($Q$3+$Q$3*S23)+IF(M37=0,$P$3*_xlfn.IFS(J37="НЕУРОЖАЙ",0.25,J37="ОБЫЧНЫЙ",1,J37="РЕКОРД",1.25,J37="",1),0))-$O$3</f>
-        <v>-973963.90434723534</v>
+        <v>-974018.84677735344</v>
       </c>
       <c r="H37" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.8830645637622201</v>
+        <v>-4.8833400230809474</v>
       </c>
       <c r="I37" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.4181451946335537</v>
+        <v>-3.418338016156663</v>
       </c>
       <c r="J37" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6144,11 +6213,11 @@
       </c>
       <c r="T37" s="61">
         <f t="shared" si="16"/>
-        <v>-111979.91365108186</v>
+        <v>-113197.45338831695</v>
       </c>
       <c r="U37" s="62">
         <f t="shared" si="13"/>
-        <v>-0.5614223953907489</v>
+        <v>-0.56752665153343385</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="17"/>
@@ -6177,15 +6246,15 @@
       <c r="F38" s="60"/>
       <c r="G38" s="61" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">IF(G37&gt;0,G37*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G37)+(($Q$3+$Q$3*S24)+IF(M38=0,$P$3*_xlfn.IFS(J38="НЕУРОЖАЙ",0.25,J38="ОБЫЧНЫЙ",1,J38="РЕКОРД",1.25,J38="",1),0))-$O$3</f>
-        <v>-1127161.7154305687</v>
+        <v>-1127216.6578606868</v>
       </c>
       <c r="H38" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.6511369730249994</v>
+        <v>-5.6514124323437267</v>
       </c>
       <c r="I38" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.9557958811174991</v>
+        <v>-3.9559887026406084</v>
       </c>
       <c r="J38" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6212,11 +6281,11 @@
       </c>
       <c r="T38" s="61">
         <f t="shared" si="16"/>
-        <v>-152601.00348550623</v>
+        <v>-153935.29396035511</v>
       </c>
       <c r="U38" s="62">
         <f t="shared" si="13"/>
-        <v>-0.76508025522162226</v>
+        <v>-0.77176985275847021</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="17"/>
@@ -6245,15 +6314,15 @@
       <c r="F39" s="60"/>
       <c r="G39" s="61" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">IF(G38&gt;0,G38*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G38)+(($Q$3+$Q$3*S25)+IF(M39=0,$P$3*_xlfn.IFS(J39="НЕУРОЖАЙ",0.25,J39="ОБЫЧНЫЙ",1,J39="РЕКОРД",1.25,J39="",1),0))-$O$3</f>
-        <v>-380359.52651390206</v>
+        <v>-380414.46894402016</v>
       </c>
       <c r="H39" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.906970183514362</v>
+        <v>-1.9072456428330895</v>
       </c>
       <c r="I39" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.3348791284600534</v>
+        <v>-1.3350719499831625</v>
       </c>
       <c r="J39" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6261,11 +6330,11 @@
       </c>
       <c r="K39" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M39" s="63">
         <f t="shared" si="12"/>
@@ -6280,11 +6349,11 @@
       </c>
       <c r="T39" s="61">
         <f t="shared" si="16"/>
-        <v>-193222.0933199306</v>
+        <v>-194673.13453239325</v>
       </c>
       <c r="U39" s="62">
         <f t="shared" si="13"/>
-        <v>-0.96873811505249563</v>
+        <v>-0.97601305398350635</v>
       </c>
       <c r="V39">
         <f t="shared" si="17"/>
@@ -6313,15 +6382,15 @@
       <c r="F40" s="60"/>
       <c r="G40" s="61" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">IF(G39&gt;0,G39*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G39)+(($Q$3+$Q$3*S26)+IF(M40=0,$P$3*_xlfn.IFS(J40="НЕУРОЖАЙ",0.25,J40="ОБЫЧНЫЙ",1,J40="РЕКОРД",1.25,J40="",1),0))-$O$3</f>
-        <v>-533557.33759723534</v>
+        <v>-533612.28002735344</v>
       </c>
       <c r="H40" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.6750425927771406</v>
+        <v>-2.6753180520958684</v>
       </c>
       <c r="I40" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8725298149439984</v>
+        <v>-1.8727226364671077</v>
       </c>
       <c r="J40" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6348,11 +6417,11 @@
       </c>
       <c r="T40" s="61">
         <f t="shared" si="16"/>
-        <v>-233843.18315435498</v>
+        <v>-235410.97510443139</v>
       </c>
       <c r="U40" s="62">
         <f t="shared" si="13"/>
-        <v>-1.172395974883369</v>
+        <v>-1.1802562552085425</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="17"/>
@@ -6381,15 +6450,15 @@
       <c r="F41" s="60"/>
       <c r="G41" s="61" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">IF(G40&gt;0,G40*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G40)+(($Q$3+$Q$3*S27)+IF(M41=0,$P$3*_xlfn.IFS(J41="НЕУРОЖАЙ",0.25,J41="ОБЫЧНЫЙ",1,J41="РЕКОРД",1.25,J41="",1),0))-$O$3</f>
-        <v>-686755.14868056867</v>
+        <v>-686810.09111068677</v>
       </c>
       <c r="H41" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.4431150020399199</v>
+        <v>-3.4433904613586477</v>
       </c>
       <c r="I41" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.4101805014279436</v>
+        <v>-2.4103733229510533</v>
       </c>
       <c r="J41" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6416,11 +6485,11 @@
       </c>
       <c r="T41" s="61">
         <f t="shared" si="16"/>
-        <v>-274464.27298877935</v>
+        <v>-276148.81567646953</v>
       </c>
       <c r="U41" s="62">
         <f t="shared" si="13"/>
-        <v>-1.3760538347142424</v>
+        <v>-1.3844994564335789</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="17"/>
@@ -6449,15 +6518,15 @@
       <c r="F42" s="60"/>
       <c r="G42" s="61" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">IF(G41&gt;0,G41*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G41)+(($Q$3+$Q$3*S28)+IF(M42=0,$P$3*_xlfn.IFS(J42="НЕУРОЖАЙ",0.25,J42="ОБЫЧНЫЙ",1,J42="РЕКОРД",1.25,J42="",1),0))-$O$3</f>
-        <v>-839952.95976390201</v>
+        <v>-840007.90219402011</v>
       </c>
       <c r="H42" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.2111874113026992</v>
+        <v>-4.2114628706214265</v>
       </c>
       <c r="I42" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.9478311879118895</v>
+        <v>-2.9480240094349983</v>
       </c>
       <c r="J42" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6484,11 +6553,11 @@
       </c>
       <c r="T42" s="61">
         <f t="shared" si="16"/>
-        <v>-315085.36282320367</v>
+        <v>-316886.65624850767</v>
       </c>
       <c r="U42" s="62">
         <f t="shared" si="13"/>
-        <v>-1.5797116945451155</v>
+        <v>-1.588742657658615</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="17"/>
@@ -6517,15 +6586,15 @@
       <c r="F43" s="60"/>
       <c r="G43" s="61" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">IF(G42&gt;0,G42*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G42)+(($Q$3+$Q$3*S29)+IF(M43=0,$P$3*_xlfn.IFS(J43="НЕУРОЖАЙ",0.25,J43="ОБЫЧНЫЙ",1,J43="РЕКОРД",1.25,J43="",1),0))-$O$3</f>
-        <v>-993150.77084723534</v>
+        <v>-993205.71327735344</v>
       </c>
       <c r="H43" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.9792598205654786</v>
+        <v>-4.9795352798842059</v>
       </c>
       <c r="I43" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.4854818743958349</v>
+        <v>-3.4856746959189437</v>
       </c>
       <c r="J43" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6552,11 +6621,11 @@
       </c>
       <c r="T43" s="61">
         <f t="shared" si="16"/>
-        <v>-355706.45265762799</v>
+        <v>-357624.49682054581</v>
       </c>
       <c r="U43" s="62">
         <f t="shared" si="13"/>
-        <v>-1.7833695543759887</v>
+        <v>-1.7929858588836511</v>
       </c>
       <c r="V43">
         <f t="shared" si="17"/>
@@ -6585,15 +6654,15 @@
       <c r="F44" s="60"/>
       <c r="G44" s="61" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">IF(G43&gt;0,G43*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G43)+(($Q$3+$Q$3*S30)+IF(M44=0,$P$3*_xlfn.IFS(J44="НЕУРОЖАЙ",0.25,J44="ОБЫЧНЫЙ",1,J44="РЕКОРД",1.25,J44="",1),0))-$O$3</f>
-        <v>-1146348.5819305687</v>
+        <v>-1146403.5243606868</v>
       </c>
       <c r="H44" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.7473322298282579</v>
+        <v>-5.7476076891469852</v>
       </c>
       <c r="I44" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.0231325608797803</v>
+        <v>-4.0233253824028896</v>
       </c>
       <c r="J44" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6620,11 +6689,11 @@
       </c>
       <c r="T44" s="61">
         <f t="shared" si="16"/>
-        <v>-396327.54249205231</v>
+        <v>-398362.33739258396</v>
       </c>
       <c r="U44" s="62">
         <f t="shared" si="13"/>
-        <v>-1.9870274142068616</v>
+        <v>-1.9972290601086873</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="17"/>
@@ -6653,15 +6722,15 @@
       <c r="F45" s="60"/>
       <c r="G45" s="61" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">IF(G44&gt;0,G44*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G44)+(($Q$3+$Q$3*S31)+IF(M45=0,$P$3*_xlfn.IFS(J45="НЕУРОЖАЙ",0.25,J45="ОБЫЧНЫЙ",1,J45="РЕКОРД",1.25,J45="",1),0))-$O$3</f>
-        <v>-1299546.393013902</v>
+        <v>-1299601.3354440201</v>
       </c>
       <c r="H45" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.5154046390910372</v>
+        <v>-6.5156800984097645</v>
       </c>
       <c r="I45" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5607832473637258</v>
+        <v>-4.560976068886835</v>
       </c>
       <c r="J45" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6688,11 +6757,11 @@
       </c>
       <c r="T45" s="61">
         <f t="shared" si="16"/>
-        <v>-436948.63232647663</v>
+        <v>-439100.1779646221</v>
       </c>
       <c r="U45" s="62">
         <f t="shared" si="13"/>
-        <v>-2.1906852740377349</v>
+        <v>-2.2014722613337234</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" si="17"/>
@@ -6721,15 +6790,15 @@
       <c r="F46" s="60"/>
       <c r="G46" s="61" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">IF(G45&gt;0,G45*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G45)+(($Q$3+$Q$3*S32)+IF(M46=0,$P$3*_xlfn.IFS(J46="НЕУРОЖАЙ",0.25,J46="ОБЫЧНЫЙ",1,J46="РЕКОРД",1.25,J46="",1),0))-$O$3</f>
-        <v>-1452744.2040972353</v>
+        <v>-1452799.1465273534</v>
       </c>
       <c r="H46" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.2834770483538165</v>
+        <v>-7.2837525076725438</v>
       </c>
       <c r="I46" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0984339338476712</v>
+        <v>-5.0986267553707805</v>
       </c>
       <c r="J46" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6756,11 +6825,11 @@
       </c>
       <c r="T46" s="61">
         <f t="shared" si="16"/>
-        <v>-477569.72216090094</v>
+        <v>-479838.01853666024</v>
       </c>
       <c r="U46" s="62">
         <f t="shared" si="13"/>
-        <v>-2.3943431338686079</v>
+        <v>-2.40571546255876</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" si="17"/>
@@ -6789,15 +6858,15 @@
       <c r="F47" s="60"/>
       <c r="G47" s="61" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">IF(G46&gt;0,G46*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G46)+(($Q$3+$Q$3*S33)+IF(M47=0,$P$3*_xlfn.IFS(J47="НЕУРОЖАЙ",0.25,J47="ОБЫЧНЫЙ",1,J47="РЕКОРД",1.25,J47="",1),0))-$O$3</f>
-        <v>-705942.01518056868</v>
+        <v>-705996.95761068678</v>
       </c>
       <c r="H47" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.5393102588431784</v>
+        <v>-3.5395857181619061</v>
       </c>
       <c r="I47" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.4775171811902248</v>
+        <v>-2.4777100027133341</v>
       </c>
       <c r="J47" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6805,11 +6874,11 @@
       </c>
       <c r="K47" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="20"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M47" s="63">
         <f t="shared" si="12"/>
@@ -6824,11 +6893,11 @@
       </c>
       <c r="T47" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>381809.18800467474</v>
+        <v>379424.14089130168</v>
       </c>
       <c r="U47" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9142382050739362</v>
+        <v>1.9022805349896212</v>
       </c>
       <c r="V47">
         <f t="shared" si="17"/>
@@ -6848,7 +6917,7 @@
       </c>
       <c r="Z47" s="59">
         <f ca="1">K23</f>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="AA47" s="59">
         <f>N23</f>
@@ -6869,15 +6938,15 @@
       <c r="F48" s="60"/>
       <c r="G48" s="61" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">IF(G47&gt;0,G47*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G47)+(($Q$3+$Q$3*S34)+IF(M48=0,$P$3*_xlfn.IFS(J48="НЕУРОЖАЙ",0.25,J48="ОБЫЧНЫЙ",1,J48="РЕКОРД",1.25,J48="",1),0))-$O$3</f>
-        <v>-859139.82626390201</v>
+        <v>-859194.76869402011</v>
       </c>
       <c r="H48" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.3073826681059577</v>
+        <v>-4.307658127424685</v>
       </c>
       <c r="I48" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.0151678676741702</v>
+        <v>-3.0153606891972795</v>
       </c>
       <c r="J48" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6904,11 +6973,11 @@
       </c>
       <c r="T48" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>341188.09817025042</v>
+        <v>338686.30031926354</v>
       </c>
       <c r="U48" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>1.710580345243063</v>
+        <v>1.6980373337645851</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="17"/>
@@ -6937,15 +7006,15 @@
       <c r="F49" s="60"/>
       <c r="G49" s="61" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">IF(G48&gt;0,G48*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G48)+(($Q$3+$Q$3*S35)+IF(M49=0,$P$3*_xlfn.IFS(J49="НЕУРОЖАЙ",0.25,J49="ОБЫЧНЫЙ",1,J49="РЕКОРД",1.25,J49="",1),0))-$O$3</f>
-        <v>-1012337.6373472353</v>
+        <v>-1012392.5797773534</v>
       </c>
       <c r="H49" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.075455077368737</v>
+        <v>-5.0757305366874643</v>
       </c>
       <c r="I49" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.5528185541581156</v>
+        <v>-3.5530113756812249</v>
       </c>
       <c r="J49" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6972,11 +7041,11 @@
       </c>
       <c r="T49" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>300567.0083358261</v>
+        <v>297948.4597472254</v>
       </c>
       <c r="U49" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5069224854121899</v>
+        <v>1.493794132539549</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="17"/>
@@ -7005,15 +7074,15 @@
       <c r="F50" s="60"/>
       <c r="G50" s="61" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">IF(G49&gt;0,G49*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G49)+(($Q$3+$Q$3*S36)+IF(M50=0,$P$3*_xlfn.IFS(J50="НЕУРОЖАЙ",0.25,J50="ОБЫЧНЫЙ",1,J50="РЕКОРД",1.25,J50="",1),0))-$O$3</f>
-        <v>-1165535.4484305687</v>
+        <v>-1165590.3908606868</v>
       </c>
       <c r="H50" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.8435274866315163</v>
+        <v>-5.8438029459502436</v>
       </c>
       <c r="I50" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.0904692406420615</v>
+        <v>-4.0906620621651699</v>
       </c>
       <c r="J50" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7040,11 +7109,11 @@
       </c>
       <c r="T50" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>259945.91850140179</v>
+        <v>257210.61917518725</v>
       </c>
       <c r="U50" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3032646255813167</v>
+        <v>1.2895509313145126</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="17"/>
@@ -7073,15 +7142,15 @@
       <c r="F51" s="60"/>
       <c r="G51" s="61" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">IF(G50&gt;0,G50*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G50)+(($Q$3+$Q$3*S37)+IF(M51=0,$P$3*_xlfn.IFS(J51="НЕУРОЖАЙ",0.25,J51="ОБЫЧНЫЙ",1,J51="РЕКОРД",1.25,J51="",1),0))-$O$3</f>
-        <v>-1318733.259513902</v>
+        <v>-1318788.2019440201</v>
       </c>
       <c r="H51" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.6115998958942956</v>
+        <v>-6.6118753552130229</v>
       </c>
       <c r="I51" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.6281199271260069</v>
+        <v>-4.6283127486491153</v>
       </c>
       <c r="J51" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7108,11 +7177,11 @@
       </c>
       <c r="T51" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>141341.0531165569</v>
+        <v>139309.59285059292</v>
       </c>
       <c r="U51" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>0.70862737807604848</v>
+        <v>0.69844245069512256</v>
       </c>
       <c r="V51">
         <f t="shared" si="17"/>
@@ -7141,15 +7210,15 @@
       <c r="F52" s="60"/>
       <c r="G52" s="61" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">IF(G51&gt;0,G51*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G51)+(($Q$3+$Q$3*S38)+IF(M52=0,$P$3*_xlfn.IFS(J52="НЕУРОЖАЙ",0.25,J52="ОБЫЧНЫЙ",1,J52="РЕКОРД",1.25,J52="",1),0))-$O$3</f>
-        <v>-1471931.0705972353</v>
+        <v>-1471986.0130273534</v>
       </c>
       <c r="H52" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.379672305157075</v>
+        <v>-7.3799477644758023</v>
       </c>
       <c r="I52" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1657706136099524</v>
+        <v>-5.1659634351330617</v>
       </c>
       <c r="J52" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7176,11 +7245,11 @@
       </c>
       <c r="T52" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>100719.96328213254</v>
+        <v>98571.752278554763</v>
       </c>
       <c r="U52" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>0.50496951824517522</v>
+        <v>0.49419924947008631</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="17"/>
@@ -7209,15 +7278,15 @@
       <c r="F53" s="60"/>
       <c r="G53" s="61" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">IF(G52&gt;0,G52*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G52)+(($Q$3+$Q$3*S39)+IF(M53=0,$P$3*_xlfn.IFS(J53="НЕУРОЖАЙ",0.25,J53="ОБЫЧНЫЙ",1,J53="РЕКОРД",1.25,J53="",1),0))-$O$3</f>
-        <v>-1625128.8816805687</v>
+        <v>-1625183.8241106868</v>
       </c>
       <c r="H53" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.1477447144198543</v>
+        <v>-8.1480201737385816</v>
       </c>
       <c r="I53" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.7034213000938978</v>
+        <v>-5.7036141216170071</v>
       </c>
       <c r="J53" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7244,11 +7313,11 @@
       </c>
       <c r="T53" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>60098.873447708174</v>
+        <v>57833.911706516607</v>
       </c>
       <c r="U53" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>0.30131165841430191</v>
+        <v>0.28995604824505006</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="17"/>
@@ -7277,15 +7346,15 @@
       <c r="F54" s="60"/>
       <c r="G54" s="61" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">IF(G53&gt;0,G53*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G53)+(($Q$3+$Q$3*S40)+IF(M54=0,$P$3*_xlfn.IFS(J54="НЕУРОЖАЙ",0.25,J54="ОБЫЧНЫЙ",1,J54="РЕКОРД",1.25,J54="",1),0))-$O$3</f>
-        <v>-1778326.692763902</v>
+        <v>-1778381.6351940201</v>
       </c>
       <c r="H54" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.9158171236826327</v>
+        <v>-8.91609258300136</v>
       </c>
       <c r="I54" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2410719865778423</v>
+        <v>-6.2412648081009516</v>
       </c>
       <c r="J54" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7312,11 +7381,11 @@
       </c>
       <c r="T54" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>19477.783613283813</v>
+        <v>17096.07113447845</v>
       </c>
       <c r="U54" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>9.7653798583428597E-2</v>
+        <v>8.5712847020013763E-2</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="17"/>
@@ -7345,15 +7414,15 @@
       <c r="F55" s="60"/>
       <c r="G55" s="61" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">IF(G54&gt;0,G54*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G54)+(($Q$3+$Q$3*S41)+IF(M55=0,$P$3*_xlfn.IFS(J55="НЕУРОЖАЙ",0.25,J55="ОБЫЧНЫЙ",1,J55="РЕКОРД",1.25,J55="",1),0))-$O$3</f>
-        <v>-1031524.5038472353</v>
+        <v>-1031579.4462773534</v>
       </c>
       <c r="H55" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.1716503341719955</v>
+        <v>-5.1719257934907228</v>
       </c>
       <c r="I55" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.6201552339203964</v>
+        <v>-3.6203480554435057</v>
       </c>
       <c r="J55" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7361,11 +7430,11 @@
       </c>
       <c r="K55" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="20"/>
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="M55" s="63">
         <f t="shared" si="12"/>
@@ -7380,11 +7449,11 @@
       </c>
       <c r="T55" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-26986.64130512569</v>
+        <v>-28770.590777903242</v>
       </c>
       <c r="U55" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.13530020082247327</v>
+        <v>-0.14424420831102666</v>
       </c>
       <c r="V55">
         <f t="shared" si="17"/>
@@ -7413,15 +7482,15 @@
       <c r="F56" s="60"/>
       <c r="G56" s="61" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">IF(G55&gt;0,G55*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G55)+(($Q$3+$Q$3*S42)+IF(M56=0,$P$3*_xlfn.IFS(J56="НЕУРОЖАЙ",0.25,J56="ОБЫЧНЫЙ",1,J56="РЕКОРД",1.25,J56="",1),0))-$O$3</f>
-        <v>-1184722.3149305687</v>
+        <v>-1184777.2573606868</v>
       </c>
       <c r="H56" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.9397227434347748</v>
+        <v>-5.9399982027535021</v>
       </c>
       <c r="I56" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.1578059204043418</v>
+        <v>-4.1579987419274511</v>
       </c>
       <c r="J56" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7448,11 +7517,11 @@
       </c>
       <c r="T56" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-67607.731139550044</v>
+        <v>-69508.431349941398</v>
       </c>
       <c r="U56" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.33895806065334655</v>
+        <v>-0.34848740953606294</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" si="17"/>
@@ -7481,15 +7550,15 @@
       <c r="F57" s="60"/>
       <c r="G57" s="61" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">IF(G56&gt;0,G56*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G56)+(($Q$3+$Q$3*S43)+IF(M57=0,$P$3*_xlfn.IFS(J57="НЕУРОЖАЙ",0.25,J57="ОБЫЧНЫЙ",1,J57="РЕКОРД",1.25,J57="",1),0))-$O$3</f>
-        <v>-1337920.126013902</v>
+        <v>-1337975.0684440201</v>
       </c>
       <c r="H57" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.7077951526975541</v>
+        <v>-6.7080706120162814</v>
       </c>
       <c r="I57" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.6954566068882873</v>
+        <v>-4.6956494284113965</v>
       </c>
       <c r="J57" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7516,11 +7585,11 @@
       </c>
       <c r="T57" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-108228.82097397441</v>
+        <v>-110246.27192197955</v>
       </c>
       <c r="U57" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.5426159204842198</v>
+        <v>-0.55273061076109919</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="17"/>
@@ -7549,15 +7618,15 @@
       <c r="F58" s="60"/>
       <c r="G58" s="61" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">IF(G57&gt;0,G57*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G57)+(($Q$3+$Q$3*S44)+IF(M58=0,$P$3*_xlfn.IFS(J58="НЕУРОЖАЙ",0.25,J58="ОБЫЧНЫЙ",1,J58="РЕКОРД",1.25,J58="",1),0))-$O$3</f>
-        <v>-1491117.9370972353</v>
+        <v>-1491172.8795273534</v>
       </c>
       <c r="H58" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.4758675619603325</v>
+        <v>-7.4761430212790607</v>
       </c>
       <c r="I58" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.2331072933722327</v>
+        <v>-5.233300114895342</v>
       </c>
       <c r="J58" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7584,11 +7653,11 @@
       </c>
       <c r="T58" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-148849.91080839877</v>
+        <v>-150984.1124940177</v>
       </c>
       <c r="U58" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.74627378031509317</v>
+        <v>-0.75697381198613545</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="17"/>
@@ -7617,15 +7686,15 @@
       <c r="F59" s="60"/>
       <c r="G59" s="61" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">IF(G58&gt;0,G58*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G58)+(($Q$3+$Q$3*S45)+IF(M59=0,$P$3*_xlfn.IFS(J59="НЕУРОЖАЙ",0.25,J59="ОБЫЧНЫЙ",1,J59="РЕКОРД",1.25,J59="",1),0))-$O$3</f>
-        <v>-1644315.7481805687</v>
+        <v>-1644370.6906106868</v>
       </c>
       <c r="H59" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.2439399712231118</v>
+        <v>-8.2442154305418391</v>
       </c>
       <c r="I59" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.7707579798561781</v>
+        <v>-5.7709508013792874</v>
       </c>
       <c r="J59" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7652,11 +7721,11 @@
       </c>
       <c r="T59" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-189471.00064282311</v>
+        <v>-191721.95306605584</v>
       </c>
       <c r="U59" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.94993164014596643</v>
+        <v>-0.96121701321117159</v>
       </c>
       <c r="V59">
         <f t="shared" si="17"/>
@@ -7685,15 +7754,15 @@
       <c r="F60" s="60"/>
       <c r="G60" s="61" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">IF(G59&gt;0,G59*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G59)+(($Q$3+$Q$3*S46)+IF(M60=0,$P$3*_xlfn.IFS(J60="НЕУРОЖАЙ",0.25,J60="ОБЫЧНЫЙ",1,J60="РЕКОРД",1.25,J60="",1),0))-$O$3</f>
-        <v>-1797513.559263902</v>
+        <v>-1797568.5016940201</v>
       </c>
       <c r="H60" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.012012380485892</v>
+        <v>-9.0122878398046193</v>
       </c>
       <c r="I60" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3084086663401244</v>
+        <v>-6.3086014878632328</v>
       </c>
       <c r="J60" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7720,11 +7789,11 @@
       </c>
       <c r="T60" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-230092.09047724749</v>
+        <v>-232459.79363809398</v>
       </c>
       <c r="U60" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.1535894999768397</v>
+        <v>-1.1654602144362078</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" si="17"/>
@@ -7753,15 +7822,15 @@
       <c r="F61" s="60"/>
       <c r="G61" s="61" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">IF(G60&gt;0,G60*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G60)+(($Q$3+$Q$3*S47)+IF(M61=0,$P$3*_xlfn.IFS(J61="НЕУРОЖАЙ",0.25,J61="ОБЫЧНЫЙ",1,J61="РЕКОРД",1.25,J61="",1),0))-$O$3</f>
-        <v>-1950711.3703472354</v>
+        <v>-1950766.3127773535</v>
       </c>
       <c r="H61" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.7800847897486705</v>
+        <v>-9.7803602490673978</v>
       </c>
       <c r="I61" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.846059352824069</v>
+        <v>-6.8462521743471783</v>
       </c>
       <c r="J61" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7788,11 +7857,11 @@
       </c>
       <c r="T61" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-270713.18031167187</v>
+        <v>-273197.63421013212</v>
       </c>
       <c r="U61" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.357247359807713</v>
+        <v>-1.369703415661244</v>
       </c>
       <c r="V61" t="str">
         <f t="shared" si="17"/>
@@ -7821,15 +7890,15 @@
       <c r="F62" s="60"/>
       <c r="G62" s="61" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">IF(G61&gt;0,G61*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G61)+(($Q$3+$Q$3*S48)+IF(M62=0,$P$3*_xlfn.IFS(J62="НЕУРОЖАЙ",0.25,J62="ОБЫЧНЫЙ",1,J62="РЕКОРД",1.25,J62="",1),0))-$O$3</f>
-        <v>-2103909.1814305689</v>
+        <v>-2103964.123860687</v>
       </c>
       <c r="H62" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-10.548157199011451</v>
+        <v>-10.548432658330178</v>
       </c>
       <c r="I62" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3837100393080153</v>
+        <v>-7.3839028608311237</v>
       </c>
       <c r="J62" s="59" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7856,11 +7925,11 @@
       </c>
       <c r="T62" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-311334.27014609624</v>
+        <v>-313935.47478217026</v>
       </c>
       <c r="U62" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.5609052196385864</v>
+        <v>-1.5739466168862801</v>
       </c>
       <c r="V62" t="str">
         <f t="shared" si="17"/>
@@ -7889,27 +7958,27 @@
       <c r="F63" s="60"/>
       <c r="G63" s="61" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">IF(G62&gt;0,G62*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),G62)+(($Q$3+$Q$3*S49)+IF(M63=0,$P$3*_xlfn.IFS(J63="НЕУРОЖАЙ",0.25,J63="ОБЫЧНЫЙ",1,J63="РЕКОРД",1.25,J63="",1),0))-$O$3</f>
-        <v>-1357106.9925139023</v>
+        <v>-2032161.9349440204</v>
       </c>
       <c r="H63" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.8039904095008135</v>
+        <v>-10.188445267899603</v>
       </c>
       <c r="I63" s="76">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.7627932866505693</v>
+        <v>-7.1319116875297217</v>
       </c>
       <c r="J63" s="59" t="str">
         <f ca="1">_xlfn.IFS(AND(K63&gt;0,K63&lt;34),"НЕУРОЖАЙ",AND(L63&gt;0,L63&lt;11),"РЕКОРД",NOT(M63=0),"",AND(K63&gt;33,L63&gt;10),"ОБЫЧНЫЙ")</f>
-        <v>ОБЫЧНЫЙ</v>
+        <v>НЕУРОЖАЙ</v>
       </c>
       <c r="K63" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>87</v>
-      </c>
-      <c r="L63">
+        <v>13</v>
+      </c>
+      <c r="L63" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>87</v>
+        <v/>
       </c>
       <c r="M63" s="63">
         <f t="shared" si="12"/>
@@ -7924,11 +7993,11 @@
       </c>
       <c r="T63" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-351955.35998052056</v>
+        <v>-354673.3153542084</v>
       </c>
       <c r="U63" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.7645630794694596</v>
+        <v>-1.7781898181113165</v>
       </c>
       <c r="V63">
         <f t="shared" si="17"/>
@@ -7949,11 +8018,11 @@
       </c>
       <c r="T64" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-392576.44981494488</v>
+        <v>-395411.15592624655</v>
       </c>
       <c r="U64" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.9682209393003327</v>
+        <v>-1.9824330193363526</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" si="17"/>
@@ -7974,11 +8043,11 @@
       </c>
       <c r="T65" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-433197.5396493692</v>
+        <v>-436148.99649828469</v>
       </c>
       <c r="U65" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.1718787991312056</v>
+        <v>-2.186676220561389</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" si="17"/>
@@ -7999,11 +8068,11 @@
       </c>
       <c r="T66" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-473818.62948379351</v>
+        <v>-476886.83707032283</v>
       </c>
       <c r="U66" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.375536658962079</v>
+        <v>-2.3909194217864251</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" si="17"/>
@@ -8024,11 +8093,11 @@
       </c>
       <c r="T67" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-514439.71931821783</v>
+        <v>-517624.67764236097</v>
       </c>
       <c r="U67" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.5791945187929519</v>
+        <v>-2.5951626230114613</v>
       </c>
       <c r="V67">
         <f t="shared" si="17"/>
@@ -8049,11 +8118,11 @@
       </c>
       <c r="T68" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-555060.80915264215</v>
+        <v>-558362.51821439911</v>
       </c>
       <c r="U68" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.7828523786238248</v>
+        <v>-2.7994058242364974</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" si="17"/>
@@ -8074,11 +8143,11 @@
       </c>
       <c r="T69" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-595681.89898706647</v>
+        <v>-599100.35878643731</v>
       </c>
       <c r="U69" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.9865102384546982</v>
+        <v>-3.003649025461534</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" si="17"/>
@@ -8099,11 +8168,11 @@
       </c>
       <c r="T70" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-636302.98882149078</v>
+        <v>-639838.19935847551</v>
       </c>
       <c r="U70" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.1901680982855711</v>
+        <v>-3.2078922266865706</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="17"/>
@@ -8124,11 +8193,11 @@
       </c>
       <c r="T71" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-676924.0786559151</v>
+        <v>-680576.03993051371</v>
       </c>
       <c r="U71" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.3938259581164445</v>
+        <v>-3.4121354279116067</v>
       </c>
       <c r="V71">
         <f t="shared" si="17"/>
@@ -8149,11 +8218,11 @@
       </c>
       <c r="T72" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-717545.16849033942</v>
+        <v>-721313.88050255191</v>
       </c>
       <c r="U72" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.5974838179473174</v>
+        <v>-3.6163786291366433</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="17"/>
@@ -8174,11 +8243,11 @@
       </c>
       <c r="T73" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-758166.25832476374</v>
+        <v>-762051.72107459011</v>
       </c>
       <c r="U73" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.8011416777781903</v>
+        <v>-3.8206218303616799</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="17"/>
@@ -8199,11 +8268,11 @@
       </c>
       <c r="T74" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-798787.34815918806</v>
+        <v>-802789.56164662831</v>
       </c>
       <c r="U74" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.0047995376090633</v>
+        <v>-4.0248650315867165</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" si="17"/>
@@ -8224,11 +8293,11 @@
       </c>
       <c r="T75" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-839408.43799361237</v>
+        <v>-843527.40221866651</v>
       </c>
       <c r="U75" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.2084573974399371</v>
+        <v>-4.2291082328117531</v>
       </c>
       <c r="V75">
         <f t="shared" si="17"/>
@@ -8249,11 +8318,11 @@
       </c>
       <c r="T76" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-880029.52782803669</v>
+        <v>-884265.24279070471</v>
       </c>
       <c r="U76" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.41211525727081</v>
+        <v>-4.4333514340367897</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" si="17"/>
@@ -8274,11 +8343,11 @@
       </c>
       <c r="T77" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-920650.61766246101</v>
+        <v>-925003.08336274291</v>
       </c>
       <c r="U77" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.6157731171016829</v>
+        <v>-4.6375946352618262</v>
       </c>
       <c r="V77" t="str">
         <f t="shared" si="17"/>
@@ -8306,11 +8375,11 @@
       </c>
       <c r="T78" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-961271.70749688533</v>
+        <v>-965740.92393478111</v>
       </c>
       <c r="U78" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.8194309769325558</v>
+        <v>-4.8418378364868628</v>
       </c>
       <c r="V78" t="str">
         <f t="shared" si="17"/>
@@ -8339,11 +8408,11 @@
       </c>
       <c r="T79" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-101892.79733130966</v>
+        <v>-106478.76450681921</v>
       </c>
       <c r="U79" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.51084963799001204</v>
+        <v>-0.53384183893848136</v>
       </c>
       <c r="V79">
         <f t="shared" si="17"/>
@@ -8363,7 +8432,7 @@
       </c>
       <c r="Z79" s="59">
         <f ca="1">K31</f>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AA79" s="59">
         <f ca="1">N31</f>
@@ -8376,11 +8445,11 @@
       </c>
       <c r="T80" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-142513.88716573402</v>
+        <v>-147216.60507885736</v>
       </c>
       <c r="U80" s="62">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.71450749782088541</v>
+        <v>-0.73808504016351761</v>
       </c>
       <c r="V80" t="str">
         <f t="shared" si="17"/>
@@ -8401,11 +8470,11 @@
       </c>
       <c r="T81" s="61">
         <f t="shared" ca="1" si="16"/>
-        <v>-183134.9770001584</v>
+        <v>-187954.44565089553</v>
       </c>
       <c r="U81" s="62">
         <f t="shared" ref="U81:U144" ca="1" si="21">T81/$O$3</f>
-        <v>-0.91816535765175877</v>
+        <v>-0.94232824138855398</v>
       </c>
       <c r="V81" t="str">
         <f t="shared" si="17"/>
@@ -8426,11 +8495,11 @@
       </c>
       <c r="T82" s="61">
         <f t="shared" ref="T82:T145" ca="1" si="24">IF(AND(T81&gt;0,W82=0),T81*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),T81)+((($Q$3+$Q$3*$S$3)/4)+(IF(X82=0,$P$3*_xlfn.IFS(Y82="НЕУРОЖАЙ",0.25,Y82="ОБЫЧНЫЙ",1,Y82="РЕКОРД",1.25,Y82="",1),0)))-($O$3/4)</f>
-        <v>-223756.06683458277</v>
+        <v>-228692.28622293368</v>
       </c>
       <c r="U82" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.1218232174826321</v>
+        <v>-1.1465714426135902</v>
       </c>
       <c r="V82" t="str">
         <f t="shared" si="17"/>
@@ -8451,11 +8520,11 @@
       </c>
       <c r="T83" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-264377.15666900715</v>
+        <v>-269430.12679497182</v>
       </c>
       <c r="U83" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.3254810773135055</v>
+        <v>-1.3508146438386264</v>
       </c>
       <c r="V83">
         <f t="shared" si="17"/>
@@ -8476,11 +8545,11 @@
       </c>
       <c r="T84" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-304998.24650343152</v>
+        <v>-310167.96736700996</v>
       </c>
       <c r="U84" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.5291389371443789</v>
+        <v>-1.5550578450636627</v>
       </c>
       <c r="V84" t="str">
         <f t="shared" ref="V84:V147" si="25">IF(W84=0,V80+1,"")</f>
@@ -8501,11 +8570,11 @@
       </c>
       <c r="T85" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-345619.33633785584</v>
+        <v>-350905.8079390481</v>
       </c>
       <c r="U85" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.732796796975252</v>
+        <v>-1.7593010462886989</v>
       </c>
       <c r="V85" t="str">
         <f t="shared" si="25"/>
@@ -8526,11 +8595,11 @@
       </c>
       <c r="T86" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-386240.42617228016</v>
+        <v>-391643.64851108624</v>
       </c>
       <c r="U86" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-1.9364546568061252</v>
+        <v>-1.963544247513735</v>
       </c>
       <c r="V86" t="str">
         <f t="shared" si="25"/>
@@ -8551,11 +8620,11 @@
       </c>
       <c r="T87" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-426861.51600670448</v>
+        <v>-432381.48908312438</v>
       </c>
       <c r="U87" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.1401125166369983</v>
+        <v>-2.1677874487387712</v>
       </c>
       <c r="V87">
         <f t="shared" si="25"/>
@@ -8576,11 +8645,11 @@
       </c>
       <c r="T88" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-467482.6058411288</v>
+        <v>-473119.32965516252</v>
       </c>
       <c r="U88" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.3437703764678712</v>
+        <v>-2.3720306499638073</v>
       </c>
       <c r="V88" t="str">
         <f t="shared" si="25"/>
@@ -8601,11 +8670,11 @@
       </c>
       <c r="T89" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-508103.69567555311</v>
+        <v>-513857.17022720067</v>
       </c>
       <c r="U89" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.5474282362987442</v>
+        <v>-2.5762738511888434</v>
       </c>
       <c r="V89" t="str">
         <f t="shared" si="25"/>
@@ -8626,11 +8695,11 @@
       </c>
       <c r="T90" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-548724.78550997749</v>
+        <v>-554595.01079923881</v>
       </c>
       <c r="U90" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.7510860961296175</v>
+        <v>-2.78051705241388</v>
       </c>
       <c r="V90" t="str">
         <f t="shared" si="25"/>
@@ -8651,11 +8720,11 @@
       </c>
       <c r="T91" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-589345.87534440181</v>
+        <v>-595332.85137127701</v>
       </c>
       <c r="U91" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.9547439559604909</v>
+        <v>-2.9847602536389162</v>
       </c>
       <c r="V91">
         <f t="shared" si="25"/>
@@ -8676,11 +8745,11 @@
       </c>
       <c r="T92" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-629966.96517882613</v>
+        <v>-636070.69194331521</v>
       </c>
       <c r="U92" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.1584018157913638</v>
+        <v>-3.1890034548639528</v>
       </c>
       <c r="V92" t="str">
         <f t="shared" si="25"/>
@@ -8701,11 +8770,11 @@
       </c>
       <c r="T93" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-670588.05501325044</v>
+        <v>-676808.53251535341</v>
       </c>
       <c r="U93" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.3620596756222372</v>
+        <v>-3.3932466560889893</v>
       </c>
       <c r="V93" t="str">
         <f t="shared" si="25"/>
@@ -8726,11 +8795,11 @@
       </c>
       <c r="T94" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-711209.14484767476</v>
+        <v>-717546.37308739161</v>
       </c>
       <c r="U94" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.5657175354531101</v>
+        <v>-3.5974898573140259</v>
       </c>
       <c r="V94" t="str">
         <f t="shared" si="25"/>
@@ -8751,11 +8820,11 @@
       </c>
       <c r="T95" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-751830.23468209908</v>
+        <v>-758284.21365942981</v>
       </c>
       <c r="U95" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.769375395283983</v>
+        <v>-3.8017330585390625</v>
       </c>
       <c r="V95">
         <f t="shared" si="25"/>
@@ -8776,11 +8845,11 @@
       </c>
       <c r="T96" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-792451.3245165234</v>
+        <v>-799022.05423146801</v>
       </c>
       <c r="U96" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.9730332551148564</v>
+        <v>-4.0059762597640987</v>
       </c>
       <c r="V96" t="str">
         <f t="shared" si="25"/>
@@ -8801,11 +8870,11 @@
       </c>
       <c r="T97" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-833072.41435094771</v>
+        <v>-839759.89480350621</v>
       </c>
       <c r="U97" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.1766911149457293</v>
+        <v>-4.2102194609891352</v>
       </c>
       <c r="V97" t="str">
         <f t="shared" si="25"/>
@@ -8826,11 +8895,11 @@
       </c>
       <c r="T98" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-873693.50418537203</v>
+        <v>-880497.73537554441</v>
       </c>
       <c r="U98" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.3803489747766022</v>
+        <v>-4.4144626622141718</v>
       </c>
       <c r="V98" t="str">
         <f t="shared" si="25"/>
@@ -8851,11 +8920,11 @@
       </c>
       <c r="T99" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-914314.59401979635</v>
+        <v>-921235.57594758261</v>
       </c>
       <c r="U99" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.5840068346074752</v>
+        <v>-4.6187058634392084</v>
       </c>
       <c r="V99">
         <f t="shared" si="25"/>
@@ -8876,11 +8945,11 @@
       </c>
       <c r="T100" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-954935.68385422067</v>
+        <v>-961973.41651962081</v>
       </c>
       <c r="U100" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.787664694438349</v>
+        <v>-4.822949064664245</v>
       </c>
       <c r="V100" t="str">
         <f t="shared" si="25"/>
@@ -8901,11 +8970,11 @@
       </c>
       <c r="T101" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-995556.77368864499</v>
+        <v>-1002711.257091659</v>
       </c>
       <c r="U101" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.9913225542692219</v>
+        <v>-5.0271922658892816</v>
       </c>
       <c r="V101" t="str">
         <f t="shared" si="25"/>
@@ -8926,11 +8995,11 @@
       </c>
       <c r="T102" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1036177.8635230693</v>
+        <v>-1043449.0976636972</v>
       </c>
       <c r="U102" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.1949804141000948</v>
+        <v>-5.2314354671143182</v>
       </c>
       <c r="V102" t="str">
         <f t="shared" si="25"/>
@@ -8951,11 +9020,11 @@
       </c>
       <c r="T103" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1076798.9533574937</v>
+        <v>-1084186.9382357355</v>
       </c>
       <c r="U103" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.3986382739309686</v>
+        <v>-5.4356786683393548</v>
       </c>
       <c r="V103">
         <f t="shared" si="25"/>
@@ -8976,11 +9045,11 @@
       </c>
       <c r="T104" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1117420.0431919182</v>
+        <v>-1124924.7788077737</v>
       </c>
       <c r="U104" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.6022961337618424</v>
+        <v>-5.6399218695643913</v>
       </c>
       <c r="V104" t="str">
         <f t="shared" si="25"/>
@@ -9001,11 +9070,11 @@
       </c>
       <c r="T105" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1158041.1330263426</v>
+        <v>-1165662.6193798119</v>
       </c>
       <c r="U105" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.8059539935927154</v>
+        <v>-5.8441650707894279</v>
       </c>
       <c r="V105" t="str">
         <f t="shared" si="25"/>
@@ -9026,11 +9095,11 @@
       </c>
       <c r="T106" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1198662.222860767</v>
+        <v>-1206400.4599518501</v>
       </c>
       <c r="U106" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.0096118534235892</v>
+        <v>-6.0484082720144645</v>
       </c>
       <c r="V106" t="str">
         <f t="shared" si="25"/>
@@ -9051,11 +9120,11 @@
       </c>
       <c r="T107" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1239283.3126951915</v>
+        <v>-1247138.3005238883</v>
       </c>
       <c r="U107" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.213269713254463</v>
+        <v>-6.2526514732395011</v>
       </c>
       <c r="V107">
         <f t="shared" si="25"/>
@@ -9076,11 +9145,11 @@
       </c>
       <c r="T108" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1279904.4025296159</v>
+        <v>-1287876.1410959265</v>
       </c>
       <c r="U108" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.4169275730853368</v>
+        <v>-6.4568946744645377</v>
       </c>
       <c r="V108" t="str">
         <f t="shared" si="25"/>
@@ -9101,11 +9170,11 @@
       </c>
       <c r="T109" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1320525.4923640403</v>
+        <v>-1328613.9816679647</v>
       </c>
       <c r="U109" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.6205854329162106</v>
+        <v>-6.6611378756895743</v>
       </c>
       <c r="V109" t="str">
         <f t="shared" si="25"/>
@@ -9126,11 +9195,11 @@
       </c>
       <c r="T110" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1361146.5821984648</v>
+        <v>-1369351.8222400029</v>
       </c>
       <c r="U110" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.8242432927470844</v>
+        <v>-6.86538107691461</v>
       </c>
       <c r="V110" t="str">
         <f t="shared" si="25"/>
@@ -9151,11 +9220,11 @@
       </c>
       <c r="T111" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-501767.6720328891</v>
+        <v>-510089.662812041</v>
       </c>
       <c r="U111" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.5156619538045404</v>
+        <v>-2.5573850793662292</v>
       </c>
       <c r="V111">
         <f t="shared" si="25"/>
@@ -9175,7 +9244,7 @@
       </c>
       <c r="Z111" s="59">
         <f ca="1">K39</f>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="AA111" s="59">
         <f ca="1">N39</f>
@@ -9188,11 +9257,11 @@
       </c>
       <c r="T112" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-542388.76186731341</v>
+        <v>-550827.5033840792</v>
       </c>
       <c r="U112" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.7193198136354133</v>
+        <v>-2.7616282805912657</v>
       </c>
       <c r="V112" t="str">
         <f t="shared" si="25"/>
@@ -9213,11 +9282,11 @@
       </c>
       <c r="T113" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-583009.85170173773</v>
+        <v>-591565.3439561174</v>
       </c>
       <c r="U113" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-2.9229776734662862</v>
+        <v>-2.9658714818163023</v>
       </c>
       <c r="V113" t="str">
         <f t="shared" si="25"/>
@@ -9238,11 +9307,11 @@
       </c>
       <c r="T114" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-623630.94153616205</v>
+        <v>-632303.1845281556</v>
       </c>
       <c r="U114" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.1266355332971596</v>
+        <v>-3.1701146830413389</v>
       </c>
       <c r="V114" t="str">
         <f t="shared" si="25"/>
@@ -9263,11 +9332,11 @@
       </c>
       <c r="T115" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-664252.03137058637</v>
+        <v>-673041.0251001938</v>
       </c>
       <c r="U115" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.3302933931280325</v>
+        <v>-3.3743578842663751</v>
       </c>
       <c r="V115">
         <f t="shared" si="25"/>
@@ -9288,11 +9357,11 @@
       </c>
       <c r="T116" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-704873.12120501068</v>
+        <v>-713778.865672232</v>
       </c>
       <c r="U116" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.5339512529589054</v>
+        <v>-3.5786010854914116</v>
       </c>
       <c r="V116" t="str">
         <f t="shared" si="25"/>
@@ -9313,11 +9382,11 @@
       </c>
       <c r="T117" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-745494.211039435</v>
+        <v>-754516.7062442702</v>
       </c>
       <c r="U117" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.7376091127897788</v>
+        <v>-3.7828442867164482</v>
       </c>
       <c r="V117" t="str">
         <f t="shared" si="25"/>
@@ -9338,11 +9407,11 @@
       </c>
       <c r="T118" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-786115.30087385932</v>
+        <v>-795254.5468163084</v>
       </c>
       <c r="U118" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-3.9412669726206517</v>
+        <v>-3.9870874879414848</v>
       </c>
       <c r="V118" t="str">
         <f t="shared" si="25"/>
@@ -9363,11 +9432,11 @@
       </c>
       <c r="T119" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-826736.39070828364</v>
+        <v>-835992.3873883466</v>
       </c>
       <c r="U119" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.1449248324515251</v>
+        <v>-4.191330689166521</v>
       </c>
       <c r="V119">
         <f t="shared" si="25"/>
@@ -9388,11 +9457,11 @@
       </c>
       <c r="T120" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-867357.48054270796</v>
+        <v>-876730.2279603848</v>
       </c>
       <c r="U120" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.348582692282398</v>
+        <v>-4.3955738903915575</v>
       </c>
       <c r="V120" t="str">
         <f t="shared" si="25"/>
@@ -9413,11 +9482,11 @@
       </c>
       <c r="T121" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-907978.57037713227</v>
+        <v>-917468.068532423</v>
       </c>
       <c r="U121" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.5522405521132709</v>
+        <v>-4.5998170916165941</v>
       </c>
       <c r="V121" t="str">
         <f t="shared" si="25"/>
@@ -9438,11 +9507,11 @@
       </c>
       <c r="T122" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-948599.66021155659</v>
+        <v>-958205.9091044612</v>
       </c>
       <c r="U122" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.7558984119441439</v>
+        <v>-4.8040602928416307</v>
       </c>
       <c r="V122" t="str">
         <f t="shared" si="25"/>
@@ -9463,11 +9532,11 @@
       </c>
       <c r="T123" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-989220.75004598091</v>
+        <v>-998943.7496764994</v>
       </c>
       <c r="U123" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.9595562717750177</v>
+        <v>-5.0083034940666673</v>
       </c>
       <c r="V123">
         <f t="shared" si="25"/>
@@ -9488,11 +9557,11 @@
       </c>
       <c r="T124" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1029841.8398804052</v>
+        <v>-1039681.5902485376</v>
       </c>
       <c r="U124" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.1632141316058906</v>
+        <v>-5.2125466952917039</v>
       </c>
       <c r="V124" t="str">
         <f t="shared" si="25"/>
@@ -9513,11 +9582,11 @@
       </c>
       <c r="T125" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1070462.9297148297</v>
+        <v>-1080419.4308205759</v>
       </c>
       <c r="U125" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.3668719914367644</v>
+        <v>-5.4167898965167405</v>
       </c>
       <c r="V125" t="str">
         <f t="shared" si="25"/>
@@ -9538,11 +9607,11 @@
       </c>
       <c r="T126" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1111084.0195492541</v>
+        <v>-1121157.2713926141</v>
       </c>
       <c r="U126" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.5705298512676373</v>
+        <v>-5.6210330977417771</v>
       </c>
       <c r="V126" t="str">
         <f t="shared" si="25"/>
@@ -9563,11 +9632,11 @@
       </c>
       <c r="T127" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1151705.1093836785</v>
+        <v>-1161895.1119646523</v>
       </c>
       <c r="U127" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.7741877110985111</v>
+        <v>-5.8252762989668136</v>
       </c>
       <c r="V127">
         <f t="shared" si="25"/>
@@ -9588,11 +9657,11 @@
       </c>
       <c r="T128" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1192326.199218103</v>
+        <v>-1202632.9525366905</v>
       </c>
       <c r="U128" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-5.977845570929385</v>
+        <v>-6.0295195001918502</v>
       </c>
       <c r="V128" t="str">
         <f t="shared" si="25"/>
@@ -9613,11 +9682,11 @@
       </c>
       <c r="T129" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1232947.2890525274</v>
+        <v>-1243370.7931087287</v>
       </c>
       <c r="U129" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.1815034307602588</v>
+        <v>-6.2337627014168868</v>
       </c>
       <c r="V129" t="str">
         <f t="shared" si="25"/>
@@ -9638,11 +9707,11 @@
       </c>
       <c r="T130" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1273568.3788869518</v>
+        <v>-1284108.6336807669</v>
       </c>
       <c r="U130" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.3851612905911326</v>
+        <v>-6.4380059026419234</v>
       </c>
       <c r="V130" t="str">
         <f t="shared" si="25"/>
@@ -9663,11 +9732,11 @@
       </c>
       <c r="T131" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1314189.4687213763</v>
+        <v>-1324846.4742528051</v>
       </c>
       <c r="U131" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.5888191504220064</v>
+        <v>-6.64224910386696</v>
       </c>
       <c r="V131">
         <f t="shared" si="25"/>
@@ -9688,11 +9757,11 @@
       </c>
       <c r="T132" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1354810.5585558007</v>
+        <v>-1365584.3148248433</v>
       </c>
       <c r="U132" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.7924770102528793</v>
+        <v>-6.8464923050919966</v>
       </c>
       <c r="V132" t="str">
         <f t="shared" si="25"/>
@@ -9713,11 +9782,11 @@
       </c>
       <c r="T133" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1395431.6483902251</v>
+        <v>-1406322.1553968815</v>
       </c>
       <c r="U133" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-6.9961348700837531</v>
+        <v>-7.0507355063170332</v>
       </c>
       <c r="V133" t="str">
         <f t="shared" si="25"/>
@@ -9738,11 +9807,11 @@
       </c>
       <c r="T134" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1436052.7382246496</v>
+        <v>-1447059.9959689197</v>
       </c>
       <c r="U134" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.1997927299146269</v>
+        <v>-7.2549787075420689</v>
       </c>
       <c r="V134" t="str">
         <f t="shared" si="25"/>
@@ -9763,11 +9832,11 @@
       </c>
       <c r="T135" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1476673.828059074</v>
+        <v>-1487797.8365409579</v>
       </c>
       <c r="U135" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.4034505897455007</v>
+        <v>-7.4592219087671054</v>
       </c>
       <c r="V135">
         <f t="shared" si="25"/>
@@ -9788,11 +9857,11 @@
       </c>
       <c r="T136" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1517294.9178934984</v>
+        <v>-1528535.6771129961</v>
       </c>
       <c r="U136" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.6071084495763746</v>
+        <v>-7.663465109992142</v>
       </c>
       <c r="V136" t="str">
         <f t="shared" si="25"/>
@@ -9813,11 +9882,11 @@
       </c>
       <c r="T137" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1557916.0077279229</v>
+        <v>-1569273.5176850343</v>
       </c>
       <c r="U137" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-7.8107663094072484</v>
+        <v>-7.8677083112171786</v>
       </c>
       <c r="V137" t="str">
         <f t="shared" si="25"/>
@@ -9838,11 +9907,11 @@
       </c>
       <c r="T138" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1598537.0975623473</v>
+        <v>-1610011.3582570725</v>
       </c>
       <c r="U138" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.0144241692381222</v>
+        <v>-8.0719515124422152</v>
       </c>
       <c r="V138" t="str">
         <f t="shared" si="25"/>
@@ -9863,11 +9932,11 @@
       </c>
       <c r="T139" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1639158.1873967717</v>
+        <v>-1650749.1988291107</v>
       </c>
       <c r="U139" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.2180820290689951</v>
+        <v>-8.2761947136672518</v>
       </c>
       <c r="V139">
         <f t="shared" si="25"/>
@@ -9888,11 +9957,11 @@
       </c>
       <c r="T140" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1679779.2772311962</v>
+        <v>-1691487.0394011489</v>
       </c>
       <c r="U140" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.4217398888998698</v>
+        <v>-8.4804379148922884</v>
       </c>
       <c r="V140" t="str">
         <f t="shared" si="25"/>
@@ -9913,11 +9982,11 @@
       </c>
       <c r="T141" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1720400.3670656206</v>
+        <v>-1732224.8799731871</v>
       </c>
       <c r="U141" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.6253977487307427</v>
+        <v>-8.684681116117325</v>
       </c>
       <c r="V141" t="str">
         <f t="shared" si="25"/>
@@ -9938,11 +10007,11 @@
       </c>
       <c r="T142" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-1761021.456900045</v>
+        <v>-1772962.7205452253</v>
       </c>
       <c r="U142" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-8.8290556085616156</v>
+        <v>-8.8889243173423615</v>
       </c>
       <c r="V142" t="str">
         <f t="shared" si="25"/>
@@ -9963,11 +10032,11 @@
       </c>
       <c r="T143" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-901642.54673446936</v>
+        <v>-913700.56111726339</v>
       </c>
       <c r="U143" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.5204742696190721</v>
+        <v>-4.5809283197939799</v>
       </c>
       <c r="V143">
         <f t="shared" si="25"/>
@@ -9988,11 +10057,11 @@
       </c>
       <c r="T144" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-942263.63656889368</v>
+        <v>-954438.40168930159</v>
       </c>
       <c r="U144" s="62">
         <f t="shared" ca="1" si="21"/>
-        <v>-4.7241321294499459</v>
+        <v>-4.7851715210190164</v>
       </c>
       <c r="V144" t="str">
         <f t="shared" si="25"/>
@@ -10013,11 +10082,11 @@
       </c>
       <c r="T145" s="61">
         <f t="shared" ca="1" si="24"/>
-        <v>-982884.726403318</v>
+        <v>-995176.24226133979</v>
       </c>
       <c r="U145" s="62">
         <f t="shared" ref="U145:U159" ca="1" si="27">T145/$O$3</f>
-        <v>-4.9277899892808188</v>
+        <v>-4.989414722244053</v>
       </c>
       <c r="V145" t="str">
         <f t="shared" si="25"/>
@@ -10038,11 +10107,11 @@
       </c>
       <c r="T146" s="61">
         <f t="shared" ref="T146:T159" ca="1" si="29">IF(AND(T145&gt;0,W146=0),T145*(IF(SUM($R$3,0.01*$M$3)&gt;0.99,0.99,$R$3+0.01*$M$3)),T145)+((($Q$3+$Q$3*$S$3)/4)+(IF(X146=0,$P$3*_xlfn.IFS(Y146="НЕУРОЖАЙ",0.25,Y146="ОБЫЧНЫЙ",1,Y146="РЕКОРД",1.25,Y146="",1),0)))-($O$3/4)</f>
-        <v>-1023505.8162377423</v>
+        <v>-1035914.082833378</v>
       </c>
       <c r="U146" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-5.1314478491116917</v>
+        <v>-5.1936579234690896</v>
       </c>
       <c r="V146" t="str">
         <f t="shared" si="25"/>
@@ -10063,11 +10132,11 @@
       </c>
       <c r="T147" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1064126.9060721667</v>
+        <v>-1076651.9234054163</v>
       </c>
       <c r="U147" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-5.3351057089425655</v>
+        <v>-5.3979011246941271</v>
       </c>
       <c r="V147">
         <f t="shared" si="25"/>
@@ -10088,11 +10157,11 @@
       </c>
       <c r="T148" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1104747.9959065912</v>
+        <v>-1117389.7639774545</v>
       </c>
       <c r="U148" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-5.5387635687734393</v>
+        <v>-5.6021443259191628</v>
       </c>
       <c r="V148" t="str">
         <f t="shared" ref="V148:V159" si="30">IF(W148=0,V144+1,"")</f>
@@ -10113,11 +10182,11 @@
       </c>
       <c r="T149" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1145369.0857410156</v>
+        <v>-1158127.6045494927</v>
       </c>
       <c r="U149" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-5.7424214286043131</v>
+        <v>-5.8063875271441994</v>
       </c>
       <c r="V149" t="str">
         <f t="shared" si="30"/>
@@ -10138,11 +10207,11 @@
       </c>
       <c r="T150" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1185990.1755754401</v>
+        <v>-1198865.4451215309</v>
       </c>
       <c r="U150" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-5.9460792884351861</v>
+        <v>-6.010630728369236</v>
       </c>
       <c r="V150" t="str">
         <f t="shared" si="30"/>
@@ -10163,11 +10232,11 @@
       </c>
       <c r="T151" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1226611.2654098645</v>
+        <v>-1239603.2856935691</v>
       </c>
       <c r="U151" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-6.1497371482660599</v>
+        <v>-6.2148739295942725</v>
       </c>
       <c r="V151">
         <f t="shared" si="30"/>
@@ -10188,11 +10257,11 @@
       </c>
       <c r="T152" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1267232.3552442889</v>
+        <v>-1280341.1262656073</v>
       </c>
       <c r="U152" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-6.3533950080969337</v>
+        <v>-6.4191171308193091</v>
       </c>
       <c r="V152" t="str">
         <f t="shared" si="30"/>
@@ -10213,11 +10282,11 @@
       </c>
       <c r="T153" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1307853.4450787134</v>
+        <v>-1321078.9668376455</v>
       </c>
       <c r="U153" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-6.5570528679278075</v>
+        <v>-6.6233603320443457</v>
       </c>
       <c r="V153" t="str">
         <f t="shared" si="30"/>
@@ -10238,11 +10307,11 @@
       </c>
       <c r="T154" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1348474.5349131378</v>
+        <v>-1361816.8074096837</v>
       </c>
       <c r="U154" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-6.7607107277586813</v>
+        <v>-6.8276035332693823</v>
       </c>
       <c r="V154" t="str">
         <f t="shared" si="30"/>
@@ -10263,11 +10332,11 @@
       </c>
       <c r="T155" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1389095.6247475622</v>
+        <v>-1402554.6479817219</v>
       </c>
       <c r="U155" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-6.9643685875895551</v>
+        <v>-7.0318467344944189</v>
       </c>
       <c r="V155">
         <f t="shared" si="30"/>
@@ -10288,11 +10357,11 @@
       </c>
       <c r="T156" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1429716.7145819867</v>
+        <v>-1443292.4885537601</v>
       </c>
       <c r="U156" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-7.168026447420428</v>
+        <v>-7.2360899357194555</v>
       </c>
       <c r="V156" t="str">
         <f t="shared" si="30"/>
@@ -10313,11 +10382,11 @@
       </c>
       <c r="T157" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1470337.8044164111</v>
+        <v>-1484030.3291257983</v>
       </c>
       <c r="U157" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-7.3716843072513019</v>
+        <v>-7.4403331369444921</v>
       </c>
       <c r="V157" t="str">
         <f t="shared" si="30"/>
@@ -10338,11 +10407,11 @@
       </c>
       <c r="T158" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1510958.8942508355</v>
+        <v>-1524768.1696978365</v>
       </c>
       <c r="U158" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-7.5753421670821757</v>
+        <v>-7.6445763381695278</v>
       </c>
       <c r="V158" t="str">
         <f t="shared" si="30"/>
@@ -10363,11 +10432,11 @@
       </c>
       <c r="T159" s="61">
         <f t="shared" ca="1" si="29"/>
-        <v>-1551579.98408526</v>
+        <v>-1565506.0102698747</v>
       </c>
       <c r="U159" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>-7.7790000269130495</v>
+        <v>-7.8488195393945643</v>
       </c>
       <c r="V159">
         <f t="shared" si="30"/>
@@ -10426,11 +10495,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D564EA19-B490-438E-9BCC-A522DD820C42}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10442,66 +10511,68 @@
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="164" t="s">
+      <c r="E1" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
       <c r="T1" s="166"/>
-      <c r="U1" s="154" t="s">
+      <c r="U1" s="167"/>
+      <c r="V1" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="155"/>
-    </row>
-    <row r="2" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="163"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="156"/>
+    </row>
+    <row r="2" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="164"/>
       <c r="B2" s="75" t="s">
         <v>70</v>
       </c>
@@ -10520,62 +10591,65 @@
       <c r="G2" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="140" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="J2" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="K2" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="L2" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="M2" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="N2" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="O2" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="P2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="Q2" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="R2" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="125" t="s">
+      <c r="S2" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="T2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="U2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="V2" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="W2" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="105" t="s">
+      <c r="X2" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="105" t="s">
+      <c r="Y2" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="138" t="s">
+      <c r="AA2" s="138" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>5</v>
       </c>
@@ -10592,17 +10666,20 @@
         <f>База!J3</f>
         <v>7</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G3" s="99">
         <f>База!K3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="126">
+      <c r="H3" s="99">
+        <f>База!M3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="126">
         <v>15</v>
       </c>
-      <c r="I3" s="126">
+      <c r="J3" s="126">
         <v>3</v>
       </c>
-      <c r="J3" s="126"/>
       <c r="K3" s="126"/>
       <c r="L3" s="126"/>
       <c r="M3" s="126"/>
@@ -10611,32 +10688,33 @@
       <c r="P3" s="126"/>
       <c r="Q3" s="126"/>
       <c r="R3" s="126"/>
-      <c r="S3" s="121">
+      <c r="S3" s="126"/>
+      <c r="T3" s="121">
         <f>Провиант!B3</f>
         <v>3</v>
       </c>
-      <c r="T3" s="121">
+      <c r="U3" s="121">
         <f>Провиант!C3</f>
         <v>3</v>
       </c>
-      <c r="U3" s="124">
-        <f>IF($Z$2=$Z$12,SUMPRODUCT(E3:T3,$E$12:$T$12),SUMPRODUCT(E3:T3,$E$13:$T$13))</f>
-        <v>100.25</v>
-      </c>
       <c r="V3" s="124">
-        <f>IF($Z$2=$Z$12,SUMPRODUCT(B3:D3,$B$12:$D$12),SUMPRODUCT(B3:D3,$B$13:$D$13))</f>
+        <f>IF($AA$2=$AA$12,SUMPRODUCT(E3:U3,$E$12:$U$12),SUMPRODUCT(E3:U3,$E$13:$U$13))</f>
+        <v>103.75</v>
+      </c>
+      <c r="W3" s="124">
+        <f>IF($AA$2=$AA$12,SUMPRODUCT(B3:D3,$B$12:$D$12),SUMPRODUCT(B3:D3,$B$13:$D$13))</f>
         <v>60</v>
       </c>
-      <c r="W3" s="126">
-        <f>V3-U3</f>
-        <v>-40.25</v>
-      </c>
-      <c r="X3" s="131">
-        <f>V3/U3</f>
-        <v>0.59850374064837908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X3" s="126">
+        <f>W3-V3</f>
+        <v>-43.75</v>
+      </c>
+      <c r="Y3" s="131">
+        <f>W3/V3</f>
+        <v>0.57831325301204817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
@@ -10653,55 +10731,59 @@
         <f>База!J4</f>
         <v>13</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="100">
         <f>База!K4</f>
         <v>5</v>
       </c>
       <c r="H4" s="85">
+        <f>База!M4</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="85">
         <v>15</v>
       </c>
-      <c r="I4" s="85">
+      <c r="J4" s="85">
         <v>11</v>
       </c>
-      <c r="J4" s="85">
+      <c r="K4" s="85">
         <v>2</v>
       </c>
-      <c r="K4" s="85">
+      <c r="L4" s="85">
         <v>10</v>
       </c>
-      <c r="L4" s="85"/>
       <c r="M4" s="85"/>
       <c r="N4" s="85"/>
       <c r="O4" s="85"/>
       <c r="P4" s="85"/>
       <c r="Q4" s="85"/>
       <c r="R4" s="85"/>
-      <c r="S4" s="127">
+      <c r="S4" s="85"/>
+      <c r="T4" s="127">
         <f>Провиант!B4</f>
         <v>15</v>
       </c>
-      <c r="T4" s="127">
+      <c r="U4" s="127">
         <f>Провиант!C4</f>
         <v>10</v>
       </c>
-      <c r="U4" s="127">
-        <f t="shared" ref="U4:U11" si="0">IF($Z$2=$Z$12,SUMPRODUCT(E4:T4,$E$12:$T$12),SUMPRODUCT(E4:T4,$E$13:$T$13))</f>
-        <v>214.75</v>
-      </c>
       <c r="V4" s="127">
-        <f t="shared" ref="V4:V11" si="1">IF($Z$2=$Z$12,SUMPRODUCT(B4:D4,$B$12:$D$12),SUMPRODUCT(B4:D4,$B$13:$D$13))</f>
+        <f t="shared" ref="V4:V11" si="0">IF($AA$2=$AA$12,SUMPRODUCT(E4:U4,$E$12:$U$12),SUMPRODUCT(E4:U4,$E$13:$U$13))</f>
+        <v>228.75</v>
+      </c>
+      <c r="W4" s="127">
+        <f t="shared" ref="W4:W11" si="1">IF($AA$2=$AA$12,SUMPRODUCT(B4:D4,$B$12:$D$12),SUMPRODUCT(B4:D4,$B$13:$D$13))</f>
         <v>180</v>
       </c>
-      <c r="W4" s="85">
-        <f t="shared" ref="W4:W11" si="2">V4-U4</f>
-        <v>-34.75</v>
-      </c>
-      <c r="X4" s="132">
-        <f t="shared" ref="X4:X11" si="3">V4/U4</f>
-        <v>0.8381839348079162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X4" s="85">
+        <f t="shared" ref="X4:X11" si="2">W4-V4</f>
+        <v>-48.75</v>
+      </c>
+      <c r="Y4" s="132">
+        <f t="shared" ref="Y4:Y11" si="3">W4/V4</f>
+        <v>0.78688524590163933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>4</v>
       </c>
@@ -10720,53 +10802,57 @@
         <f>База!J5</f>
         <v>7</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="101">
         <f>База!K5</f>
         <v>12</v>
       </c>
       <c r="H5" s="84">
+        <f>База!M5</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="84">
         <v>16</v>
       </c>
-      <c r="I5" s="84">
+      <c r="J5" s="84">
         <v>4</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84">
+      <c r="K5" s="84"/>
+      <c r="L5" s="84">
         <v>16</v>
       </c>
-      <c r="L5" s="84"/>
       <c r="M5" s="84"/>
       <c r="N5" s="84"/>
       <c r="O5" s="84"/>
       <c r="P5" s="84"/>
       <c r="Q5" s="84"/>
       <c r="R5" s="84"/>
-      <c r="S5" s="124">
+      <c r="S5" s="84"/>
+      <c r="T5" s="124">
         <f>Провиант!B5</f>
         <v>10</v>
       </c>
-      <c r="T5" s="124">
+      <c r="U5" s="124">
         <f>Провиант!C5</f>
         <v>8</v>
       </c>
-      <c r="U5" s="124">
+      <c r="V5" s="124">
         <f t="shared" si="0"/>
-        <v>239.5</v>
-      </c>
-      <c r="V5" s="124">
+        <v>257</v>
+      </c>
+      <c r="W5" s="124">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="W5" s="84">
+      <c r="X5" s="84">
         <f t="shared" si="2"/>
-        <v>30.5</v>
-      </c>
-      <c r="X5" s="133">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="133">
         <f t="shared" si="3"/>
-        <v>1.1273486430062631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.0505836575875487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
         <v>1</v>
       </c>
@@ -10783,53 +10869,57 @@
         <f>База!J6</f>
         <v>9</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="100">
         <f>База!K6</f>
         <v>3</v>
       </c>
       <c r="H6" s="85">
+        <f>База!M6</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="85">
         <v>30</v>
       </c>
-      <c r="I6" s="85">
+      <c r="J6" s="85">
         <v>6</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85">
+      <c r="K6" s="85"/>
+      <c r="L6" s="85">
         <v>1</v>
       </c>
-      <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="85"/>
       <c r="O6" s="85"/>
       <c r="P6" s="85"/>
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
-      <c r="S6" s="127">
+      <c r="S6" s="85"/>
+      <c r="T6" s="127">
         <f>Провиант!B6</f>
         <v>22</v>
       </c>
-      <c r="T6" s="127">
+      <c r="U6" s="127">
         <f>Провиант!C6</f>
         <v>20</v>
       </c>
-      <c r="U6" s="127">
+      <c r="V6" s="127">
         <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="V6" s="127">
+        <v>200</v>
+      </c>
+      <c r="W6" s="127">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="W6" s="85">
+      <c r="X6" s="85">
         <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="X6" s="132">
+        <v>-20</v>
+      </c>
+      <c r="Y6" s="132">
         <f t="shared" si="3"/>
-        <v>0.93264248704663211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>7</v>
       </c>
@@ -10848,53 +10938,57 @@
         <f>База!J7</f>
         <v>12</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="101">
         <f>База!K7</f>
         <v>9</v>
       </c>
       <c r="H7" s="84">
+        <f>База!M7</f>
+        <v>5</v>
+      </c>
+      <c r="I7" s="84">
         <v>41</v>
       </c>
-      <c r="I7" s="84">
+      <c r="J7" s="84">
         <v>5</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84">
+      <c r="K7" s="84"/>
+      <c r="L7" s="84">
         <v>7</v>
       </c>
-      <c r="L7" s="84"/>
       <c r="M7" s="84"/>
       <c r="N7" s="84"/>
       <c r="O7" s="84"/>
       <c r="P7" s="84"/>
       <c r="Q7" s="84"/>
       <c r="R7" s="84"/>
-      <c r="S7" s="124">
+      <c r="S7" s="84"/>
+      <c r="T7" s="124">
         <f>Провиант!B7</f>
         <v>18</v>
       </c>
-      <c r="T7" s="124">
+      <c r="U7" s="124">
         <f>Провиант!C7</f>
         <v>15</v>
       </c>
-      <c r="U7" s="124">
+      <c r="V7" s="124">
         <f t="shared" si="0"/>
-        <v>316.5</v>
-      </c>
-      <c r="V7" s="124">
+        <v>334</v>
+      </c>
+      <c r="W7" s="124">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="W7" s="84">
+      <c r="X7" s="84">
         <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="X7" s="133">
+        <v>-4</v>
+      </c>
+      <c r="Y7" s="133">
         <f t="shared" si="3"/>
-        <v>1.0426540284360191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.9880239520958084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="94" t="s">
         <v>2</v>
       </c>
@@ -10913,53 +11007,57 @@
         <f>База!J8</f>
         <v>14</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="100">
         <f>База!K8</f>
         <v>7</v>
       </c>
       <c r="H8" s="85">
+        <f>База!M8</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="85">
         <v>44</v>
       </c>
-      <c r="I8" s="85">
+      <c r="J8" s="85">
         <v>8</v>
       </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85">
+      <c r="K8" s="85"/>
+      <c r="L8" s="85">
         <v>7</v>
       </c>
-      <c r="L8" s="85"/>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
       <c r="O8" s="85"/>
       <c r="P8" s="85"/>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
-      <c r="S8" s="127">
+      <c r="S8" s="85"/>
+      <c r="T8" s="127">
         <f>Провиант!B8</f>
         <v>8</v>
       </c>
-      <c r="T8" s="127">
+      <c r="U8" s="127">
         <f>Провиант!C8</f>
         <v>23</v>
       </c>
-      <c r="U8" s="127">
+      <c r="V8" s="127">
         <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="V8" s="127">
+        <v>331</v>
+      </c>
+      <c r="W8" s="127">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="W8" s="85">
+      <c r="X8" s="85">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="X8" s="132">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="132">
         <f t="shared" si="3"/>
-        <v>1.1612903225806452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.0876132930513596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>6</v>
       </c>
@@ -10976,17 +11074,20 @@
         <f>База!J9</f>
         <v>6</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="101">
         <f>База!K9</f>
         <v>0</v>
       </c>
       <c r="H9" s="84">
+        <f>База!M9</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="84">
         <v>7</v>
       </c>
-      <c r="I9" s="84">
+      <c r="J9" s="84">
         <v>4</v>
       </c>
-      <c r="J9" s="84"/>
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
       <c r="M9" s="84"/>
@@ -10995,32 +11096,33 @@
       <c r="P9" s="84"/>
       <c r="Q9" s="84"/>
       <c r="R9" s="84"/>
-      <c r="S9" s="124">
+      <c r="S9" s="84"/>
+      <c r="T9" s="124">
         <f>Провиант!B9</f>
         <v>4</v>
       </c>
-      <c r="T9" s="124">
+      <c r="U9" s="124">
         <f>Провиант!C9</f>
         <v>4</v>
       </c>
-      <c r="U9" s="124">
+      <c r="V9" s="124">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="V9" s="124">
+        <v>87.5</v>
+      </c>
+      <c r="W9" s="124">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="W9" s="84">
+      <c r="X9" s="84">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="X9" s="133">
+        <v>32.5</v>
+      </c>
+      <c r="Y9" s="133">
         <f t="shared" si="3"/>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.3714285714285714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="94" t="s">
         <v>8</v>
       </c>
@@ -11037,11 +11139,14 @@
         <f>База!J10</f>
         <v>2</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="100">
         <f>База!K10</f>
         <v>1</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="85">
+        <f>База!M10</f>
+        <v>0</v>
+      </c>
       <c r="I10" s="85"/>
       <c r="J10" s="85"/>
       <c r="K10" s="85"/>
@@ -11052,32 +11157,33 @@
       <c r="P10" s="85"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
-      <c r="S10" s="127">
+      <c r="S10" s="85"/>
+      <c r="T10" s="127">
         <f>Провиант!B10</f>
         <v>0</v>
       </c>
-      <c r="T10" s="127">
+      <c r="U10" s="127">
         <f>Провиант!C10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="127">
+      <c r="V10" s="127">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="V10" s="127">
+      <c r="W10" s="127">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="W10" s="85">
+      <c r="X10" s="85">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="X10" s="132">
+      <c r="Y10" s="132">
         <f t="shared" si="3"/>
         <v>1.7647058823529411</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="96" t="s">
         <v>3</v>
       </c>
@@ -11088,20 +11194,23 @@
       <c r="D11" s="102"/>
       <c r="E11" s="89">
         <f>База!I11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="92">
         <f>База!J11</f>
-        <v>3</v>
-      </c>
-      <c r="G11" s="92">
+        <v>2</v>
+      </c>
+      <c r="G11" s="102">
         <f>База!K11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="102">
+        <f>База!M11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="92">
         <v>4</v>
       </c>
-      <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
       <c r="L11" s="92"/>
@@ -11111,32 +11220,33 @@
       <c r="P11" s="92"/>
       <c r="Q11" s="92"/>
       <c r="R11" s="92"/>
-      <c r="S11" s="128">
+      <c r="S11" s="92"/>
+      <c r="T11" s="128">
         <f>Провиант!B11</f>
         <v>15</v>
       </c>
-      <c r="T11" s="128">
+      <c r="U11" s="128">
         <f>Провиант!C11</f>
         <v>20</v>
       </c>
-      <c r="U11" s="128">
+      <c r="V11" s="128">
         <f t="shared" si="0"/>
-        <v>45.75</v>
-      </c>
-      <c r="V11" s="128">
+        <v>44.75</v>
+      </c>
+      <c r="W11" s="128">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="W11" s="92">
+      <c r="X11" s="92">
         <f t="shared" si="2"/>
-        <v>14.25</v>
-      </c>
-      <c r="X11" s="134">
+        <v>15.25</v>
+      </c>
+      <c r="Y11" s="134">
         <f t="shared" si="3"/>
-        <v>1.3114754098360655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.3407821229050279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="139" t="s">
         <v>71</v>
       </c>
@@ -11158,14 +11268,14 @@
       <c r="G12" s="139">
         <v>7</v>
       </c>
-      <c r="H12" s="139">
+      <c r="H12" s="169">
+        <v>3.5</v>
+      </c>
+      <c r="I12" s="139">
         <v>1</v>
       </c>
-      <c r="I12" s="139">
+      <c r="J12" s="139">
         <v>2</v>
-      </c>
-      <c r="J12" s="139">
-        <v>0.5</v>
       </c>
       <c r="K12" s="139">
         <v>0.5</v>
@@ -11174,41 +11284,44 @@
         <v>0.5</v>
       </c>
       <c r="M12" s="139">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="139">
         <v>4</v>
       </c>
-      <c r="N12" s="139">
+      <c r="O12" s="139">
         <v>0.5</v>
-      </c>
-      <c r="O12" s="139">
-        <v>1.5</v>
       </c>
       <c r="P12" s="139">
         <v>1.5</v>
       </c>
       <c r="Q12" s="139">
+        <v>1.5</v>
+      </c>
+      <c r="R12" s="139">
         <v>15</v>
       </c>
-      <c r="R12" s="139">
+      <c r="S12" s="139">
         <v>0.1</v>
       </c>
-      <c r="S12" s="139">
+      <c r="T12" s="139">
         <v>0.25</v>
       </c>
-      <c r="T12" s="139">
+      <c r="U12" s="139">
         <v>0.5</v>
       </c>
-      <c r="U12" s="59"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="45">
-        <f>SUM(W3:W11)</f>
-        <v>82.25</v>
-      </c>
-      <c r="X12" s="103"/>
-      <c r="Z12" t="s">
+      <c r="V12" s="59"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="45">
+        <f>SUM(X3:X11)</f>
+        <v>-0.75</v>
+      </c>
+      <c r="Y12" s="103"/>
+      <c r="AA12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -11228,81 +11341,82 @@
       <c r="R13" s="59"/>
       <c r="S13" s="59"/>
       <c r="T13" s="59"/>
-      <c r="Z13" t="s">
+      <c r="U13" s="59"/>
+      <c r="AA13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U15" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" s="130">
-        <f>IF($X$3&lt;1,(1-$X$3)*-1,"")</f>
-        <v>-0.40149625935162092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U16" t="s">
+      <c r="Y15" s="130">
+        <f>IF($Y$3&lt;1,(1-$Y$3)*-1,"")</f>
+        <v>-0.42168674698795183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
         <v>86</v>
       </c>
-      <c r="X16" s="130">
-        <f t="shared" ref="X16:X20" si="4">IF($X$3&lt;1,(1-$X$3)*-1,"")</f>
-        <v>-0.40149625935162092</v>
-      </c>
-    </row>
-    <row r="17" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U17" t="s">
+      <c r="Y16" s="130">
+        <f t="shared" ref="Y16:Y20" si="4">IF($Y$3&lt;1,(1-$Y$3)*-1,"")</f>
+        <v>-0.42168674698795183</v>
+      </c>
+    </row>
+    <row r="17" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
         <v>87</v>
       </c>
-      <c r="X17" s="130">
+      <c r="Y17" s="130">
         <f t="shared" si="4"/>
-        <v>-0.40149625935162092</v>
-      </c>
-    </row>
-    <row r="18" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U18" t="s">
+        <v>-0.42168674698795183</v>
+      </c>
+    </row>
+    <row r="18" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
         <v>88</v>
       </c>
-      <c r="X18" s="130">
+      <c r="Y18" s="130">
         <f t="shared" si="4"/>
-        <v>-0.40149625935162092</v>
-      </c>
-    </row>
-    <row r="19" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U19" t="s">
+        <v>-0.42168674698795183</v>
+      </c>
+    </row>
+    <row r="19" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
         <v>89</v>
       </c>
-      <c r="X19" s="130">
+      <c r="Y19" s="130">
         <f t="shared" si="4"/>
-        <v>-0.40149625935162092</v>
-      </c>
-    </row>
-    <row r="20" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U20" t="s">
+        <v>-0.42168674698795183</v>
+      </c>
+    </row>
+    <row r="20" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
         <v>90</v>
       </c>
-      <c r="X20" s="130">
+      <c r="Y20" s="130">
         <f t="shared" si="4"/>
-        <v>-0.40149625935162092</v>
-      </c>
-    </row>
-    <row r="21" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U21" t="s">
+        <v>-0.42168674698795183</v>
+      </c>
+    </row>
+    <row r="21" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
         <v>97</v>
       </c>
-      <c r="X21" s="130">
-        <f>IF($X$3&lt;1,(1-$X$3)*-0.5,"")</f>
-        <v>-0.20074812967581046</v>
+      <c r="Y21" s="130">
+        <f>IF($Y$3&lt;1,(1-$Y$3)*-0.5,"")</f>
+        <v>-0.21084337349397592</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="E1:T1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="E1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="W3:W11">
+  <conditionalFormatting sqref="X3:X11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11311,7 +11425,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{CF468174-D99B-46DA-AFEB-8821176AE034}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{CF468174-D99B-46DA-AFEB-8821176AE034}">
       <formula1>электричество</formula1>
     </dataValidation>
   </dataValidations>
